--- a/assignment/4.xlsx
+++ b/assignment/4.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>Initial Loan Amount</t>
   </si>
@@ -85,6 +85,9 @@
   <si>
     <t>Interest Accrual Days</t>
   </si>
+  <si>
+    <t xml:space="preserve"> $-  </t>
+  </si>
 </sst>
 </file>
 
@@ -95,7 +98,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -119,11 +122,6 @@
     <font>
       <b/>
       <i/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -167,12 +165,12 @@
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -188,29 +186,25 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="8" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="8" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -335,11 +329,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2121511464"/>
-        <c:axId val="2121942744"/>
+        <c:axId val="2030776280"/>
+        <c:axId val="2140293528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2121511464"/>
+        <c:axId val="2030776280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -413,7 +407,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2121942744"/>
+        <c:crossAx val="2140293528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -423,7 +417,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2121942744"/>
+        <c:axId val="2140293528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -468,7 +462,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2121511464"/>
+        <c:crossAx val="2030776280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -619,7 +613,7 @@
                 <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
                 <c:ptCount val="360"/>
                 <c:pt idx="0">
-                  <c:v>7.0</c:v>
+                  <c:v>200000.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3.0</c:v>
@@ -658,7 +652,7 @@
                   <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14.0</c:v>
+                  <c:v>400000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -700,6 +694,9 @@
               <c:numCache>
                 <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
                 <c:ptCount val="360"/>
+                <c:pt idx="0">
+                  <c:v>1000.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -740,6 +737,9 @@
               <c:numCache>
                 <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
                 <c:ptCount val="360"/>
+                <c:pt idx="0">
+                  <c:v>199000.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -755,11 +755,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2121546024"/>
-        <c:axId val="2122013512"/>
+        <c:axId val="2030360008"/>
+        <c:axId val="2120871224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2121546024"/>
+        <c:axId val="2030360008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -833,7 +833,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2122013512"/>
+        <c:crossAx val="2120871224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -843,7 +843,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2122013512"/>
+        <c:axId val="2120871224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -888,7 +888,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2121546024"/>
+        <c:crossAx val="2030360008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1378,7 +1378,7 @@
   <dimension ref="A1:H569"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="A13" sqref="A13:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1412,10 +1412,10 @@
       <c r="C4" s="7">
         <v>200000</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="21">
+      <c r="G4" s="15">
         <f>PMT(C5/12,C6*12,-1)</f>
         <v>5.9955052515275236E-3</v>
       </c>
@@ -1440,7 +1440,7 @@
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="11">
         <v>41654</v>
       </c>
     </row>
@@ -1448,7 +1448,7 @@
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="13">
         <f>EOMONTH(C7,0)-C7</f>
         <v>16</v>
       </c>
@@ -1457,7 +1457,7 @@
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="14">
         <f>(C5/360)*C4*C8</f>
         <v>533.33333333333337</v>
       </c>
@@ -1474,7 +1474,7 @@
       <c r="B11" s="2"/>
     </row>
     <row r="12" spans="1:8" ht="24">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -1497,29 +1497,25 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="14">
-        <f>EOMONTH(C7,0)</f>
+      <c r="A13" s="16">
         <v>41670</v>
       </c>
-      <c r="B13" s="15">
+      <c r="B13" s="17">
         <v>0</v>
       </c>
-      <c r="C13" s="16">
-        <f>C4</f>
+      <c r="C13" s="18">
         <v>200000</v>
       </c>
-      <c r="D13" s="20">
-        <v>0</v>
+      <c r="D13" s="18">
+        <v>200000</v>
       </c>
       <c r="E13" s="19">
-        <f>C9</f>
-        <v>533.33333333333337</v>
-      </c>
-      <c r="F13" s="20">
-        <v>0</v>
-      </c>
-      <c r="G13" s="16">
-        <f>C13</f>
+        <v>533.33000000000004</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="18">
         <v>200000</v>
       </c>
       <c r="H13" s="2" t="s">
@@ -1527,29 +1523,33 @@
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="12">
-        <f>EOMONTH(C7,1)</f>
+      <c r="A14" s="11">
         <v>41698</v>
       </c>
       <c r="B14" s="6">
         <v>1</v>
       </c>
       <c r="C14" s="5">
-        <f>C4</f>
         <v>200000</v>
       </c>
-      <c r="D14" s="10">
-        <v>7</v>
-      </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="10"/>
+      <c r="D14" s="5">
+        <v>200000</v>
+      </c>
+      <c r="E14" s="5">
+        <v>1000</v>
+      </c>
+      <c r="F14" s="5">
+        <v>199000</v>
+      </c>
+      <c r="G14" s="5">
+        <v>1000</v>
+      </c>
       <c r="H14" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="12">
+      <c r="A15" s="11">
         <f>EOMONTH(A14,1)</f>
         <v>41729</v>
       </c>
@@ -1569,7 +1569,7 @@
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="12">
+      <c r="A16" s="11">
         <f t="shared" ref="A16:A79" si="1">EOMONTH(A15,1)</f>
         <v>41759</v>
       </c>
@@ -1589,7 +1589,7 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="12">
+      <c r="A17" s="11">
         <f t="shared" si="1"/>
         <v>41790</v>
       </c>
@@ -1606,7 +1606,7 @@
       <c r="G17" s="5"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="12">
+      <c r="A18" s="11">
         <f t="shared" si="1"/>
         <v>41820</v>
       </c>
@@ -1623,7 +1623,7 @@
       <c r="G18" s="5"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="12">
+      <c r="A19" s="11">
         <f t="shared" si="1"/>
         <v>41851</v>
       </c>
@@ -1640,7 +1640,7 @@
       <c r="G19" s="5"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="12">
+      <c r="A20" s="11">
         <f t="shared" si="1"/>
         <v>41882</v>
       </c>
@@ -1657,7 +1657,7 @@
       <c r="G20" s="5"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="12">
+      <c r="A21" s="11">
         <f t="shared" si="1"/>
         <v>41912</v>
       </c>
@@ -1674,7 +1674,7 @@
       <c r="G21" s="5"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="12">
+      <c r="A22" s="11">
         <f t="shared" si="1"/>
         <v>41943</v>
       </c>
@@ -1691,7 +1691,7 @@
       <c r="G22" s="5"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="12">
+      <c r="A23" s="11">
         <f t="shared" si="1"/>
         <v>41973</v>
       </c>
@@ -1708,7 +1708,7 @@
       <c r="G23" s="5"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="12">
+      <c r="A24" s="11">
         <f t="shared" si="1"/>
         <v>42004</v>
       </c>
@@ -1725,7 +1725,7 @@
       <c r="G24" s="5"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="12">
+      <c r="A25" s="11">
         <f t="shared" si="1"/>
         <v>42035</v>
       </c>
@@ -1742,7 +1742,7 @@
       <c r="G25" s="5"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="12">
+      <c r="A26" s="11">
         <f t="shared" si="1"/>
         <v>42063</v>
       </c>
@@ -1759,7 +1759,7 @@
       <c r="G26" s="5"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="12">
+      <c r="A27" s="11">
         <f t="shared" si="1"/>
         <v>42094</v>
       </c>
@@ -1770,14 +1770,14 @@
       <c r="C27" s="5"/>
       <c r="D27" s="10">
         <f>D14*2</f>
-        <v>14</v>
+        <v>400000</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="7"/>
       <c r="G27" s="5"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="12">
+      <c r="A28" s="11">
         <f t="shared" si="1"/>
         <v>42124</v>
       </c>
@@ -1792,7 +1792,7 @@
       <c r="G28" s="5"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="12">
+      <c r="A29" s="11">
         <f t="shared" si="1"/>
         <v>42155</v>
       </c>
@@ -1807,7 +1807,7 @@
       <c r="G29" s="5"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="12">
+      <c r="A30" s="11">
         <f t="shared" si="1"/>
         <v>42185</v>
       </c>
@@ -1822,7 +1822,7 @@
       <c r="G30" s="5"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="12">
+      <c r="A31" s="11">
         <f t="shared" si="1"/>
         <v>42216</v>
       </c>
@@ -1837,7 +1837,7 @@
       <c r="G31" s="5"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="12">
+      <c r="A32" s="11">
         <f t="shared" si="1"/>
         <v>42247</v>
       </c>
@@ -1852,7 +1852,7 @@
       <c r="G32" s="5"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="12">
+      <c r="A33" s="11">
         <f t="shared" si="1"/>
         <v>42277</v>
       </c>
@@ -1867,7 +1867,7 @@
       <c r="G33" s="5"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="12">
+      <c r="A34" s="11">
         <f t="shared" si="1"/>
         <v>42308</v>
       </c>
@@ -1882,7 +1882,7 @@
       <c r="G34" s="5"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="12">
+      <c r="A35" s="11">
         <f t="shared" si="1"/>
         <v>42338</v>
       </c>
@@ -1897,7 +1897,7 @@
       <c r="G35" s="5"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="12">
+      <c r="A36" s="11">
         <f t="shared" si="1"/>
         <v>42369</v>
       </c>
@@ -1912,7 +1912,7 @@
       <c r="G36" s="5"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="12">
+      <c r="A37" s="11">
         <f t="shared" si="1"/>
         <v>42400</v>
       </c>
@@ -1927,7 +1927,7 @@
       <c r="G37" s="9"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="12">
+      <c r="A38" s="11">
         <f t="shared" si="1"/>
         <v>42429</v>
       </c>
@@ -1942,7 +1942,7 @@
       <c r="G38" s="5"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="12">
+      <c r="A39" s="11">
         <f t="shared" si="1"/>
         <v>42460</v>
       </c>
@@ -1957,7 +1957,7 @@
       <c r="G39" s="5"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="12">
+      <c r="A40" s="11">
         <f t="shared" si="1"/>
         <v>42490</v>
       </c>
@@ -1972,7 +1972,7 @@
       <c r="G40" s="5"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="12">
+      <c r="A41" s="11">
         <f t="shared" si="1"/>
         <v>42521</v>
       </c>
@@ -1987,7 +1987,7 @@
       <c r="G41" s="5"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="12">
+      <c r="A42" s="11">
         <f t="shared" si="1"/>
         <v>42551</v>
       </c>
@@ -2002,7 +2002,7 @@
       <c r="G42" s="5"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="12">
+      <c r="A43" s="11">
         <f t="shared" si="1"/>
         <v>42582</v>
       </c>
@@ -2017,7 +2017,7 @@
       <c r="G43" s="5"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="12">
+      <c r="A44" s="11">
         <f t="shared" si="1"/>
         <v>42613</v>
       </c>
@@ -2032,7 +2032,7 @@
       <c r="G44" s="5"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="12">
+      <c r="A45" s="11">
         <f t="shared" si="1"/>
         <v>42643</v>
       </c>
@@ -2047,7 +2047,7 @@
       <c r="G45" s="5"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="12">
+      <c r="A46" s="11">
         <f t="shared" si="1"/>
         <v>42674</v>
       </c>
@@ -2062,7 +2062,7 @@
       <c r="G46" s="5"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="12">
+      <c r="A47" s="11">
         <f t="shared" si="1"/>
         <v>42704</v>
       </c>
@@ -2077,7 +2077,7 @@
       <c r="G47" s="5"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="12">
+      <c r="A48" s="11">
         <f t="shared" si="1"/>
         <v>42735</v>
       </c>
@@ -2092,7 +2092,7 @@
       <c r="G48" s="5"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="12">
+      <c r="A49" s="11">
         <f t="shared" si="1"/>
         <v>42766</v>
       </c>
@@ -2107,7 +2107,7 @@
       <c r="G49" s="5"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="12">
+      <c r="A50" s="11">
         <f t="shared" si="1"/>
         <v>42794</v>
       </c>
@@ -2122,7 +2122,7 @@
       <c r="G50" s="5"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="12">
+      <c r="A51" s="11">
         <f t="shared" si="1"/>
         <v>42825</v>
       </c>
@@ -2137,7 +2137,7 @@
       <c r="G51" s="5"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="12">
+      <c r="A52" s="11">
         <f t="shared" si="1"/>
         <v>42855</v>
       </c>
@@ -2152,7 +2152,7 @@
       <c r="G52" s="5"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="12">
+      <c r="A53" s="11">
         <f t="shared" si="1"/>
         <v>42886</v>
       </c>
@@ -2167,7 +2167,7 @@
       <c r="G53" s="5"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="12">
+      <c r="A54" s="11">
         <f t="shared" si="1"/>
         <v>42916</v>
       </c>
@@ -2182,7 +2182,7 @@
       <c r="G54" s="5"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="12">
+      <c r="A55" s="11">
         <f t="shared" si="1"/>
         <v>42947</v>
       </c>
@@ -2197,7 +2197,7 @@
       <c r="G55" s="5"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="12">
+      <c r="A56" s="11">
         <f t="shared" si="1"/>
         <v>42978</v>
       </c>
@@ -2212,7 +2212,7 @@
       <c r="G56" s="5"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="12">
+      <c r="A57" s="11">
         <f t="shared" si="1"/>
         <v>43008</v>
       </c>
@@ -2227,7 +2227,7 @@
       <c r="G57" s="5"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="12">
+      <c r="A58" s="11">
         <f t="shared" si="1"/>
         <v>43039</v>
       </c>
@@ -2242,7 +2242,7 @@
       <c r="G58" s="5"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="12">
+      <c r="A59" s="11">
         <f t="shared" si="1"/>
         <v>43069</v>
       </c>
@@ -2257,7 +2257,7 @@
       <c r="G59" s="5"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="12">
+      <c r="A60" s="11">
         <f t="shared" si="1"/>
         <v>43100</v>
       </c>
@@ -2272,7 +2272,7 @@
       <c r="G60" s="5"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="12">
+      <c r="A61" s="11">
         <f t="shared" si="1"/>
         <v>43131</v>
       </c>
@@ -2287,7 +2287,7 @@
       <c r="G61" s="5"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="12">
+      <c r="A62" s="11">
         <f t="shared" si="1"/>
         <v>43159</v>
       </c>
@@ -2302,7 +2302,7 @@
       <c r="G62" s="5"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="12">
+      <c r="A63" s="11">
         <f t="shared" si="1"/>
         <v>43190</v>
       </c>
@@ -2317,7 +2317,7 @@
       <c r="G63" s="5"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="12">
+      <c r="A64" s="11">
         <f t="shared" si="1"/>
         <v>43220</v>
       </c>
@@ -2332,7 +2332,7 @@
       <c r="G64" s="5"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="12">
+      <c r="A65" s="11">
         <f t="shared" si="1"/>
         <v>43251</v>
       </c>
@@ -2347,7 +2347,7 @@
       <c r="G65" s="5"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="12">
+      <c r="A66" s="11">
         <f t="shared" si="1"/>
         <v>43281</v>
       </c>
@@ -2362,7 +2362,7 @@
       <c r="G66" s="5"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="12">
+      <c r="A67" s="11">
         <f t="shared" si="1"/>
         <v>43312</v>
       </c>
@@ -2377,7 +2377,7 @@
       <c r="G67" s="5"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="12">
+      <c r="A68" s="11">
         <f t="shared" si="1"/>
         <v>43343</v>
       </c>
@@ -2392,7 +2392,7 @@
       <c r="G68" s="5"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="12">
+      <c r="A69" s="11">
         <f t="shared" si="1"/>
         <v>43373</v>
       </c>
@@ -2407,7 +2407,7 @@
       <c r="G69" s="5"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="12">
+      <c r="A70" s="11">
         <f t="shared" si="1"/>
         <v>43404</v>
       </c>
@@ -2422,7 +2422,7 @@
       <c r="G70" s="5"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="12">
+      <c r="A71" s="11">
         <f t="shared" si="1"/>
         <v>43434</v>
       </c>
@@ -2437,7 +2437,7 @@
       <c r="G71" s="5"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="12">
+      <c r="A72" s="11">
         <f t="shared" si="1"/>
         <v>43465</v>
       </c>
@@ -2452,7 +2452,7 @@
       <c r="G72" s="5"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="12">
+      <c r="A73" s="11">
         <f t="shared" si="1"/>
         <v>43496</v>
       </c>
@@ -2467,7 +2467,7 @@
       <c r="G73" s="5"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="12">
+      <c r="A74" s="11">
         <f t="shared" si="1"/>
         <v>43524</v>
       </c>
@@ -2482,7 +2482,7 @@
       <c r="G74" s="5"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="12">
+      <c r="A75" s="11">
         <f t="shared" si="1"/>
         <v>43555</v>
       </c>
@@ -2497,7 +2497,7 @@
       <c r="G75" s="5"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="12">
+      <c r="A76" s="11">
         <f t="shared" si="1"/>
         <v>43585</v>
       </c>
@@ -2512,7 +2512,7 @@
       <c r="G76" s="5"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="12">
+      <c r="A77" s="11">
         <f t="shared" si="1"/>
         <v>43616</v>
       </c>
@@ -2527,7 +2527,7 @@
       <c r="G77" s="5"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="12">
+      <c r="A78" s="11">
         <f t="shared" si="1"/>
         <v>43646</v>
       </c>
@@ -2542,7 +2542,7 @@
       <c r="G78" s="5"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="12">
+      <c r="A79" s="11">
         <f t="shared" si="1"/>
         <v>43677</v>
       </c>
@@ -2557,7 +2557,7 @@
       <c r="G79" s="5"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="12">
+      <c r="A80" s="11">
         <f t="shared" ref="A80:A143" si="3">EOMONTH(A79,1)</f>
         <v>43708</v>
       </c>
@@ -2572,7 +2572,7 @@
       <c r="G80" s="5"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="12">
+      <c r="A81" s="11">
         <f t="shared" si="3"/>
         <v>43738</v>
       </c>
@@ -2587,7 +2587,7 @@
       <c r="G81" s="5"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="12">
+      <c r="A82" s="11">
         <f t="shared" si="3"/>
         <v>43769</v>
       </c>
@@ -2602,7 +2602,7 @@
       <c r="G82" s="5"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="12">
+      <c r="A83" s="11">
         <f t="shared" si="3"/>
         <v>43799</v>
       </c>
@@ -2617,7 +2617,7 @@
       <c r="G83" s="5"/>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="12">
+      <c r="A84" s="11">
         <f t="shared" si="3"/>
         <v>43830</v>
       </c>
@@ -2632,7 +2632,7 @@
       <c r="G84" s="5"/>
     </row>
     <row r="85" spans="1:7">
-      <c r="A85" s="12">
+      <c r="A85" s="11">
         <f t="shared" si="3"/>
         <v>43861</v>
       </c>
@@ -2647,7 +2647,7 @@
       <c r="G85" s="5"/>
     </row>
     <row r="86" spans="1:7">
-      <c r="A86" s="12">
+      <c r="A86" s="11">
         <f t="shared" si="3"/>
         <v>43890</v>
       </c>
@@ -2662,7 +2662,7 @@
       <c r="G86" s="5"/>
     </row>
     <row r="87" spans="1:7">
-      <c r="A87" s="12">
+      <c r="A87" s="11">
         <f t="shared" si="3"/>
         <v>43921</v>
       </c>
@@ -2677,7 +2677,7 @@
       <c r="G87" s="5"/>
     </row>
     <row r="88" spans="1:7">
-      <c r="A88" s="12">
+      <c r="A88" s="11">
         <f t="shared" si="3"/>
         <v>43951</v>
       </c>
@@ -2692,7 +2692,7 @@
       <c r="G88" s="5"/>
     </row>
     <row r="89" spans="1:7">
-      <c r="A89" s="12">
+      <c r="A89" s="11">
         <f t="shared" si="3"/>
         <v>43982</v>
       </c>
@@ -2707,7 +2707,7 @@
       <c r="G89" s="5"/>
     </row>
     <row r="90" spans="1:7">
-      <c r="A90" s="12">
+      <c r="A90" s="11">
         <f t="shared" si="3"/>
         <v>44012</v>
       </c>
@@ -2722,7 +2722,7 @@
       <c r="G90" s="5"/>
     </row>
     <row r="91" spans="1:7">
-      <c r="A91" s="12">
+      <c r="A91" s="11">
         <f t="shared" si="3"/>
         <v>44043</v>
       </c>
@@ -2737,7 +2737,7 @@
       <c r="G91" s="5"/>
     </row>
     <row r="92" spans="1:7">
-      <c r="A92" s="12">
+      <c r="A92" s="11">
         <f t="shared" si="3"/>
         <v>44074</v>
       </c>
@@ -2752,7 +2752,7 @@
       <c r="G92" s="5"/>
     </row>
     <row r="93" spans="1:7">
-      <c r="A93" s="12">
+      <c r="A93" s="11">
         <f t="shared" si="3"/>
         <v>44104</v>
       </c>
@@ -2767,7 +2767,7 @@
       <c r="G93" s="5"/>
     </row>
     <row r="94" spans="1:7">
-      <c r="A94" s="12">
+      <c r="A94" s="11">
         <f t="shared" si="3"/>
         <v>44135</v>
       </c>
@@ -2782,7 +2782,7 @@
       <c r="G94" s="5"/>
     </row>
     <row r="95" spans="1:7">
-      <c r="A95" s="12">
+      <c r="A95" s="11">
         <f t="shared" si="3"/>
         <v>44165</v>
       </c>
@@ -2797,7 +2797,7 @@
       <c r="G95" s="5"/>
     </row>
     <row r="96" spans="1:7">
-      <c r="A96" s="12">
+      <c r="A96" s="11">
         <f t="shared" si="3"/>
         <v>44196</v>
       </c>
@@ -2812,7 +2812,7 @@
       <c r="G96" s="5"/>
     </row>
     <row r="97" spans="1:7">
-      <c r="A97" s="12">
+      <c r="A97" s="11">
         <f t="shared" si="3"/>
         <v>44227</v>
       </c>
@@ -2827,7 +2827,7 @@
       <c r="G97" s="5"/>
     </row>
     <row r="98" spans="1:7">
-      <c r="A98" s="12">
+      <c r="A98" s="11">
         <f t="shared" si="3"/>
         <v>44255</v>
       </c>
@@ -2842,7 +2842,7 @@
       <c r="G98" s="5"/>
     </row>
     <row r="99" spans="1:7">
-      <c r="A99" s="12">
+      <c r="A99" s="11">
         <f t="shared" si="3"/>
         <v>44286</v>
       </c>
@@ -2857,7 +2857,7 @@
       <c r="G99" s="5"/>
     </row>
     <row r="100" spans="1:7">
-      <c r="A100" s="12">
+      <c r="A100" s="11">
         <f t="shared" si="3"/>
         <v>44316</v>
       </c>
@@ -2872,7 +2872,7 @@
       <c r="G100" s="5"/>
     </row>
     <row r="101" spans="1:7">
-      <c r="A101" s="12">
+      <c r="A101" s="11">
         <f t="shared" si="3"/>
         <v>44347</v>
       </c>
@@ -2887,7 +2887,7 @@
       <c r="G101" s="5"/>
     </row>
     <row r="102" spans="1:7">
-      <c r="A102" s="12">
+      <c r="A102" s="11">
         <f t="shared" si="3"/>
         <v>44377</v>
       </c>
@@ -2902,7 +2902,7 @@
       <c r="G102" s="5"/>
     </row>
     <row r="103" spans="1:7">
-      <c r="A103" s="12">
+      <c r="A103" s="11">
         <f t="shared" si="3"/>
         <v>44408</v>
       </c>
@@ -2917,7 +2917,7 @@
       <c r="G103" s="5"/>
     </row>
     <row r="104" spans="1:7">
-      <c r="A104" s="12">
+      <c r="A104" s="11">
         <f t="shared" si="3"/>
         <v>44439</v>
       </c>
@@ -2932,7 +2932,7 @@
       <c r="G104" s="5"/>
     </row>
     <row r="105" spans="1:7">
-      <c r="A105" s="12">
+      <c r="A105" s="11">
         <f t="shared" si="3"/>
         <v>44469</v>
       </c>
@@ -2947,7 +2947,7 @@
       <c r="G105" s="5"/>
     </row>
     <row r="106" spans="1:7">
-      <c r="A106" s="12">
+      <c r="A106" s="11">
         <f t="shared" si="3"/>
         <v>44500</v>
       </c>
@@ -2962,7 +2962,7 @@
       <c r="G106" s="5"/>
     </row>
     <row r="107" spans="1:7">
-      <c r="A107" s="12">
+      <c r="A107" s="11">
         <f t="shared" si="3"/>
         <v>44530</v>
       </c>
@@ -2977,7 +2977,7 @@
       <c r="G107" s="5"/>
     </row>
     <row r="108" spans="1:7">
-      <c r="A108" s="12">
+      <c r="A108" s="11">
         <f t="shared" si="3"/>
         <v>44561</v>
       </c>
@@ -2992,7 +2992,7 @@
       <c r="G108" s="5"/>
     </row>
     <row r="109" spans="1:7">
-      <c r="A109" s="12">
+      <c r="A109" s="11">
         <f t="shared" si="3"/>
         <v>44592</v>
       </c>
@@ -3007,7 +3007,7 @@
       <c r="G109" s="5"/>
     </row>
     <row r="110" spans="1:7">
-      <c r="A110" s="12">
+      <c r="A110" s="11">
         <f t="shared" si="3"/>
         <v>44620</v>
       </c>
@@ -3022,7 +3022,7 @@
       <c r="G110" s="5"/>
     </row>
     <row r="111" spans="1:7">
-      <c r="A111" s="12">
+      <c r="A111" s="11">
         <f t="shared" si="3"/>
         <v>44651</v>
       </c>
@@ -3037,7 +3037,7 @@
       <c r="G111" s="5"/>
     </row>
     <row r="112" spans="1:7">
-      <c r="A112" s="12">
+      <c r="A112" s="11">
         <f t="shared" si="3"/>
         <v>44681</v>
       </c>
@@ -3052,7 +3052,7 @@
       <c r="G112" s="5"/>
     </row>
     <row r="113" spans="1:7">
-      <c r="A113" s="12">
+      <c r="A113" s="11">
         <f t="shared" si="3"/>
         <v>44712</v>
       </c>
@@ -3067,7 +3067,7 @@
       <c r="G113" s="5"/>
     </row>
     <row r="114" spans="1:7">
-      <c r="A114" s="12">
+      <c r="A114" s="11">
         <f t="shared" si="3"/>
         <v>44742</v>
       </c>
@@ -3082,7 +3082,7 @@
       <c r="G114" s="5"/>
     </row>
     <row r="115" spans="1:7">
-      <c r="A115" s="12">
+      <c r="A115" s="11">
         <f t="shared" si="3"/>
         <v>44773</v>
       </c>
@@ -3097,7 +3097,7 @@
       <c r="G115" s="5"/>
     </row>
     <row r="116" spans="1:7">
-      <c r="A116" s="12">
+      <c r="A116" s="11">
         <f t="shared" si="3"/>
         <v>44804</v>
       </c>
@@ -3112,7 +3112,7 @@
       <c r="G116" s="5"/>
     </row>
     <row r="117" spans="1:7">
-      <c r="A117" s="12">
+      <c r="A117" s="11">
         <f t="shared" si="3"/>
         <v>44834</v>
       </c>
@@ -3127,7 +3127,7 @@
       <c r="G117" s="5"/>
     </row>
     <row r="118" spans="1:7">
-      <c r="A118" s="12">
+      <c r="A118" s="11">
         <f t="shared" si="3"/>
         <v>44865</v>
       </c>
@@ -3142,7 +3142,7 @@
       <c r="G118" s="5"/>
     </row>
     <row r="119" spans="1:7">
-      <c r="A119" s="12">
+      <c r="A119" s="11">
         <f t="shared" si="3"/>
         <v>44895</v>
       </c>
@@ -3157,7 +3157,7 @@
       <c r="G119" s="5"/>
     </row>
     <row r="120" spans="1:7">
-      <c r="A120" s="12">
+      <c r="A120" s="11">
         <f t="shared" si="3"/>
         <v>44926</v>
       </c>
@@ -3172,7 +3172,7 @@
       <c r="G120" s="5"/>
     </row>
     <row r="121" spans="1:7">
-      <c r="A121" s="12">
+      <c r="A121" s="11">
         <f t="shared" si="3"/>
         <v>44957</v>
       </c>
@@ -3187,7 +3187,7 @@
       <c r="G121" s="5"/>
     </row>
     <row r="122" spans="1:7">
-      <c r="A122" s="12">
+      <c r="A122" s="11">
         <f t="shared" si="3"/>
         <v>44985</v>
       </c>
@@ -3202,7 +3202,7 @@
       <c r="G122" s="5"/>
     </row>
     <row r="123" spans="1:7">
-      <c r="A123" s="12">
+      <c r="A123" s="11">
         <f t="shared" si="3"/>
         <v>45016</v>
       </c>
@@ -3217,7 +3217,7 @@
       <c r="G123" s="5"/>
     </row>
     <row r="124" spans="1:7">
-      <c r="A124" s="12">
+      <c r="A124" s="11">
         <f t="shared" si="3"/>
         <v>45046</v>
       </c>
@@ -3232,7 +3232,7 @@
       <c r="G124" s="5"/>
     </row>
     <row r="125" spans="1:7">
-      <c r="A125" s="12">
+      <c r="A125" s="11">
         <f t="shared" si="3"/>
         <v>45077</v>
       </c>
@@ -3247,7 +3247,7 @@
       <c r="G125" s="5"/>
     </row>
     <row r="126" spans="1:7">
-      <c r="A126" s="12">
+      <c r="A126" s="11">
         <f t="shared" si="3"/>
         <v>45107</v>
       </c>
@@ -3262,7 +3262,7 @@
       <c r="G126" s="5"/>
     </row>
     <row r="127" spans="1:7">
-      <c r="A127" s="12">
+      <c r="A127" s="11">
         <f t="shared" si="3"/>
         <v>45138</v>
       </c>
@@ -3277,7 +3277,7 @@
       <c r="G127" s="5"/>
     </row>
     <row r="128" spans="1:7">
-      <c r="A128" s="12">
+      <c r="A128" s="11">
         <f t="shared" si="3"/>
         <v>45169</v>
       </c>
@@ -3292,7 +3292,7 @@
       <c r="G128" s="5"/>
     </row>
     <row r="129" spans="1:7">
-      <c r="A129" s="12">
+      <c r="A129" s="11">
         <f t="shared" si="3"/>
         <v>45199</v>
       </c>
@@ -3307,7 +3307,7 @@
       <c r="G129" s="5"/>
     </row>
     <row r="130" spans="1:7">
-      <c r="A130" s="12">
+      <c r="A130" s="11">
         <f t="shared" si="3"/>
         <v>45230</v>
       </c>
@@ -3322,7 +3322,7 @@
       <c r="G130" s="5"/>
     </row>
     <row r="131" spans="1:7">
-      <c r="A131" s="12">
+      <c r="A131" s="11">
         <f t="shared" si="3"/>
         <v>45260</v>
       </c>
@@ -3337,7 +3337,7 @@
       <c r="G131" s="5"/>
     </row>
     <row r="132" spans="1:7">
-      <c r="A132" s="12">
+      <c r="A132" s="11">
         <f t="shared" si="3"/>
         <v>45291</v>
       </c>
@@ -3352,7 +3352,7 @@
       <c r="G132" s="5"/>
     </row>
     <row r="133" spans="1:7">
-      <c r="A133" s="12">
+      <c r="A133" s="11">
         <f t="shared" si="3"/>
         <v>45322</v>
       </c>
@@ -3367,7 +3367,7 @@
       <c r="G133" s="5"/>
     </row>
     <row r="134" spans="1:7">
-      <c r="A134" s="12">
+      <c r="A134" s="11">
         <f t="shared" si="3"/>
         <v>45351</v>
       </c>
@@ -3382,7 +3382,7 @@
       <c r="G134" s="5"/>
     </row>
     <row r="135" spans="1:7">
-      <c r="A135" s="12">
+      <c r="A135" s="11">
         <f t="shared" si="3"/>
         <v>45382</v>
       </c>
@@ -3397,7 +3397,7 @@
       <c r="G135" s="5"/>
     </row>
     <row r="136" spans="1:7">
-      <c r="A136" s="12">
+      <c r="A136" s="11">
         <f t="shared" si="3"/>
         <v>45412</v>
       </c>
@@ -3412,7 +3412,7 @@
       <c r="G136" s="5"/>
     </row>
     <row r="137" spans="1:7">
-      <c r="A137" s="12">
+      <c r="A137" s="11">
         <f t="shared" si="3"/>
         <v>45443</v>
       </c>
@@ -3427,7 +3427,7 @@
       <c r="G137" s="5"/>
     </row>
     <row r="138" spans="1:7">
-      <c r="A138" s="12">
+      <c r="A138" s="11">
         <f t="shared" si="3"/>
         <v>45473</v>
       </c>
@@ -3442,7 +3442,7 @@
       <c r="G138" s="5"/>
     </row>
     <row r="139" spans="1:7">
-      <c r="A139" s="12">
+      <c r="A139" s="11">
         <f t="shared" si="3"/>
         <v>45504</v>
       </c>
@@ -3457,7 +3457,7 @@
       <c r="G139" s="5"/>
     </row>
     <row r="140" spans="1:7">
-      <c r="A140" s="12">
+      <c r="A140" s="11">
         <f t="shared" si="3"/>
         <v>45535</v>
       </c>
@@ -3472,7 +3472,7 @@
       <c r="G140" s="5"/>
     </row>
     <row r="141" spans="1:7">
-      <c r="A141" s="12">
+      <c r="A141" s="11">
         <f t="shared" si="3"/>
         <v>45565</v>
       </c>
@@ -3487,7 +3487,7 @@
       <c r="G141" s="5"/>
     </row>
     <row r="142" spans="1:7">
-      <c r="A142" s="12">
+      <c r="A142" s="11">
         <f t="shared" si="3"/>
         <v>45596</v>
       </c>
@@ -3502,7 +3502,7 @@
       <c r="G142" s="5"/>
     </row>
     <row r="143" spans="1:7">
-      <c r="A143" s="12">
+      <c r="A143" s="11">
         <f t="shared" si="3"/>
         <v>45626</v>
       </c>
@@ -3517,7 +3517,7 @@
       <c r="G143" s="5"/>
     </row>
     <row r="144" spans="1:7">
-      <c r="A144" s="12">
+      <c r="A144" s="11">
         <f t="shared" ref="A144:A207" si="5">EOMONTH(A143,1)</f>
         <v>45657</v>
       </c>
@@ -3532,7 +3532,7 @@
       <c r="G144" s="5"/>
     </row>
     <row r="145" spans="1:7">
-      <c r="A145" s="12">
+      <c r="A145" s="11">
         <f t="shared" si="5"/>
         <v>45688</v>
       </c>
@@ -3547,7 +3547,7 @@
       <c r="G145" s="5"/>
     </row>
     <row r="146" spans="1:7">
-      <c r="A146" s="12">
+      <c r="A146" s="11">
         <f t="shared" si="5"/>
         <v>45716</v>
       </c>
@@ -3562,7 +3562,7 @@
       <c r="G146" s="5"/>
     </row>
     <row r="147" spans="1:7">
-      <c r="A147" s="12">
+      <c r="A147" s="11">
         <f t="shared" si="5"/>
         <v>45747</v>
       </c>
@@ -3577,7 +3577,7 @@
       <c r="G147" s="5"/>
     </row>
     <row r="148" spans="1:7">
-      <c r="A148" s="12">
+      <c r="A148" s="11">
         <f t="shared" si="5"/>
         <v>45777</v>
       </c>
@@ -3592,7 +3592,7 @@
       <c r="G148" s="5"/>
     </row>
     <row r="149" spans="1:7">
-      <c r="A149" s="12">
+      <c r="A149" s="11">
         <f t="shared" si="5"/>
         <v>45808</v>
       </c>
@@ -3607,7 +3607,7 @@
       <c r="G149" s="5"/>
     </row>
     <row r="150" spans="1:7">
-      <c r="A150" s="12">
+      <c r="A150" s="11">
         <f t="shared" si="5"/>
         <v>45838</v>
       </c>
@@ -3622,7 +3622,7 @@
       <c r="G150" s="5"/>
     </row>
     <row r="151" spans="1:7">
-      <c r="A151" s="12">
+      <c r="A151" s="11">
         <f t="shared" si="5"/>
         <v>45869</v>
       </c>
@@ -3637,7 +3637,7 @@
       <c r="G151" s="5"/>
     </row>
     <row r="152" spans="1:7">
-      <c r="A152" s="12">
+      <c r="A152" s="11">
         <f t="shared" si="5"/>
         <v>45900</v>
       </c>
@@ -3652,7 +3652,7 @@
       <c r="G152" s="5"/>
     </row>
     <row r="153" spans="1:7">
-      <c r="A153" s="12">
+      <c r="A153" s="11">
         <f t="shared" si="5"/>
         <v>45930</v>
       </c>
@@ -3667,7 +3667,7 @@
       <c r="G153" s="5"/>
     </row>
     <row r="154" spans="1:7">
-      <c r="A154" s="12">
+      <c r="A154" s="11">
         <f t="shared" si="5"/>
         <v>45961</v>
       </c>
@@ -3682,7 +3682,7 @@
       <c r="G154" s="5"/>
     </row>
     <row r="155" spans="1:7">
-      <c r="A155" s="12">
+      <c r="A155" s="11">
         <f t="shared" si="5"/>
         <v>45991</v>
       </c>
@@ -3697,7 +3697,7 @@
       <c r="G155" s="5"/>
     </row>
     <row r="156" spans="1:7">
-      <c r="A156" s="12">
+      <c r="A156" s="11">
         <f t="shared" si="5"/>
         <v>46022</v>
       </c>
@@ -3712,7 +3712,7 @@
       <c r="G156" s="5"/>
     </row>
     <row r="157" spans="1:7">
-      <c r="A157" s="12">
+      <c r="A157" s="11">
         <f t="shared" si="5"/>
         <v>46053</v>
       </c>
@@ -3727,7 +3727,7 @@
       <c r="G157" s="5"/>
     </row>
     <row r="158" spans="1:7">
-      <c r="A158" s="12">
+      <c r="A158" s="11">
         <f t="shared" si="5"/>
         <v>46081</v>
       </c>
@@ -3742,7 +3742,7 @@
       <c r="G158" s="5"/>
     </row>
     <row r="159" spans="1:7">
-      <c r="A159" s="12">
+      <c r="A159" s="11">
         <f t="shared" si="5"/>
         <v>46112</v>
       </c>
@@ -3757,7 +3757,7 @@
       <c r="G159" s="5"/>
     </row>
     <row r="160" spans="1:7">
-      <c r="A160" s="12">
+      <c r="A160" s="11">
         <f t="shared" si="5"/>
         <v>46142</v>
       </c>
@@ -3772,7 +3772,7 @@
       <c r="G160" s="5"/>
     </row>
     <row r="161" spans="1:7">
-      <c r="A161" s="12">
+      <c r="A161" s="11">
         <f t="shared" si="5"/>
         <v>46173</v>
       </c>
@@ -3787,7 +3787,7 @@
       <c r="G161" s="5"/>
     </row>
     <row r="162" spans="1:7">
-      <c r="A162" s="12">
+      <c r="A162" s="11">
         <f t="shared" si="5"/>
         <v>46203</v>
       </c>
@@ -3802,7 +3802,7 @@
       <c r="G162" s="5"/>
     </row>
     <row r="163" spans="1:7">
-      <c r="A163" s="12">
+      <c r="A163" s="11">
         <f t="shared" si="5"/>
         <v>46234</v>
       </c>
@@ -3817,7 +3817,7 @@
       <c r="G163" s="5"/>
     </row>
     <row r="164" spans="1:7">
-      <c r="A164" s="12">
+      <c r="A164" s="11">
         <f t="shared" si="5"/>
         <v>46265</v>
       </c>
@@ -3832,7 +3832,7 @@
       <c r="G164" s="5"/>
     </row>
     <row r="165" spans="1:7">
-      <c r="A165" s="12">
+      <c r="A165" s="11">
         <f t="shared" si="5"/>
         <v>46295</v>
       </c>
@@ -3847,7 +3847,7 @@
       <c r="G165" s="5"/>
     </row>
     <row r="166" spans="1:7">
-      <c r="A166" s="12">
+      <c r="A166" s="11">
         <f t="shared" si="5"/>
         <v>46326</v>
       </c>
@@ -3862,7 +3862,7 @@
       <c r="G166" s="5"/>
     </row>
     <row r="167" spans="1:7">
-      <c r="A167" s="12">
+      <c r="A167" s="11">
         <f t="shared" si="5"/>
         <v>46356</v>
       </c>
@@ -3877,7 +3877,7 @@
       <c r="G167" s="5"/>
     </row>
     <row r="168" spans="1:7">
-      <c r="A168" s="12">
+      <c r="A168" s="11">
         <f t="shared" si="5"/>
         <v>46387</v>
       </c>
@@ -3892,7 +3892,7 @@
       <c r="G168" s="5"/>
     </row>
     <row r="169" spans="1:7">
-      <c r="A169" s="12">
+      <c r="A169" s="11">
         <f t="shared" si="5"/>
         <v>46418</v>
       </c>
@@ -3907,7 +3907,7 @@
       <c r="G169" s="5"/>
     </row>
     <row r="170" spans="1:7">
-      <c r="A170" s="12">
+      <c r="A170" s="11">
         <f t="shared" si="5"/>
         <v>46446</v>
       </c>
@@ -3922,7 +3922,7 @@
       <c r="G170" s="5"/>
     </row>
     <row r="171" spans="1:7">
-      <c r="A171" s="12">
+      <c r="A171" s="11">
         <f t="shared" si="5"/>
         <v>46477</v>
       </c>
@@ -3937,7 +3937,7 @@
       <c r="G171" s="5"/>
     </row>
     <row r="172" spans="1:7">
-      <c r="A172" s="12">
+      <c r="A172" s="11">
         <f t="shared" si="5"/>
         <v>46507</v>
       </c>
@@ -3952,7 +3952,7 @@
       <c r="G172" s="5"/>
     </row>
     <row r="173" spans="1:7">
-      <c r="A173" s="12">
+      <c r="A173" s="11">
         <f t="shared" si="5"/>
         <v>46538</v>
       </c>
@@ -3967,7 +3967,7 @@
       <c r="G173" s="5"/>
     </row>
     <row r="174" spans="1:7">
-      <c r="A174" s="12">
+      <c r="A174" s="11">
         <f t="shared" si="5"/>
         <v>46568</v>
       </c>
@@ -3982,7 +3982,7 @@
       <c r="G174" s="5"/>
     </row>
     <row r="175" spans="1:7">
-      <c r="A175" s="12">
+      <c r="A175" s="11">
         <f t="shared" si="5"/>
         <v>46599</v>
       </c>
@@ -3997,7 +3997,7 @@
       <c r="G175" s="5"/>
     </row>
     <row r="176" spans="1:7">
-      <c r="A176" s="12">
+      <c r="A176" s="11">
         <f t="shared" si="5"/>
         <v>46630</v>
       </c>
@@ -4012,7 +4012,7 @@
       <c r="G176" s="5"/>
     </row>
     <row r="177" spans="1:7">
-      <c r="A177" s="12">
+      <c r="A177" s="11">
         <f t="shared" si="5"/>
         <v>46660</v>
       </c>
@@ -4027,7 +4027,7 @@
       <c r="G177" s="5"/>
     </row>
     <row r="178" spans="1:7">
-      <c r="A178" s="12">
+      <c r="A178" s="11">
         <f t="shared" si="5"/>
         <v>46691</v>
       </c>
@@ -4042,7 +4042,7 @@
       <c r="G178" s="5"/>
     </row>
     <row r="179" spans="1:7">
-      <c r="A179" s="12">
+      <c r="A179" s="11">
         <f t="shared" si="5"/>
         <v>46721</v>
       </c>
@@ -4057,7 +4057,7 @@
       <c r="G179" s="5"/>
     </row>
     <row r="180" spans="1:7">
-      <c r="A180" s="12">
+      <c r="A180" s="11">
         <f t="shared" si="5"/>
         <v>46752</v>
       </c>
@@ -4072,7 +4072,7 @@
       <c r="G180" s="5"/>
     </row>
     <row r="181" spans="1:7">
-      <c r="A181" s="12">
+      <c r="A181" s="11">
         <f t="shared" si="5"/>
         <v>46783</v>
       </c>
@@ -4087,7 +4087,7 @@
       <c r="G181" s="5"/>
     </row>
     <row r="182" spans="1:7">
-      <c r="A182" s="12">
+      <c r="A182" s="11">
         <f t="shared" si="5"/>
         <v>46812</v>
       </c>
@@ -4102,7 +4102,7 @@
       <c r="G182" s="5"/>
     </row>
     <row r="183" spans="1:7">
-      <c r="A183" s="12">
+      <c r="A183" s="11">
         <f t="shared" si="5"/>
         <v>46843</v>
       </c>
@@ -4117,7 +4117,7 @@
       <c r="G183" s="5"/>
     </row>
     <row r="184" spans="1:7">
-      <c r="A184" s="12">
+      <c r="A184" s="11">
         <f t="shared" si="5"/>
         <v>46873</v>
       </c>
@@ -4132,7 +4132,7 @@
       <c r="G184" s="5"/>
     </row>
     <row r="185" spans="1:7">
-      <c r="A185" s="12">
+      <c r="A185" s="11">
         <f t="shared" si="5"/>
         <v>46904</v>
       </c>
@@ -4147,7 +4147,7 @@
       <c r="G185" s="5"/>
     </row>
     <row r="186" spans="1:7">
-      <c r="A186" s="12">
+      <c r="A186" s="11">
         <f t="shared" si="5"/>
         <v>46934</v>
       </c>
@@ -4162,7 +4162,7 @@
       <c r="G186" s="5"/>
     </row>
     <row r="187" spans="1:7">
-      <c r="A187" s="12">
+      <c r="A187" s="11">
         <f t="shared" si="5"/>
         <v>46965</v>
       </c>
@@ -4177,7 +4177,7 @@
       <c r="G187" s="5"/>
     </row>
     <row r="188" spans="1:7">
-      <c r="A188" s="12">
+      <c r="A188" s="11">
         <f t="shared" si="5"/>
         <v>46996</v>
       </c>
@@ -4192,7 +4192,7 @@
       <c r="G188" s="5"/>
     </row>
     <row r="189" spans="1:7">
-      <c r="A189" s="12">
+      <c r="A189" s="11">
         <f t="shared" si="5"/>
         <v>47026</v>
       </c>
@@ -4207,7 +4207,7 @@
       <c r="G189" s="5"/>
     </row>
     <row r="190" spans="1:7">
-      <c r="A190" s="12">
+      <c r="A190" s="11">
         <f t="shared" si="5"/>
         <v>47057</v>
       </c>
@@ -4222,7 +4222,7 @@
       <c r="G190" s="5"/>
     </row>
     <row r="191" spans="1:7">
-      <c r="A191" s="12">
+      <c r="A191" s="11">
         <f t="shared" si="5"/>
         <v>47087</v>
       </c>
@@ -4237,7 +4237,7 @@
       <c r="G191" s="5"/>
     </row>
     <row r="192" spans="1:7">
-      <c r="A192" s="12">
+      <c r="A192" s="11">
         <f t="shared" si="5"/>
         <v>47118</v>
       </c>
@@ -4252,7 +4252,7 @@
       <c r="G192" s="5"/>
     </row>
     <row r="193" spans="1:7">
-      <c r="A193" s="12">
+      <c r="A193" s="11">
         <f t="shared" si="5"/>
         <v>47149</v>
       </c>
@@ -4267,7 +4267,7 @@
       <c r="G193" s="5"/>
     </row>
     <row r="194" spans="1:7">
-      <c r="A194" s="12">
+      <c r="A194" s="11">
         <f t="shared" si="5"/>
         <v>47177</v>
       </c>
@@ -4282,7 +4282,7 @@
       <c r="G194" s="5"/>
     </row>
     <row r="195" spans="1:7">
-      <c r="A195" s="12">
+      <c r="A195" s="11">
         <f t="shared" si="5"/>
         <v>47208</v>
       </c>
@@ -4297,7 +4297,7 @@
       <c r="G195" s="5"/>
     </row>
     <row r="196" spans="1:7">
-      <c r="A196" s="12">
+      <c r="A196" s="11">
         <f t="shared" si="5"/>
         <v>47238</v>
       </c>
@@ -4312,7 +4312,7 @@
       <c r="G196" s="5"/>
     </row>
     <row r="197" spans="1:7">
-      <c r="A197" s="12">
+      <c r="A197" s="11">
         <f t="shared" si="5"/>
         <v>47269</v>
       </c>
@@ -4327,7 +4327,7 @@
       <c r="G197" s="5"/>
     </row>
     <row r="198" spans="1:7">
-      <c r="A198" s="12">
+      <c r="A198" s="11">
         <f t="shared" si="5"/>
         <v>47299</v>
       </c>
@@ -4342,7 +4342,7 @@
       <c r="G198" s="5"/>
     </row>
     <row r="199" spans="1:7">
-      <c r="A199" s="12">
+      <c r="A199" s="11">
         <f t="shared" si="5"/>
         <v>47330</v>
       </c>
@@ -4357,7 +4357,7 @@
       <c r="G199" s="5"/>
     </row>
     <row r="200" spans="1:7">
-      <c r="A200" s="12">
+      <c r="A200" s="11">
         <f t="shared" si="5"/>
         <v>47361</v>
       </c>
@@ -4372,7 +4372,7 @@
       <c r="G200" s="5"/>
     </row>
     <row r="201" spans="1:7">
-      <c r="A201" s="12">
+      <c r="A201" s="11">
         <f t="shared" si="5"/>
         <v>47391</v>
       </c>
@@ -4387,7 +4387,7 @@
       <c r="G201" s="5"/>
     </row>
     <row r="202" spans="1:7">
-      <c r="A202" s="12">
+      <c r="A202" s="11">
         <f t="shared" si="5"/>
         <v>47422</v>
       </c>
@@ -4402,7 +4402,7 @@
       <c r="G202" s="5"/>
     </row>
     <row r="203" spans="1:7">
-      <c r="A203" s="12">
+      <c r="A203" s="11">
         <f t="shared" si="5"/>
         <v>47452</v>
       </c>
@@ -4417,7 +4417,7 @@
       <c r="G203" s="5"/>
     </row>
     <row r="204" spans="1:7">
-      <c r="A204" s="12">
+      <c r="A204" s="11">
         <f t="shared" si="5"/>
         <v>47483</v>
       </c>
@@ -4432,7 +4432,7 @@
       <c r="G204" s="5"/>
     </row>
     <row r="205" spans="1:7">
-      <c r="A205" s="12">
+      <c r="A205" s="11">
         <f t="shared" si="5"/>
         <v>47514</v>
       </c>
@@ -4447,7 +4447,7 @@
       <c r="G205" s="5"/>
     </row>
     <row r="206" spans="1:7">
-      <c r="A206" s="12">
+      <c r="A206" s="11">
         <f t="shared" si="5"/>
         <v>47542</v>
       </c>
@@ -4462,7 +4462,7 @@
       <c r="G206" s="5"/>
     </row>
     <row r="207" spans="1:7">
-      <c r="A207" s="12">
+      <c r="A207" s="11">
         <f t="shared" si="5"/>
         <v>47573</v>
       </c>
@@ -4477,7 +4477,7 @@
       <c r="G207" s="5"/>
     </row>
     <row r="208" spans="1:7">
-      <c r="A208" s="12">
+      <c r="A208" s="11">
         <f t="shared" ref="A208:A271" si="7">EOMONTH(A207,1)</f>
         <v>47603</v>
       </c>
@@ -4492,7 +4492,7 @@
       <c r="G208" s="5"/>
     </row>
     <row r="209" spans="1:7">
-      <c r="A209" s="12">
+      <c r="A209" s="11">
         <f t="shared" si="7"/>
         <v>47634</v>
       </c>
@@ -4507,7 +4507,7 @@
       <c r="G209" s="5"/>
     </row>
     <row r="210" spans="1:7">
-      <c r="A210" s="12">
+      <c r="A210" s="11">
         <f t="shared" si="7"/>
         <v>47664</v>
       </c>
@@ -4522,7 +4522,7 @@
       <c r="G210" s="5"/>
     </row>
     <row r="211" spans="1:7">
-      <c r="A211" s="12">
+      <c r="A211" s="11">
         <f t="shared" si="7"/>
         <v>47695</v>
       </c>
@@ -4537,7 +4537,7 @@
       <c r="G211" s="5"/>
     </row>
     <row r="212" spans="1:7">
-      <c r="A212" s="12">
+      <c r="A212" s="11">
         <f t="shared" si="7"/>
         <v>47726</v>
       </c>
@@ -4552,7 +4552,7 @@
       <c r="G212" s="5"/>
     </row>
     <row r="213" spans="1:7">
-      <c r="A213" s="12">
+      <c r="A213" s="11">
         <f t="shared" si="7"/>
         <v>47756</v>
       </c>
@@ -4567,7 +4567,7 @@
       <c r="G213" s="5"/>
     </row>
     <row r="214" spans="1:7">
-      <c r="A214" s="12">
+      <c r="A214" s="11">
         <f t="shared" si="7"/>
         <v>47787</v>
       </c>
@@ -4582,7 +4582,7 @@
       <c r="G214" s="5"/>
     </row>
     <row r="215" spans="1:7">
-      <c r="A215" s="12">
+      <c r="A215" s="11">
         <f t="shared" si="7"/>
         <v>47817</v>
       </c>
@@ -4597,7 +4597,7 @@
       <c r="G215" s="5"/>
     </row>
     <row r="216" spans="1:7">
-      <c r="A216" s="12">
+      <c r="A216" s="11">
         <f t="shared" si="7"/>
         <v>47848</v>
       </c>
@@ -4612,7 +4612,7 @@
       <c r="G216" s="5"/>
     </row>
     <row r="217" spans="1:7">
-      <c r="A217" s="12">
+      <c r="A217" s="11">
         <f t="shared" si="7"/>
         <v>47879</v>
       </c>
@@ -4627,7 +4627,7 @@
       <c r="G217" s="5"/>
     </row>
     <row r="218" spans="1:7">
-      <c r="A218" s="12">
+      <c r="A218" s="11">
         <f t="shared" si="7"/>
         <v>47907</v>
       </c>
@@ -4642,7 +4642,7 @@
       <c r="G218" s="5"/>
     </row>
     <row r="219" spans="1:7">
-      <c r="A219" s="12">
+      <c r="A219" s="11">
         <f t="shared" si="7"/>
         <v>47938</v>
       </c>
@@ -4657,7 +4657,7 @@
       <c r="G219" s="5"/>
     </row>
     <row r="220" spans="1:7">
-      <c r="A220" s="12">
+      <c r="A220" s="11">
         <f t="shared" si="7"/>
         <v>47968</v>
       </c>
@@ -4672,7 +4672,7 @@
       <c r="G220" s="5"/>
     </row>
     <row r="221" spans="1:7">
-      <c r="A221" s="12">
+      <c r="A221" s="11">
         <f t="shared" si="7"/>
         <v>47999</v>
       </c>
@@ -4687,7 +4687,7 @@
       <c r="G221" s="5"/>
     </row>
     <row r="222" spans="1:7">
-      <c r="A222" s="12">
+      <c r="A222" s="11">
         <f t="shared" si="7"/>
         <v>48029</v>
       </c>
@@ -4702,7 +4702,7 @@
       <c r="G222" s="5"/>
     </row>
     <row r="223" spans="1:7">
-      <c r="A223" s="12">
+      <c r="A223" s="11">
         <f t="shared" si="7"/>
         <v>48060</v>
       </c>
@@ -4717,7 +4717,7 @@
       <c r="G223" s="5"/>
     </row>
     <row r="224" spans="1:7">
-      <c r="A224" s="12">
+      <c r="A224" s="11">
         <f t="shared" si="7"/>
         <v>48091</v>
       </c>
@@ -4732,7 +4732,7 @@
       <c r="G224" s="5"/>
     </row>
     <row r="225" spans="1:7">
-      <c r="A225" s="12">
+      <c r="A225" s="11">
         <f t="shared" si="7"/>
         <v>48121</v>
       </c>
@@ -4747,7 +4747,7 @@
       <c r="G225" s="5"/>
     </row>
     <row r="226" spans="1:7">
-      <c r="A226" s="12">
+      <c r="A226" s="11">
         <f t="shared" si="7"/>
         <v>48152</v>
       </c>
@@ -4762,7 +4762,7 @@
       <c r="G226" s="5"/>
     </row>
     <row r="227" spans="1:7">
-      <c r="A227" s="12">
+      <c r="A227" s="11">
         <f t="shared" si="7"/>
         <v>48182</v>
       </c>
@@ -4777,7 +4777,7 @@
       <c r="G227" s="5"/>
     </row>
     <row r="228" spans="1:7">
-      <c r="A228" s="12">
+      <c r="A228" s="11">
         <f t="shared" si="7"/>
         <v>48213</v>
       </c>
@@ -4792,7 +4792,7 @@
       <c r="G228" s="5"/>
     </row>
     <row r="229" spans="1:7">
-      <c r="A229" s="12">
+      <c r="A229" s="11">
         <f t="shared" si="7"/>
         <v>48244</v>
       </c>
@@ -4807,7 +4807,7 @@
       <c r="G229" s="5"/>
     </row>
     <row r="230" spans="1:7">
-      <c r="A230" s="12">
+      <c r="A230" s="11">
         <f t="shared" si="7"/>
         <v>48273</v>
       </c>
@@ -4822,7 +4822,7 @@
       <c r="G230" s="5"/>
     </row>
     <row r="231" spans="1:7">
-      <c r="A231" s="12">
+      <c r="A231" s="11">
         <f t="shared" si="7"/>
         <v>48304</v>
       </c>
@@ -4837,7 +4837,7 @@
       <c r="G231" s="5"/>
     </row>
     <row r="232" spans="1:7">
-      <c r="A232" s="12">
+      <c r="A232" s="11">
         <f t="shared" si="7"/>
         <v>48334</v>
       </c>
@@ -4852,7 +4852,7 @@
       <c r="G232" s="5"/>
     </row>
     <row r="233" spans="1:7">
-      <c r="A233" s="12">
+      <c r="A233" s="11">
         <f t="shared" si="7"/>
         <v>48365</v>
       </c>
@@ -4867,7 +4867,7 @@
       <c r="G233" s="5"/>
     </row>
     <row r="234" spans="1:7">
-      <c r="A234" s="12">
+      <c r="A234" s="11">
         <f t="shared" si="7"/>
         <v>48395</v>
       </c>
@@ -4882,7 +4882,7 @@
       <c r="G234" s="5"/>
     </row>
     <row r="235" spans="1:7">
-      <c r="A235" s="12">
+      <c r="A235" s="11">
         <f t="shared" si="7"/>
         <v>48426</v>
       </c>
@@ -4897,7 +4897,7 @@
       <c r="G235" s="5"/>
     </row>
     <row r="236" spans="1:7">
-      <c r="A236" s="12">
+      <c r="A236" s="11">
         <f t="shared" si="7"/>
         <v>48457</v>
       </c>
@@ -4912,7 +4912,7 @@
       <c r="G236" s="5"/>
     </row>
     <row r="237" spans="1:7">
-      <c r="A237" s="12">
+      <c r="A237" s="11">
         <f t="shared" si="7"/>
         <v>48487</v>
       </c>
@@ -4927,7 +4927,7 @@
       <c r="G237" s="5"/>
     </row>
     <row r="238" spans="1:7">
-      <c r="A238" s="12">
+      <c r="A238" s="11">
         <f t="shared" si="7"/>
         <v>48518</v>
       </c>
@@ -4942,7 +4942,7 @@
       <c r="G238" s="5"/>
     </row>
     <row r="239" spans="1:7">
-      <c r="A239" s="12">
+      <c r="A239" s="11">
         <f t="shared" si="7"/>
         <v>48548</v>
       </c>
@@ -4957,7 +4957,7 @@
       <c r="G239" s="5"/>
     </row>
     <row r="240" spans="1:7">
-      <c r="A240" s="12">
+      <c r="A240" s="11">
         <f t="shared" si="7"/>
         <v>48579</v>
       </c>
@@ -4972,7 +4972,7 @@
       <c r="G240" s="5"/>
     </row>
     <row r="241" spans="1:7">
-      <c r="A241" s="12">
+      <c r="A241" s="11">
         <f t="shared" si="7"/>
         <v>48610</v>
       </c>
@@ -4987,7 +4987,7 @@
       <c r="G241" s="5"/>
     </row>
     <row r="242" spans="1:7">
-      <c r="A242" s="12">
+      <c r="A242" s="11">
         <f t="shared" si="7"/>
         <v>48638</v>
       </c>
@@ -5002,7 +5002,7 @@
       <c r="G242" s="5"/>
     </row>
     <row r="243" spans="1:7">
-      <c r="A243" s="12">
+      <c r="A243" s="11">
         <f t="shared" si="7"/>
         <v>48669</v>
       </c>
@@ -5017,7 +5017,7 @@
       <c r="G243" s="5"/>
     </row>
     <row r="244" spans="1:7">
-      <c r="A244" s="12">
+      <c r="A244" s="11">
         <f t="shared" si="7"/>
         <v>48699</v>
       </c>
@@ -5032,7 +5032,7 @@
       <c r="G244" s="5"/>
     </row>
     <row r="245" spans="1:7">
-      <c r="A245" s="12">
+      <c r="A245" s="11">
         <f t="shared" si="7"/>
         <v>48730</v>
       </c>
@@ -5047,7 +5047,7 @@
       <c r="G245" s="5"/>
     </row>
     <row r="246" spans="1:7">
-      <c r="A246" s="12">
+      <c r="A246" s="11">
         <f t="shared" si="7"/>
         <v>48760</v>
       </c>
@@ -5062,7 +5062,7 @@
       <c r="G246" s="5"/>
     </row>
     <row r="247" spans="1:7">
-      <c r="A247" s="12">
+      <c r="A247" s="11">
         <f t="shared" si="7"/>
         <v>48791</v>
       </c>
@@ -5077,7 +5077,7 @@
       <c r="G247" s="5"/>
     </row>
     <row r="248" spans="1:7">
-      <c r="A248" s="12">
+      <c r="A248" s="11">
         <f t="shared" si="7"/>
         <v>48822</v>
       </c>
@@ -5092,7 +5092,7 @@
       <c r="G248" s="5"/>
     </row>
     <row r="249" spans="1:7">
-      <c r="A249" s="12">
+      <c r="A249" s="11">
         <f t="shared" si="7"/>
         <v>48852</v>
       </c>
@@ -5107,7 +5107,7 @@
       <c r="G249" s="5"/>
     </row>
     <row r="250" spans="1:7">
-      <c r="A250" s="12">
+      <c r="A250" s="11">
         <f t="shared" si="7"/>
         <v>48883</v>
       </c>
@@ -5122,7 +5122,7 @@
       <c r="G250" s="5"/>
     </row>
     <row r="251" spans="1:7">
-      <c r="A251" s="12">
+      <c r="A251" s="11">
         <f t="shared" si="7"/>
         <v>48913</v>
       </c>
@@ -5137,7 +5137,7 @@
       <c r="G251" s="5"/>
     </row>
     <row r="252" spans="1:7">
-      <c r="A252" s="12">
+      <c r="A252" s="11">
         <f t="shared" si="7"/>
         <v>48944</v>
       </c>
@@ -5152,7 +5152,7 @@
       <c r="G252" s="5"/>
     </row>
     <row r="253" spans="1:7">
-      <c r="A253" s="12">
+      <c r="A253" s="11">
         <f t="shared" si="7"/>
         <v>48975</v>
       </c>
@@ -5167,7 +5167,7 @@
       <c r="G253" s="5"/>
     </row>
     <row r="254" spans="1:7">
-      <c r="A254" s="12">
+      <c r="A254" s="11">
         <f t="shared" si="7"/>
         <v>49003</v>
       </c>
@@ -5182,7 +5182,7 @@
       <c r="G254" s="5"/>
     </row>
     <row r="255" spans="1:7">
-      <c r="A255" s="12">
+      <c r="A255" s="11">
         <f t="shared" si="7"/>
         <v>49034</v>
       </c>
@@ -5197,7 +5197,7 @@
       <c r="G255" s="5"/>
     </row>
     <row r="256" spans="1:7">
-      <c r="A256" s="12">
+      <c r="A256" s="11">
         <f t="shared" si="7"/>
         <v>49064</v>
       </c>
@@ -5212,7 +5212,7 @@
       <c r="G256" s="5"/>
     </row>
     <row r="257" spans="1:7">
-      <c r="A257" s="12">
+      <c r="A257" s="11">
         <f t="shared" si="7"/>
         <v>49095</v>
       </c>
@@ -5227,7 +5227,7 @@
       <c r="G257" s="5"/>
     </row>
     <row r="258" spans="1:7">
-      <c r="A258" s="12">
+      <c r="A258" s="11">
         <f t="shared" si="7"/>
         <v>49125</v>
       </c>
@@ -5242,7 +5242,7 @@
       <c r="G258" s="5"/>
     </row>
     <row r="259" spans="1:7">
-      <c r="A259" s="12">
+      <c r="A259" s="11">
         <f t="shared" si="7"/>
         <v>49156</v>
       </c>
@@ -5257,7 +5257,7 @@
       <c r="G259" s="5"/>
     </row>
     <row r="260" spans="1:7">
-      <c r="A260" s="12">
+      <c r="A260" s="11">
         <f t="shared" si="7"/>
         <v>49187</v>
       </c>
@@ -5272,7 +5272,7 @@
       <c r="G260" s="5"/>
     </row>
     <row r="261" spans="1:7">
-      <c r="A261" s="12">
+      <c r="A261" s="11">
         <f t="shared" si="7"/>
         <v>49217</v>
       </c>
@@ -5287,7 +5287,7 @@
       <c r="G261" s="5"/>
     </row>
     <row r="262" spans="1:7">
-      <c r="A262" s="12">
+      <c r="A262" s="11">
         <f t="shared" si="7"/>
         <v>49248</v>
       </c>
@@ -5302,7 +5302,7 @@
       <c r="G262" s="5"/>
     </row>
     <row r="263" spans="1:7">
-      <c r="A263" s="12">
+      <c r="A263" s="11">
         <f t="shared" si="7"/>
         <v>49278</v>
       </c>
@@ -5317,7 +5317,7 @@
       <c r="G263" s="5"/>
     </row>
     <row r="264" spans="1:7">
-      <c r="A264" s="12">
+      <c r="A264" s="11">
         <f t="shared" si="7"/>
         <v>49309</v>
       </c>
@@ -5332,7 +5332,7 @@
       <c r="G264" s="5"/>
     </row>
     <row r="265" spans="1:7">
-      <c r="A265" s="12">
+      <c r="A265" s="11">
         <f t="shared" si="7"/>
         <v>49340</v>
       </c>
@@ -5347,7 +5347,7 @@
       <c r="G265" s="5"/>
     </row>
     <row r="266" spans="1:7">
-      <c r="A266" s="12">
+      <c r="A266" s="11">
         <f t="shared" si="7"/>
         <v>49368</v>
       </c>
@@ -5362,7 +5362,7 @@
       <c r="G266" s="5"/>
     </row>
     <row r="267" spans="1:7">
-      <c r="A267" s="12">
+      <c r="A267" s="11">
         <f t="shared" si="7"/>
         <v>49399</v>
       </c>
@@ -5377,7 +5377,7 @@
       <c r="G267" s="5"/>
     </row>
     <row r="268" spans="1:7">
-      <c r="A268" s="12">
+      <c r="A268" s="11">
         <f t="shared" si="7"/>
         <v>49429</v>
       </c>
@@ -5392,7 +5392,7 @@
       <c r="G268" s="5"/>
     </row>
     <row r="269" spans="1:7">
-      <c r="A269" s="12">
+      <c r="A269" s="11">
         <f t="shared" si="7"/>
         <v>49460</v>
       </c>
@@ -5407,7 +5407,7 @@
       <c r="G269" s="5"/>
     </row>
     <row r="270" spans="1:7">
-      <c r="A270" s="12">
+      <c r="A270" s="11">
         <f t="shared" si="7"/>
         <v>49490</v>
       </c>
@@ -5422,7 +5422,7 @@
       <c r="G270" s="5"/>
     </row>
     <row r="271" spans="1:7">
-      <c r="A271" s="12">
+      <c r="A271" s="11">
         <f t="shared" si="7"/>
         <v>49521</v>
       </c>
@@ -5437,7 +5437,7 @@
       <c r="G271" s="5"/>
     </row>
     <row r="272" spans="1:7">
-      <c r="A272" s="12">
+      <c r="A272" s="11">
         <f t="shared" ref="A272:A335" si="9">EOMONTH(A271,1)</f>
         <v>49552</v>
       </c>
@@ -5452,7 +5452,7 @@
       <c r="G272" s="5"/>
     </row>
     <row r="273" spans="1:7">
-      <c r="A273" s="12">
+      <c r="A273" s="11">
         <f t="shared" si="9"/>
         <v>49582</v>
       </c>
@@ -5467,7 +5467,7 @@
       <c r="G273" s="5"/>
     </row>
     <row r="274" spans="1:7">
-      <c r="A274" s="12">
+      <c r="A274" s="11">
         <f t="shared" si="9"/>
         <v>49613</v>
       </c>
@@ -5482,7 +5482,7 @@
       <c r="G274" s="5"/>
     </row>
     <row r="275" spans="1:7">
-      <c r="A275" s="12">
+      <c r="A275" s="11">
         <f t="shared" si="9"/>
         <v>49643</v>
       </c>
@@ -5497,7 +5497,7 @@
       <c r="G275" s="5"/>
     </row>
     <row r="276" spans="1:7">
-      <c r="A276" s="12">
+      <c r="A276" s="11">
         <f t="shared" si="9"/>
         <v>49674</v>
       </c>
@@ -5512,7 +5512,7 @@
       <c r="G276" s="5"/>
     </row>
     <row r="277" spans="1:7">
-      <c r="A277" s="12">
+      <c r="A277" s="11">
         <f t="shared" si="9"/>
         <v>49705</v>
       </c>
@@ -5527,7 +5527,7 @@
       <c r="G277" s="5"/>
     </row>
     <row r="278" spans="1:7">
-      <c r="A278" s="12">
+      <c r="A278" s="11">
         <f t="shared" si="9"/>
         <v>49734</v>
       </c>
@@ -5542,7 +5542,7 @@
       <c r="G278" s="5"/>
     </row>
     <row r="279" spans="1:7">
-      <c r="A279" s="12">
+      <c r="A279" s="11">
         <f t="shared" si="9"/>
         <v>49765</v>
       </c>
@@ -5557,7 +5557,7 @@
       <c r="G279" s="5"/>
     </row>
     <row r="280" spans="1:7">
-      <c r="A280" s="12">
+      <c r="A280" s="11">
         <f t="shared" si="9"/>
         <v>49795</v>
       </c>
@@ -5572,7 +5572,7 @@
       <c r="G280" s="5"/>
     </row>
     <row r="281" spans="1:7">
-      <c r="A281" s="12">
+      <c r="A281" s="11">
         <f t="shared" si="9"/>
         <v>49826</v>
       </c>
@@ -5587,7 +5587,7 @@
       <c r="G281" s="5"/>
     </row>
     <row r="282" spans="1:7">
-      <c r="A282" s="12">
+      <c r="A282" s="11">
         <f t="shared" si="9"/>
         <v>49856</v>
       </c>
@@ -5602,7 +5602,7 @@
       <c r="G282" s="5"/>
     </row>
     <row r="283" spans="1:7">
-      <c r="A283" s="12">
+      <c r="A283" s="11">
         <f t="shared" si="9"/>
         <v>49887</v>
       </c>
@@ -5617,7 +5617,7 @@
       <c r="G283" s="5"/>
     </row>
     <row r="284" spans="1:7">
-      <c r="A284" s="12">
+      <c r="A284" s="11">
         <f t="shared" si="9"/>
         <v>49918</v>
       </c>
@@ -5632,7 +5632,7 @@
       <c r="G284" s="5"/>
     </row>
     <row r="285" spans="1:7">
-      <c r="A285" s="12">
+      <c r="A285" s="11">
         <f t="shared" si="9"/>
         <v>49948</v>
       </c>
@@ -5647,7 +5647,7 @@
       <c r="G285" s="5"/>
     </row>
     <row r="286" spans="1:7">
-      <c r="A286" s="12">
+      <c r="A286" s="11">
         <f t="shared" si="9"/>
         <v>49979</v>
       </c>
@@ -5662,7 +5662,7 @@
       <c r="G286" s="5"/>
     </row>
     <row r="287" spans="1:7">
-      <c r="A287" s="12">
+      <c r="A287" s="11">
         <f t="shared" si="9"/>
         <v>50009</v>
       </c>
@@ -5677,7 +5677,7 @@
       <c r="G287" s="5"/>
     </row>
     <row r="288" spans="1:7">
-      <c r="A288" s="12">
+      <c r="A288" s="11">
         <f t="shared" si="9"/>
         <v>50040</v>
       </c>
@@ -5692,7 +5692,7 @@
       <c r="G288" s="5"/>
     </row>
     <row r="289" spans="1:7">
-      <c r="A289" s="12">
+      <c r="A289" s="11">
         <f t="shared" si="9"/>
         <v>50071</v>
       </c>
@@ -5707,7 +5707,7 @@
       <c r="G289" s="5"/>
     </row>
     <row r="290" spans="1:7">
-      <c r="A290" s="12">
+      <c r="A290" s="11">
         <f t="shared" si="9"/>
         <v>50099</v>
       </c>
@@ -5722,7 +5722,7 @@
       <c r="G290" s="5"/>
     </row>
     <row r="291" spans="1:7">
-      <c r="A291" s="12">
+      <c r="A291" s="11">
         <f t="shared" si="9"/>
         <v>50130</v>
       </c>
@@ -5737,7 +5737,7 @@
       <c r="G291" s="5"/>
     </row>
     <row r="292" spans="1:7">
-      <c r="A292" s="12">
+      <c r="A292" s="11">
         <f t="shared" si="9"/>
         <v>50160</v>
       </c>
@@ -5752,7 +5752,7 @@
       <c r="G292" s="5"/>
     </row>
     <row r="293" spans="1:7">
-      <c r="A293" s="12">
+      <c r="A293" s="11">
         <f t="shared" si="9"/>
         <v>50191</v>
       </c>
@@ -5767,7 +5767,7 @@
       <c r="G293" s="5"/>
     </row>
     <row r="294" spans="1:7">
-      <c r="A294" s="12">
+      <c r="A294" s="11">
         <f t="shared" si="9"/>
         <v>50221</v>
       </c>
@@ -5782,7 +5782,7 @@
       <c r="G294" s="5"/>
     </row>
     <row r="295" spans="1:7">
-      <c r="A295" s="12">
+      <c r="A295" s="11">
         <f t="shared" si="9"/>
         <v>50252</v>
       </c>
@@ -5797,7 +5797,7 @@
       <c r="G295" s="5"/>
     </row>
     <row r="296" spans="1:7">
-      <c r="A296" s="12">
+      <c r="A296" s="11">
         <f t="shared" si="9"/>
         <v>50283</v>
       </c>
@@ -5812,7 +5812,7 @@
       <c r="G296" s="5"/>
     </row>
     <row r="297" spans="1:7">
-      <c r="A297" s="12">
+      <c r="A297" s="11">
         <f t="shared" si="9"/>
         <v>50313</v>
       </c>
@@ -5827,7 +5827,7 @@
       <c r="G297" s="5"/>
     </row>
     <row r="298" spans="1:7">
-      <c r="A298" s="12">
+      <c r="A298" s="11">
         <f t="shared" si="9"/>
         <v>50344</v>
       </c>
@@ -5842,7 +5842,7 @@
       <c r="G298" s="5"/>
     </row>
     <row r="299" spans="1:7">
-      <c r="A299" s="12">
+      <c r="A299" s="11">
         <f t="shared" si="9"/>
         <v>50374</v>
       </c>
@@ -5857,7 +5857,7 @@
       <c r="G299" s="5"/>
     </row>
     <row r="300" spans="1:7">
-      <c r="A300" s="12">
+      <c r="A300" s="11">
         <f t="shared" si="9"/>
         <v>50405</v>
       </c>
@@ -5872,7 +5872,7 @@
       <c r="G300" s="5"/>
     </row>
     <row r="301" spans="1:7">
-      <c r="A301" s="12">
+      <c r="A301" s="11">
         <f t="shared" si="9"/>
         <v>50436</v>
       </c>
@@ -5887,7 +5887,7 @@
       <c r="G301" s="5"/>
     </row>
     <row r="302" spans="1:7">
-      <c r="A302" s="12">
+      <c r="A302" s="11">
         <f t="shared" si="9"/>
         <v>50464</v>
       </c>
@@ -5902,7 +5902,7 @@
       <c r="G302" s="5"/>
     </row>
     <row r="303" spans="1:7">
-      <c r="A303" s="12">
+      <c r="A303" s="11">
         <f t="shared" si="9"/>
         <v>50495</v>
       </c>
@@ -5917,7 +5917,7 @@
       <c r="G303" s="5"/>
     </row>
     <row r="304" spans="1:7">
-      <c r="A304" s="12">
+      <c r="A304" s="11">
         <f t="shared" si="9"/>
         <v>50525</v>
       </c>
@@ -5932,7 +5932,7 @@
       <c r="G304" s="5"/>
     </row>
     <row r="305" spans="1:7">
-      <c r="A305" s="12">
+      <c r="A305" s="11">
         <f t="shared" si="9"/>
         <v>50556</v>
       </c>
@@ -5947,7 +5947,7 @@
       <c r="G305" s="5"/>
     </row>
     <row r="306" spans="1:7">
-      <c r="A306" s="12">
+      <c r="A306" s="11">
         <f t="shared" si="9"/>
         <v>50586</v>
       </c>
@@ -5962,7 +5962,7 @@
       <c r="G306" s="5"/>
     </row>
     <row r="307" spans="1:7">
-      <c r="A307" s="12">
+      <c r="A307" s="11">
         <f t="shared" si="9"/>
         <v>50617</v>
       </c>
@@ -5977,7 +5977,7 @@
       <c r="G307" s="5"/>
     </row>
     <row r="308" spans="1:7">
-      <c r="A308" s="12">
+      <c r="A308" s="11">
         <f t="shared" si="9"/>
         <v>50648</v>
       </c>
@@ -5992,7 +5992,7 @@
       <c r="G308" s="5"/>
     </row>
     <row r="309" spans="1:7">
-      <c r="A309" s="12">
+      <c r="A309" s="11">
         <f t="shared" si="9"/>
         <v>50678</v>
       </c>
@@ -6007,7 +6007,7 @@
       <c r="G309" s="5"/>
     </row>
     <row r="310" spans="1:7">
-      <c r="A310" s="12">
+      <c r="A310" s="11">
         <f t="shared" si="9"/>
         <v>50709</v>
       </c>
@@ -6022,7 +6022,7 @@
       <c r="G310" s="5"/>
     </row>
     <row r="311" spans="1:7">
-      <c r="A311" s="12">
+      <c r="A311" s="11">
         <f t="shared" si="9"/>
         <v>50739</v>
       </c>
@@ -6037,7 +6037,7 @@
       <c r="G311" s="5"/>
     </row>
     <row r="312" spans="1:7">
-      <c r="A312" s="12">
+      <c r="A312" s="11">
         <f t="shared" si="9"/>
         <v>50770</v>
       </c>
@@ -6052,7 +6052,7 @@
       <c r="G312" s="5"/>
     </row>
     <row r="313" spans="1:7">
-      <c r="A313" s="12">
+      <c r="A313" s="11">
         <f t="shared" si="9"/>
         <v>50801</v>
       </c>
@@ -6067,7 +6067,7 @@
       <c r="G313" s="5"/>
     </row>
     <row r="314" spans="1:7">
-      <c r="A314" s="12">
+      <c r="A314" s="11">
         <f t="shared" si="9"/>
         <v>50829</v>
       </c>
@@ -6082,7 +6082,7 @@
       <c r="G314" s="5"/>
     </row>
     <row r="315" spans="1:7">
-      <c r="A315" s="12">
+      <c r="A315" s="11">
         <f t="shared" si="9"/>
         <v>50860</v>
       </c>
@@ -6097,7 +6097,7 @@
       <c r="G315" s="5"/>
     </row>
     <row r="316" spans="1:7">
-      <c r="A316" s="12">
+      <c r="A316" s="11">
         <f t="shared" si="9"/>
         <v>50890</v>
       </c>
@@ -6112,7 +6112,7 @@
       <c r="G316" s="5"/>
     </row>
     <row r="317" spans="1:7">
-      <c r="A317" s="12">
+      <c r="A317" s="11">
         <f t="shared" si="9"/>
         <v>50921</v>
       </c>
@@ -6127,7 +6127,7 @@
       <c r="G317" s="5"/>
     </row>
     <row r="318" spans="1:7">
-      <c r="A318" s="12">
+      <c r="A318" s="11">
         <f t="shared" si="9"/>
         <v>50951</v>
       </c>
@@ -6142,7 +6142,7 @@
       <c r="G318" s="5"/>
     </row>
     <row r="319" spans="1:7">
-      <c r="A319" s="12">
+      <c r="A319" s="11">
         <f t="shared" si="9"/>
         <v>50982</v>
       </c>
@@ -6157,7 +6157,7 @@
       <c r="G319" s="5"/>
     </row>
     <row r="320" spans="1:7">
-      <c r="A320" s="12">
+      <c r="A320" s="11">
         <f t="shared" si="9"/>
         <v>51013</v>
       </c>
@@ -6172,7 +6172,7 @@
       <c r="G320" s="5"/>
     </row>
     <row r="321" spans="1:7">
-      <c r="A321" s="12">
+      <c r="A321" s="11">
         <f t="shared" si="9"/>
         <v>51043</v>
       </c>
@@ -6187,7 +6187,7 @@
       <c r="G321" s="5"/>
     </row>
     <row r="322" spans="1:7">
-      <c r="A322" s="12">
+      <c r="A322" s="11">
         <f t="shared" si="9"/>
         <v>51074</v>
       </c>
@@ -6202,7 +6202,7 @@
       <c r="G322" s="5"/>
     </row>
     <row r="323" spans="1:7">
-      <c r="A323" s="12">
+      <c r="A323" s="11">
         <f t="shared" si="9"/>
         <v>51104</v>
       </c>
@@ -6217,7 +6217,7 @@
       <c r="G323" s="5"/>
     </row>
     <row r="324" spans="1:7">
-      <c r="A324" s="12">
+      <c r="A324" s="11">
         <f t="shared" si="9"/>
         <v>51135</v>
       </c>
@@ -6232,7 +6232,7 @@
       <c r="G324" s="5"/>
     </row>
     <row r="325" spans="1:7">
-      <c r="A325" s="12">
+      <c r="A325" s="11">
         <f t="shared" si="9"/>
         <v>51166</v>
       </c>
@@ -6247,7 +6247,7 @@
       <c r="G325" s="5"/>
     </row>
     <row r="326" spans="1:7">
-      <c r="A326" s="12">
+      <c r="A326" s="11">
         <f t="shared" si="9"/>
         <v>51195</v>
       </c>
@@ -6262,7 +6262,7 @@
       <c r="G326" s="5"/>
     </row>
     <row r="327" spans="1:7">
-      <c r="A327" s="12">
+      <c r="A327" s="11">
         <f t="shared" si="9"/>
         <v>51226</v>
       </c>
@@ -6277,7 +6277,7 @@
       <c r="G327" s="5"/>
     </row>
     <row r="328" spans="1:7">
-      <c r="A328" s="12">
+      <c r="A328" s="11">
         <f t="shared" si="9"/>
         <v>51256</v>
       </c>
@@ -6292,7 +6292,7 @@
       <c r="G328" s="5"/>
     </row>
     <row r="329" spans="1:7">
-      <c r="A329" s="12">
+      <c r="A329" s="11">
         <f t="shared" si="9"/>
         <v>51287</v>
       </c>
@@ -6307,7 +6307,7 @@
       <c r="G329" s="5"/>
     </row>
     <row r="330" spans="1:7">
-      <c r="A330" s="12">
+      <c r="A330" s="11">
         <f t="shared" si="9"/>
         <v>51317</v>
       </c>
@@ -6322,7 +6322,7 @@
       <c r="G330" s="5"/>
     </row>
     <row r="331" spans="1:7">
-      <c r="A331" s="12">
+      <c r="A331" s="11">
         <f t="shared" si="9"/>
         <v>51348</v>
       </c>
@@ -6337,7 +6337,7 @@
       <c r="G331" s="5"/>
     </row>
     <row r="332" spans="1:7">
-      <c r="A332" s="12">
+      <c r="A332" s="11">
         <f t="shared" si="9"/>
         <v>51379</v>
       </c>
@@ -6352,7 +6352,7 @@
       <c r="G332" s="5"/>
     </row>
     <row r="333" spans="1:7">
-      <c r="A333" s="12">
+      <c r="A333" s="11">
         <f t="shared" si="9"/>
         <v>51409</v>
       </c>
@@ -6367,7 +6367,7 @@
       <c r="G333" s="5"/>
     </row>
     <row r="334" spans="1:7">
-      <c r="A334" s="12">
+      <c r="A334" s="11">
         <f t="shared" si="9"/>
         <v>51440</v>
       </c>
@@ -6382,7 +6382,7 @@
       <c r="G334" s="5"/>
     </row>
     <row r="335" spans="1:7">
-      <c r="A335" s="12">
+      <c r="A335" s="11">
         <f t="shared" si="9"/>
         <v>51470</v>
       </c>
@@ -6397,7 +6397,7 @@
       <c r="G335" s="5"/>
     </row>
     <row r="336" spans="1:7">
-      <c r="A336" s="12">
+      <c r="A336" s="11">
         <f t="shared" ref="A336:A373" si="11">EOMONTH(A335,1)</f>
         <v>51501</v>
       </c>
@@ -6412,7 +6412,7 @@
       <c r="G336" s="5"/>
     </row>
     <row r="337" spans="1:7">
-      <c r="A337" s="12">
+      <c r="A337" s="11">
         <f t="shared" si="11"/>
         <v>51532</v>
       </c>
@@ -6427,7 +6427,7 @@
       <c r="G337" s="5"/>
     </row>
     <row r="338" spans="1:7">
-      <c r="A338" s="12">
+      <c r="A338" s="11">
         <f t="shared" si="11"/>
         <v>51560</v>
       </c>
@@ -6442,7 +6442,7 @@
       <c r="G338" s="5"/>
     </row>
     <row r="339" spans="1:7">
-      <c r="A339" s="12">
+      <c r="A339" s="11">
         <f t="shared" si="11"/>
         <v>51591</v>
       </c>
@@ -6457,7 +6457,7 @@
       <c r="G339" s="5"/>
     </row>
     <row r="340" spans="1:7">
-      <c r="A340" s="12">
+      <c r="A340" s="11">
         <f t="shared" si="11"/>
         <v>51621</v>
       </c>
@@ -6472,7 +6472,7 @@
       <c r="G340" s="5"/>
     </row>
     <row r="341" spans="1:7">
-      <c r="A341" s="12">
+      <c r="A341" s="11">
         <f t="shared" si="11"/>
         <v>51652</v>
       </c>
@@ -6487,7 +6487,7 @@
       <c r="G341" s="5"/>
     </row>
     <row r="342" spans="1:7">
-      <c r="A342" s="12">
+      <c r="A342" s="11">
         <f t="shared" si="11"/>
         <v>51682</v>
       </c>
@@ -6502,7 +6502,7 @@
       <c r="G342" s="5"/>
     </row>
     <row r="343" spans="1:7">
-      <c r="A343" s="12">
+      <c r="A343" s="11">
         <f t="shared" si="11"/>
         <v>51713</v>
       </c>
@@ -6517,7 +6517,7 @@
       <c r="G343" s="5"/>
     </row>
     <row r="344" spans="1:7">
-      <c r="A344" s="12">
+      <c r="A344" s="11">
         <f t="shared" si="11"/>
         <v>51744</v>
       </c>
@@ -6532,7 +6532,7 @@
       <c r="G344" s="5"/>
     </row>
     <row r="345" spans="1:7">
-      <c r="A345" s="12">
+      <c r="A345" s="11">
         <f t="shared" si="11"/>
         <v>51774</v>
       </c>
@@ -6547,7 +6547,7 @@
       <c r="G345" s="5"/>
     </row>
     <row r="346" spans="1:7">
-      <c r="A346" s="12">
+      <c r="A346" s="11">
         <f t="shared" si="11"/>
         <v>51805</v>
       </c>
@@ -6562,7 +6562,7 @@
       <c r="G346" s="5"/>
     </row>
     <row r="347" spans="1:7">
-      <c r="A347" s="12">
+      <c r="A347" s="11">
         <f t="shared" si="11"/>
         <v>51835</v>
       </c>
@@ -6577,7 +6577,7 @@
       <c r="G347" s="5"/>
     </row>
     <row r="348" spans="1:7">
-      <c r="A348" s="12">
+      <c r="A348" s="11">
         <f t="shared" si="11"/>
         <v>51866</v>
       </c>
@@ -6592,7 +6592,7 @@
       <c r="G348" s="5"/>
     </row>
     <row r="349" spans="1:7">
-      <c r="A349" s="12">
+      <c r="A349" s="11">
         <f t="shared" si="11"/>
         <v>51897</v>
       </c>
@@ -6607,7 +6607,7 @@
       <c r="G349" s="5"/>
     </row>
     <row r="350" spans="1:7">
-      <c r="A350" s="12">
+      <c r="A350" s="11">
         <f t="shared" si="11"/>
         <v>51925</v>
       </c>
@@ -6622,7 +6622,7 @@
       <c r="G350" s="5"/>
     </row>
     <row r="351" spans="1:7">
-      <c r="A351" s="12">
+      <c r="A351" s="11">
         <f t="shared" si="11"/>
         <v>51956</v>
       </c>
@@ -6637,7 +6637,7 @@
       <c r="G351" s="5"/>
     </row>
     <row r="352" spans="1:7">
-      <c r="A352" s="12">
+      <c r="A352" s="11">
         <f t="shared" si="11"/>
         <v>51986</v>
       </c>
@@ -6652,7 +6652,7 @@
       <c r="G352" s="5"/>
     </row>
     <row r="353" spans="1:7">
-      <c r="A353" s="12">
+      <c r="A353" s="11">
         <f t="shared" si="11"/>
         <v>52017</v>
       </c>
@@ -6667,7 +6667,7 @@
       <c r="G353" s="5"/>
     </row>
     <row r="354" spans="1:7">
-      <c r="A354" s="12">
+      <c r="A354" s="11">
         <f t="shared" si="11"/>
         <v>52047</v>
       </c>
@@ -6682,7 +6682,7 @@
       <c r="G354" s="5"/>
     </row>
     <row r="355" spans="1:7">
-      <c r="A355" s="12">
+      <c r="A355" s="11">
         <f t="shared" si="11"/>
         <v>52078</v>
       </c>
@@ -6697,7 +6697,7 @@
       <c r="G355" s="5"/>
     </row>
     <row r="356" spans="1:7">
-      <c r="A356" s="12">
+      <c r="A356" s="11">
         <f t="shared" si="11"/>
         <v>52109</v>
       </c>
@@ -6712,7 +6712,7 @@
       <c r="G356" s="5"/>
     </row>
     <row r="357" spans="1:7">
-      <c r="A357" s="12">
+      <c r="A357" s="11">
         <f t="shared" si="11"/>
         <v>52139</v>
       </c>
@@ -6727,7 +6727,7 @@
       <c r="G357" s="5"/>
     </row>
     <row r="358" spans="1:7">
-      <c r="A358" s="12">
+      <c r="A358" s="11">
         <f t="shared" si="11"/>
         <v>52170</v>
       </c>
@@ -6742,7 +6742,7 @@
       <c r="G358" s="5"/>
     </row>
     <row r="359" spans="1:7">
-      <c r="A359" s="12">
+      <c r="A359" s="11">
         <f t="shared" si="11"/>
         <v>52200</v>
       </c>
@@ -6757,7 +6757,7 @@
       <c r="G359" s="5"/>
     </row>
     <row r="360" spans="1:7">
-      <c r="A360" s="12">
+      <c r="A360" s="11">
         <f t="shared" si="11"/>
         <v>52231</v>
       </c>
@@ -6772,7 +6772,7 @@
       <c r="G360" s="5"/>
     </row>
     <row r="361" spans="1:7">
-      <c r="A361" s="12">
+      <c r="A361" s="11">
         <f t="shared" si="11"/>
         <v>52262</v>
       </c>
@@ -6787,7 +6787,7 @@
       <c r="G361" s="5"/>
     </row>
     <row r="362" spans="1:7">
-      <c r="A362" s="12">
+      <c r="A362" s="11">
         <f t="shared" si="11"/>
         <v>52290</v>
       </c>
@@ -6802,7 +6802,7 @@
       <c r="G362" s="5"/>
     </row>
     <row r="363" spans="1:7">
-      <c r="A363" s="12">
+      <c r="A363" s="11">
         <f t="shared" si="11"/>
         <v>52321</v>
       </c>
@@ -6817,7 +6817,7 @@
       <c r="G363" s="5"/>
     </row>
     <row r="364" spans="1:7">
-      <c r="A364" s="12">
+      <c r="A364" s="11">
         <f t="shared" si="11"/>
         <v>52351</v>
       </c>
@@ -6832,7 +6832,7 @@
       <c r="G364" s="5"/>
     </row>
     <row r="365" spans="1:7">
-      <c r="A365" s="12">
+      <c r="A365" s="11">
         <f t="shared" si="11"/>
         <v>52382</v>
       </c>
@@ -6847,7 +6847,7 @@
       <c r="G365" s="5"/>
     </row>
     <row r="366" spans="1:7">
-      <c r="A366" s="12">
+      <c r="A366" s="11">
         <f t="shared" si="11"/>
         <v>52412</v>
       </c>
@@ -6862,7 +6862,7 @@
       <c r="G366" s="5"/>
     </row>
     <row r="367" spans="1:7">
-      <c r="A367" s="12">
+      <c r="A367" s="11">
         <f t="shared" si="11"/>
         <v>52443</v>
       </c>
@@ -6877,7 +6877,7 @@
       <c r="G367" s="5"/>
     </row>
     <row r="368" spans="1:7">
-      <c r="A368" s="12">
+      <c r="A368" s="11">
         <f t="shared" si="11"/>
         <v>52474</v>
       </c>
@@ -6892,7 +6892,7 @@
       <c r="G368" s="5"/>
     </row>
     <row r="369" spans="1:7">
-      <c r="A369" s="12">
+      <c r="A369" s="11">
         <f t="shared" si="11"/>
         <v>52504</v>
       </c>
@@ -6907,7 +6907,7 @@
       <c r="G369" s="5"/>
     </row>
     <row r="370" spans="1:7">
-      <c r="A370" s="12">
+      <c r="A370" s="11">
         <f t="shared" si="11"/>
         <v>52535</v>
       </c>
@@ -6922,7 +6922,7 @@
       <c r="G370" s="5"/>
     </row>
     <row r="371" spans="1:7">
-      <c r="A371" s="12">
+      <c r="A371" s="11">
         <f t="shared" si="11"/>
         <v>52565</v>
       </c>
@@ -6937,7 +6937,7 @@
       <c r="G371" s="5"/>
     </row>
     <row r="372" spans="1:7">
-      <c r="A372" s="12">
+      <c r="A372" s="11">
         <f t="shared" si="11"/>
         <v>52596</v>
       </c>
@@ -6952,7 +6952,7 @@
       <c r="G372" s="5"/>
     </row>
     <row r="373" spans="1:7">
-      <c r="A373" s="12">
+      <c r="A373" s="11">
         <f t="shared" si="11"/>
         <v>52627</v>
       </c>
@@ -6967,7 +6967,7 @@
       <c r="G373" s="5"/>
     </row>
     <row r="374" spans="1:7">
-      <c r="A374" s="12">
+      <c r="A374" s="11">
         <f t="shared" ref="A374:A437" si="12">EOMONTH(A373,1)</f>
         <v>52656</v>
       </c>
@@ -6978,7 +6978,7 @@
       <c r="D374" s="10"/>
     </row>
     <row r="375" spans="1:7">
-      <c r="A375" s="12">
+      <c r="A375" s="11">
         <f t="shared" si="12"/>
         <v>52687</v>
       </c>
@@ -6989,7 +6989,7 @@
       <c r="D375" s="10"/>
     </row>
     <row r="376" spans="1:7">
-      <c r="A376" s="12">
+      <c r="A376" s="11">
         <f t="shared" si="12"/>
         <v>52717</v>
       </c>
@@ -7000,7 +7000,7 @@
       <c r="D376" s="10"/>
     </row>
     <row r="377" spans="1:7">
-      <c r="A377" s="12">
+      <c r="A377" s="11">
         <f t="shared" si="12"/>
         <v>52748</v>
       </c>
@@ -7011,7 +7011,7 @@
       <c r="D377" s="10"/>
     </row>
     <row r="378" spans="1:7">
-      <c r="A378" s="12">
+      <c r="A378" s="11">
         <f t="shared" si="12"/>
         <v>52778</v>
       </c>
@@ -7022,7 +7022,7 @@
       <c r="D378" s="10"/>
     </row>
     <row r="379" spans="1:7">
-      <c r="A379" s="12">
+      <c r="A379" s="11">
         <f t="shared" si="12"/>
         <v>52809</v>
       </c>
@@ -7033,7 +7033,7 @@
       <c r="D379" s="10"/>
     </row>
     <row r="380" spans="1:7">
-      <c r="A380" s="12">
+      <c r="A380" s="11">
         <f t="shared" si="12"/>
         <v>52840</v>
       </c>
@@ -7044,7 +7044,7 @@
       <c r="D380" s="10"/>
     </row>
     <row r="381" spans="1:7">
-      <c r="A381" s="12">
+      <c r="A381" s="11">
         <f t="shared" si="12"/>
         <v>52870</v>
       </c>
@@ -7055,7 +7055,7 @@
       <c r="D381" s="10"/>
     </row>
     <row r="382" spans="1:7">
-      <c r="A382" s="12">
+      <c r="A382" s="11">
         <f t="shared" si="12"/>
         <v>52901</v>
       </c>
@@ -7066,7 +7066,7 @@
       <c r="D382" s="10"/>
     </row>
     <row r="383" spans="1:7">
-      <c r="A383" s="12">
+      <c r="A383" s="11">
         <f t="shared" si="12"/>
         <v>52931</v>
       </c>
@@ -7077,7 +7077,7 @@
       <c r="D383" s="10"/>
     </row>
     <row r="384" spans="1:7">
-      <c r="A384" s="12">
+      <c r="A384" s="11">
         <f t="shared" si="12"/>
         <v>52962</v>
       </c>
@@ -7088,7 +7088,7 @@
       <c r="D384" s="10"/>
     </row>
     <row r="385" spans="1:4">
-      <c r="A385" s="12">
+      <c r="A385" s="11">
         <f t="shared" si="12"/>
         <v>52993</v>
       </c>
@@ -7099,7 +7099,7 @@
       <c r="D385" s="10"/>
     </row>
     <row r="386" spans="1:4">
-      <c r="A386" s="12">
+      <c r="A386" s="11">
         <f t="shared" si="12"/>
         <v>53021</v>
       </c>
@@ -7110,7 +7110,7 @@
       <c r="D386" s="10"/>
     </row>
     <row r="387" spans="1:4">
-      <c r="A387" s="12">
+      <c r="A387" s="11">
         <f t="shared" si="12"/>
         <v>53052</v>
       </c>
@@ -7121,7 +7121,7 @@
       <c r="D387" s="10"/>
     </row>
     <row r="388" spans="1:4">
-      <c r="A388" s="12">
+      <c r="A388" s="11">
         <f t="shared" si="12"/>
         <v>53082</v>
       </c>
@@ -7132,7 +7132,7 @@
       <c r="D388" s="10"/>
     </row>
     <row r="389" spans="1:4">
-      <c r="A389" s="12">
+      <c r="A389" s="11">
         <f t="shared" si="12"/>
         <v>53113</v>
       </c>
@@ -7143,7 +7143,7 @@
       <c r="D389" s="10"/>
     </row>
     <row r="390" spans="1:4">
-      <c r="A390" s="12">
+      <c r="A390" s="11">
         <f t="shared" si="12"/>
         <v>53143</v>
       </c>
@@ -7154,7 +7154,7 @@
       <c r="D390" s="10"/>
     </row>
     <row r="391" spans="1:4">
-      <c r="A391" s="12">
+      <c r="A391" s="11">
         <f t="shared" si="12"/>
         <v>53174</v>
       </c>
@@ -7165,7 +7165,7 @@
       <c r="D391" s="10"/>
     </row>
     <row r="392" spans="1:4">
-      <c r="A392" s="12">
+      <c r="A392" s="11">
         <f t="shared" si="12"/>
         <v>53205</v>
       </c>
@@ -7176,7 +7176,7 @@
       <c r="D392" s="10"/>
     </row>
     <row r="393" spans="1:4">
-      <c r="A393" s="12">
+      <c r="A393" s="11">
         <f t="shared" si="12"/>
         <v>53235</v>
       </c>
@@ -7187,7 +7187,7 @@
       <c r="D393" s="10"/>
     </row>
     <row r="394" spans="1:4">
-      <c r="A394" s="12">
+      <c r="A394" s="11">
         <f t="shared" si="12"/>
         <v>53266</v>
       </c>
@@ -7198,7 +7198,7 @@
       <c r="D394" s="10"/>
     </row>
     <row r="395" spans="1:4">
-      <c r="A395" s="12">
+      <c r="A395" s="11">
         <f t="shared" si="12"/>
         <v>53296</v>
       </c>
@@ -7209,7 +7209,7 @@
       <c r="D395" s="10"/>
     </row>
     <row r="396" spans="1:4">
-      <c r="A396" s="12">
+      <c r="A396" s="11">
         <f t="shared" si="12"/>
         <v>53327</v>
       </c>
@@ -7220,7 +7220,7 @@
       <c r="D396" s="10"/>
     </row>
     <row r="397" spans="1:4">
-      <c r="A397" s="12">
+      <c r="A397" s="11">
         <f t="shared" si="12"/>
         <v>53358</v>
       </c>
@@ -7231,7 +7231,7 @@
       <c r="D397" s="10"/>
     </row>
     <row r="398" spans="1:4">
-      <c r="A398" s="12">
+      <c r="A398" s="11">
         <f t="shared" si="12"/>
         <v>53386</v>
       </c>
@@ -7242,7 +7242,7 @@
       <c r="D398" s="10"/>
     </row>
     <row r="399" spans="1:4">
-      <c r="A399" s="12">
+      <c r="A399" s="11">
         <f t="shared" si="12"/>
         <v>53417</v>
       </c>
@@ -7253,7 +7253,7 @@
       <c r="D399" s="10"/>
     </row>
     <row r="400" spans="1:4">
-      <c r="A400" s="12">
+      <c r="A400" s="11">
         <f t="shared" si="12"/>
         <v>53447</v>
       </c>
@@ -7264,7 +7264,7 @@
       <c r="D400" s="10"/>
     </row>
     <row r="401" spans="1:4">
-      <c r="A401" s="12">
+      <c r="A401" s="11">
         <f t="shared" si="12"/>
         <v>53478</v>
       </c>
@@ -7275,7 +7275,7 @@
       <c r="D401" s="10"/>
     </row>
     <row r="402" spans="1:4">
-      <c r="A402" s="12">
+      <c r="A402" s="11">
         <f t="shared" si="12"/>
         <v>53508</v>
       </c>
@@ -7286,7 +7286,7 @@
       <c r="D402" s="10"/>
     </row>
     <row r="403" spans="1:4">
-      <c r="A403" s="12">
+      <c r="A403" s="11">
         <f t="shared" si="12"/>
         <v>53539</v>
       </c>
@@ -7297,7 +7297,7 @@
       <c r="D403" s="10"/>
     </row>
     <row r="404" spans="1:4">
-      <c r="A404" s="12">
+      <c r="A404" s="11">
         <f t="shared" si="12"/>
         <v>53570</v>
       </c>
@@ -7308,7 +7308,7 @@
       <c r="D404" s="10"/>
     </row>
     <row r="405" spans="1:4">
-      <c r="A405" s="12">
+      <c r="A405" s="11">
         <f t="shared" si="12"/>
         <v>53600</v>
       </c>
@@ -7319,7 +7319,7 @@
       <c r="D405" s="10"/>
     </row>
     <row r="406" spans="1:4">
-      <c r="A406" s="12">
+      <c r="A406" s="11">
         <f t="shared" si="12"/>
         <v>53631</v>
       </c>
@@ -7330,7 +7330,7 @@
       <c r="D406" s="10"/>
     </row>
     <row r="407" spans="1:4">
-      <c r="A407" s="12">
+      <c r="A407" s="11">
         <f t="shared" si="12"/>
         <v>53661</v>
       </c>
@@ -7341,7 +7341,7 @@
       <c r="D407" s="10"/>
     </row>
     <row r="408" spans="1:4">
-      <c r="A408" s="12">
+      <c r="A408" s="11">
         <f t="shared" si="12"/>
         <v>53692</v>
       </c>
@@ -7352,7 +7352,7 @@
       <c r="D408" s="10"/>
     </row>
     <row r="409" spans="1:4">
-      <c r="A409" s="12">
+      <c r="A409" s="11">
         <f t="shared" si="12"/>
         <v>53723</v>
       </c>
@@ -7363,7 +7363,7 @@
       <c r="D409" s="10"/>
     </row>
     <row r="410" spans="1:4">
-      <c r="A410" s="12">
+      <c r="A410" s="11">
         <f t="shared" si="12"/>
         <v>53751</v>
       </c>
@@ -7374,7 +7374,7 @@
       <c r="D410" s="10"/>
     </row>
     <row r="411" spans="1:4">
-      <c r="A411" s="12">
+      <c r="A411" s="11">
         <f t="shared" si="12"/>
         <v>53782</v>
       </c>
@@ -7385,7 +7385,7 @@
       <c r="D411" s="10"/>
     </row>
     <row r="412" spans="1:4">
-      <c r="A412" s="12">
+      <c r="A412" s="11">
         <f t="shared" si="12"/>
         <v>53812</v>
       </c>
@@ -7396,7 +7396,7 @@
       <c r="D412" s="10"/>
     </row>
     <row r="413" spans="1:4">
-      <c r="A413" s="12">
+      <c r="A413" s="11">
         <f t="shared" si="12"/>
         <v>53843</v>
       </c>
@@ -7407,7 +7407,7 @@
       <c r="D413" s="10"/>
     </row>
     <row r="414" spans="1:4">
-      <c r="A414" s="12">
+      <c r="A414" s="11">
         <f t="shared" si="12"/>
         <v>53873</v>
       </c>
@@ -7418,7 +7418,7 @@
       <c r="D414" s="10"/>
     </row>
     <row r="415" spans="1:4">
-      <c r="A415" s="12">
+      <c r="A415" s="11">
         <f t="shared" si="12"/>
         <v>53904</v>
       </c>
@@ -7429,7 +7429,7 @@
       <c r="D415" s="10"/>
     </row>
     <row r="416" spans="1:4">
-      <c r="A416" s="12">
+      <c r="A416" s="11">
         <f t="shared" si="12"/>
         <v>53935</v>
       </c>
@@ -7440,7 +7440,7 @@
       <c r="D416" s="10"/>
     </row>
     <row r="417" spans="1:4">
-      <c r="A417" s="12">
+      <c r="A417" s="11">
         <f t="shared" si="12"/>
         <v>53965</v>
       </c>
@@ -7451,7 +7451,7 @@
       <c r="D417" s="10"/>
     </row>
     <row r="418" spans="1:4">
-      <c r="A418" s="12">
+      <c r="A418" s="11">
         <f t="shared" si="12"/>
         <v>53996</v>
       </c>
@@ -7462,7 +7462,7 @@
       <c r="D418" s="10"/>
     </row>
     <row r="419" spans="1:4">
-      <c r="A419" s="12">
+      <c r="A419" s="11">
         <f t="shared" si="12"/>
         <v>54026</v>
       </c>
@@ -7473,7 +7473,7 @@
       <c r="D419" s="10"/>
     </row>
     <row r="420" spans="1:4">
-      <c r="A420" s="12">
+      <c r="A420" s="11">
         <f t="shared" si="12"/>
         <v>54057</v>
       </c>
@@ -7484,7 +7484,7 @@
       <c r="D420" s="10"/>
     </row>
     <row r="421" spans="1:4">
-      <c r="A421" s="12">
+      <c r="A421" s="11">
         <f t="shared" si="12"/>
         <v>54088</v>
       </c>
@@ -7495,7 +7495,7 @@
       <c r="D421" s="10"/>
     </row>
     <row r="422" spans="1:4">
-      <c r="A422" s="12">
+      <c r="A422" s="11">
         <f t="shared" si="12"/>
         <v>54117</v>
       </c>
@@ -7506,7 +7506,7 @@
       <c r="D422" s="10"/>
     </row>
     <row r="423" spans="1:4">
-      <c r="A423" s="12">
+      <c r="A423" s="11">
         <f t="shared" si="12"/>
         <v>54148</v>
       </c>
@@ -7517,7 +7517,7 @@
       <c r="D423" s="10"/>
     </row>
     <row r="424" spans="1:4">
-      <c r="A424" s="12">
+      <c r="A424" s="11">
         <f t="shared" si="12"/>
         <v>54178</v>
       </c>
@@ -7528,7 +7528,7 @@
       <c r="D424" s="10"/>
     </row>
     <row r="425" spans="1:4">
-      <c r="A425" s="12">
+      <c r="A425" s="11">
         <f t="shared" si="12"/>
         <v>54209</v>
       </c>
@@ -7539,7 +7539,7 @@
       <c r="D425" s="10"/>
     </row>
     <row r="426" spans="1:4">
-      <c r="A426" s="12">
+      <c r="A426" s="11">
         <f t="shared" si="12"/>
         <v>54239</v>
       </c>
@@ -7550,7 +7550,7 @@
       <c r="D426" s="10"/>
     </row>
     <row r="427" spans="1:4">
-      <c r="A427" s="12">
+      <c r="A427" s="11">
         <f t="shared" si="12"/>
         <v>54270</v>
       </c>
@@ -7561,7 +7561,7 @@
       <c r="D427" s="10"/>
     </row>
     <row r="428" spans="1:4">
-      <c r="A428" s="12">
+      <c r="A428" s="11">
         <f t="shared" si="12"/>
         <v>54301</v>
       </c>
@@ -7572,7 +7572,7 @@
       <c r="D428" s="10"/>
     </row>
     <row r="429" spans="1:4">
-      <c r="A429" s="12">
+      <c r="A429" s="11">
         <f t="shared" si="12"/>
         <v>54331</v>
       </c>
@@ -7583,7 +7583,7 @@
       <c r="D429" s="10"/>
     </row>
     <row r="430" spans="1:4">
-      <c r="A430" s="12">
+      <c r="A430" s="11">
         <f t="shared" si="12"/>
         <v>54362</v>
       </c>
@@ -7594,7 +7594,7 @@
       <c r="D430" s="10"/>
     </row>
     <row r="431" spans="1:4">
-      <c r="A431" s="12">
+      <c r="A431" s="11">
         <f t="shared" si="12"/>
         <v>54392</v>
       </c>
@@ -7605,7 +7605,7 @@
       <c r="D431" s="10"/>
     </row>
     <row r="432" spans="1:4">
-      <c r="A432" s="12">
+      <c r="A432" s="11">
         <f t="shared" si="12"/>
         <v>54423</v>
       </c>
@@ -7616,7 +7616,7 @@
       <c r="D432" s="10"/>
     </row>
     <row r="433" spans="1:4">
-      <c r="A433" s="12">
+      <c r="A433" s="11">
         <f t="shared" si="12"/>
         <v>54454</v>
       </c>
@@ -7627,7 +7627,7 @@
       <c r="D433" s="10"/>
     </row>
     <row r="434" spans="1:4">
-      <c r="A434" s="12">
+      <c r="A434" s="11">
         <f t="shared" si="12"/>
         <v>54482</v>
       </c>
@@ -7638,7 +7638,7 @@
       <c r="D434" s="10"/>
     </row>
     <row r="435" spans="1:4">
-      <c r="A435" s="12">
+      <c r="A435" s="11">
         <f t="shared" si="12"/>
         <v>54513</v>
       </c>
@@ -7649,7 +7649,7 @@
       <c r="D435" s="10"/>
     </row>
     <row r="436" spans="1:4">
-      <c r="A436" s="12">
+      <c r="A436" s="11">
         <f t="shared" si="12"/>
         <v>54543</v>
       </c>
@@ -7660,7 +7660,7 @@
       <c r="D436" s="10"/>
     </row>
     <row r="437" spans="1:4">
-      <c r="A437" s="12">
+      <c r="A437" s="11">
         <f t="shared" si="12"/>
         <v>54574</v>
       </c>
@@ -7671,7 +7671,7 @@
       <c r="D437" s="10"/>
     </row>
     <row r="438" spans="1:4">
-      <c r="A438" s="12">
+      <c r="A438" s="11">
         <f t="shared" ref="A438:A493" si="14">EOMONTH(A437,1)</f>
         <v>54604</v>
       </c>
@@ -7682,7 +7682,7 @@
       <c r="D438" s="10"/>
     </row>
     <row r="439" spans="1:4">
-      <c r="A439" s="12">
+      <c r="A439" s="11">
         <f t="shared" si="14"/>
         <v>54635</v>
       </c>
@@ -7693,7 +7693,7 @@
       <c r="D439" s="10"/>
     </row>
     <row r="440" spans="1:4">
-      <c r="A440" s="12">
+      <c r="A440" s="11">
         <f t="shared" si="14"/>
         <v>54666</v>
       </c>
@@ -7704,7 +7704,7 @@
       <c r="D440" s="10"/>
     </row>
     <row r="441" spans="1:4">
-      <c r="A441" s="12">
+      <c r="A441" s="11">
         <f t="shared" si="14"/>
         <v>54696</v>
       </c>
@@ -7715,7 +7715,7 @@
       <c r="D441" s="10"/>
     </row>
     <row r="442" spans="1:4">
-      <c r="A442" s="12">
+      <c r="A442" s="11">
         <f t="shared" si="14"/>
         <v>54727</v>
       </c>
@@ -7726,7 +7726,7 @@
       <c r="D442" s="10"/>
     </row>
     <row r="443" spans="1:4">
-      <c r="A443" s="12">
+      <c r="A443" s="11">
         <f t="shared" si="14"/>
         <v>54757</v>
       </c>
@@ -7737,7 +7737,7 @@
       <c r="D443" s="10"/>
     </row>
     <row r="444" spans="1:4">
-      <c r="A444" s="12">
+      <c r="A444" s="11">
         <f t="shared" si="14"/>
         <v>54788</v>
       </c>
@@ -7748,7 +7748,7 @@
       <c r="D444" s="10"/>
     </row>
     <row r="445" spans="1:4">
-      <c r="A445" s="12">
+      <c r="A445" s="11">
         <f t="shared" si="14"/>
         <v>54819</v>
       </c>
@@ -7759,7 +7759,7 @@
       <c r="D445" s="10"/>
     </row>
     <row r="446" spans="1:4">
-      <c r="A446" s="12">
+      <c r="A446" s="11">
         <f t="shared" si="14"/>
         <v>54847</v>
       </c>
@@ -7770,7 +7770,7 @@
       <c r="D446" s="10"/>
     </row>
     <row r="447" spans="1:4">
-      <c r="A447" s="12">
+      <c r="A447" s="11">
         <f t="shared" si="14"/>
         <v>54878</v>
       </c>
@@ -7781,7 +7781,7 @@
       <c r="D447" s="10"/>
     </row>
     <row r="448" spans="1:4">
-      <c r="A448" s="12">
+      <c r="A448" s="11">
         <f t="shared" si="14"/>
         <v>54908</v>
       </c>
@@ -7792,7 +7792,7 @@
       <c r="D448" s="10"/>
     </row>
     <row r="449" spans="1:4">
-      <c r="A449" s="12">
+      <c r="A449" s="11">
         <f t="shared" si="14"/>
         <v>54939</v>
       </c>
@@ -7803,7 +7803,7 @@
       <c r="D449" s="10"/>
     </row>
     <row r="450" spans="1:4">
-      <c r="A450" s="12">
+      <c r="A450" s="11">
         <f t="shared" si="14"/>
         <v>54969</v>
       </c>
@@ -7814,7 +7814,7 @@
       <c r="D450" s="10"/>
     </row>
     <row r="451" spans="1:4">
-      <c r="A451" s="12">
+      <c r="A451" s="11">
         <f t="shared" si="14"/>
         <v>55000</v>
       </c>
@@ -7825,7 +7825,7 @@
       <c r="D451" s="10"/>
     </row>
     <row r="452" spans="1:4">
-      <c r="A452" s="12">
+      <c r="A452" s="11">
         <f t="shared" si="14"/>
         <v>55031</v>
       </c>
@@ -7836,7 +7836,7 @@
       <c r="D452" s="10"/>
     </row>
     <row r="453" spans="1:4">
-      <c r="A453" s="12">
+      <c r="A453" s="11">
         <f t="shared" si="14"/>
         <v>55061</v>
       </c>
@@ -7847,7 +7847,7 @@
       <c r="D453" s="10"/>
     </row>
     <row r="454" spans="1:4">
-      <c r="A454" s="12">
+      <c r="A454" s="11">
         <f t="shared" si="14"/>
         <v>55092</v>
       </c>
@@ -7858,7 +7858,7 @@
       <c r="D454" s="10"/>
     </row>
     <row r="455" spans="1:4">
-      <c r="A455" s="12">
+      <c r="A455" s="11">
         <f t="shared" si="14"/>
         <v>55122</v>
       </c>
@@ -7869,7 +7869,7 @@
       <c r="D455" s="10"/>
     </row>
     <row r="456" spans="1:4">
-      <c r="A456" s="12">
+      <c r="A456" s="11">
         <f t="shared" si="14"/>
         <v>55153</v>
       </c>
@@ -7880,7 +7880,7 @@
       <c r="D456" s="10"/>
     </row>
     <row r="457" spans="1:4">
-      <c r="A457" s="12">
+      <c r="A457" s="11">
         <f t="shared" si="14"/>
         <v>55184</v>
       </c>
@@ -7891,7 +7891,7 @@
       <c r="D457" s="10"/>
     </row>
     <row r="458" spans="1:4">
-      <c r="A458" s="12">
+      <c r="A458" s="11">
         <f t="shared" si="14"/>
         <v>55212</v>
       </c>
@@ -7902,7 +7902,7 @@
       <c r="D458" s="10"/>
     </row>
     <row r="459" spans="1:4">
-      <c r="A459" s="12">
+      <c r="A459" s="11">
         <f t="shared" si="14"/>
         <v>55243</v>
       </c>
@@ -7913,7 +7913,7 @@
       <c r="D459" s="10"/>
     </row>
     <row r="460" spans="1:4">
-      <c r="A460" s="12">
+      <c r="A460" s="11">
         <f t="shared" si="14"/>
         <v>55273</v>
       </c>
@@ -7924,7 +7924,7 @@
       <c r="D460" s="10"/>
     </row>
     <row r="461" spans="1:4">
-      <c r="A461" s="12">
+      <c r="A461" s="11">
         <f t="shared" si="14"/>
         <v>55304</v>
       </c>
@@ -7935,7 +7935,7 @@
       <c r="D461" s="10"/>
     </row>
     <row r="462" spans="1:4">
-      <c r="A462" s="12">
+      <c r="A462" s="11">
         <f t="shared" si="14"/>
         <v>55334</v>
       </c>
@@ -7946,7 +7946,7 @@
       <c r="D462" s="10"/>
     </row>
     <row r="463" spans="1:4">
-      <c r="A463" s="12">
+      <c r="A463" s="11">
         <f t="shared" si="14"/>
         <v>55365</v>
       </c>
@@ -7957,7 +7957,7 @@
       <c r="D463" s="10"/>
     </row>
     <row r="464" spans="1:4">
-      <c r="A464" s="12">
+      <c r="A464" s="11">
         <f t="shared" si="14"/>
         <v>55396</v>
       </c>
@@ -7968,7 +7968,7 @@
       <c r="D464" s="10"/>
     </row>
     <row r="465" spans="1:4">
-      <c r="A465" s="12">
+      <c r="A465" s="11">
         <f t="shared" si="14"/>
         <v>55426</v>
       </c>
@@ -7979,7 +7979,7 @@
       <c r="D465" s="10"/>
     </row>
     <row r="466" spans="1:4">
-      <c r="A466" s="12">
+      <c r="A466" s="11">
         <f t="shared" si="14"/>
         <v>55457</v>
       </c>
@@ -7990,7 +7990,7 @@
       <c r="D466" s="10"/>
     </row>
     <row r="467" spans="1:4">
-      <c r="A467" s="12">
+      <c r="A467" s="11">
         <f t="shared" si="14"/>
         <v>55487</v>
       </c>
@@ -8001,7 +8001,7 @@
       <c r="D467" s="10"/>
     </row>
     <row r="468" spans="1:4">
-      <c r="A468" s="12">
+      <c r="A468" s="11">
         <f t="shared" si="14"/>
         <v>55518</v>
       </c>
@@ -8012,7 +8012,7 @@
       <c r="D468" s="10"/>
     </row>
     <row r="469" spans="1:4">
-      <c r="A469" s="12">
+      <c r="A469" s="11">
         <f t="shared" si="14"/>
         <v>55549</v>
       </c>
@@ -8023,7 +8023,7 @@
       <c r="D469" s="10"/>
     </row>
     <row r="470" spans="1:4">
-      <c r="A470" s="12">
+      <c r="A470" s="11">
         <f t="shared" si="14"/>
         <v>55578</v>
       </c>
@@ -8034,7 +8034,7 @@
       <c r="D470" s="10"/>
     </row>
     <row r="471" spans="1:4">
-      <c r="A471" s="12">
+      <c r="A471" s="11">
         <f t="shared" si="14"/>
         <v>55609</v>
       </c>
@@ -8045,7 +8045,7 @@
       <c r="D471" s="10"/>
     </row>
     <row r="472" spans="1:4">
-      <c r="A472" s="12">
+      <c r="A472" s="11">
         <f t="shared" si="14"/>
         <v>55639</v>
       </c>
@@ -8056,7 +8056,7 @@
       <c r="D472" s="10"/>
     </row>
     <row r="473" spans="1:4">
-      <c r="A473" s="12">
+      <c r="A473" s="11">
         <f t="shared" si="14"/>
         <v>55670</v>
       </c>
@@ -8067,7 +8067,7 @@
       <c r="D473" s="10"/>
     </row>
     <row r="474" spans="1:4">
-      <c r="A474" s="12">
+      <c r="A474" s="11">
         <f t="shared" si="14"/>
         <v>55700</v>
       </c>
@@ -8078,7 +8078,7 @@
       <c r="D474" s="10"/>
     </row>
     <row r="475" spans="1:4">
-      <c r="A475" s="12">
+      <c r="A475" s="11">
         <f t="shared" si="14"/>
         <v>55731</v>
       </c>
@@ -8089,7 +8089,7 @@
       <c r="D475" s="10"/>
     </row>
     <row r="476" spans="1:4">
-      <c r="A476" s="12">
+      <c r="A476" s="11">
         <f t="shared" si="14"/>
         <v>55762</v>
       </c>
@@ -8100,7 +8100,7 @@
       <c r="D476" s="10"/>
     </row>
     <row r="477" spans="1:4">
-      <c r="A477" s="12">
+      <c r="A477" s="11">
         <f t="shared" si="14"/>
         <v>55792</v>
       </c>
@@ -8111,7 +8111,7 @@
       <c r="D477" s="10"/>
     </row>
     <row r="478" spans="1:4">
-      <c r="A478" s="12">
+      <c r="A478" s="11">
         <f t="shared" si="14"/>
         <v>55823</v>
       </c>
@@ -8122,7 +8122,7 @@
       <c r="D478" s="10"/>
     </row>
     <row r="479" spans="1:4">
-      <c r="A479" s="12">
+      <c r="A479" s="11">
         <f t="shared" si="14"/>
         <v>55853</v>
       </c>
@@ -8133,7 +8133,7 @@
       <c r="D479" s="10"/>
     </row>
     <row r="480" spans="1:4">
-      <c r="A480" s="12">
+      <c r="A480" s="11">
         <f t="shared" si="14"/>
         <v>55884</v>
       </c>
@@ -8144,7 +8144,7 @@
       <c r="D480" s="10"/>
     </row>
     <row r="481" spans="1:4">
-      <c r="A481" s="12">
+      <c r="A481" s="11">
         <f t="shared" si="14"/>
         <v>55915</v>
       </c>
@@ -8155,7 +8155,7 @@
       <c r="D481" s="10"/>
     </row>
     <row r="482" spans="1:4">
-      <c r="A482" s="12">
+      <c r="A482" s="11">
         <f t="shared" si="14"/>
         <v>55943</v>
       </c>
@@ -8166,7 +8166,7 @@
       <c r="D482" s="10"/>
     </row>
     <row r="483" spans="1:4">
-      <c r="A483" s="12">
+      <c r="A483" s="11">
         <f t="shared" si="14"/>
         <v>55974</v>
       </c>
@@ -8177,7 +8177,7 @@
       <c r="D483" s="10"/>
     </row>
     <row r="484" spans="1:4">
-      <c r="A484" s="12">
+      <c r="A484" s="11">
         <f t="shared" si="14"/>
         <v>56004</v>
       </c>
@@ -8188,7 +8188,7 @@
       <c r="D484" s="10"/>
     </row>
     <row r="485" spans="1:4">
-      <c r="A485" s="12">
+      <c r="A485" s="11">
         <f t="shared" si="14"/>
         <v>56035</v>
       </c>
@@ -8199,7 +8199,7 @@
       <c r="D485" s="10"/>
     </row>
     <row r="486" spans="1:4">
-      <c r="A486" s="12">
+      <c r="A486" s="11">
         <f t="shared" si="14"/>
         <v>56065</v>
       </c>
@@ -8210,7 +8210,7 @@
       <c r="D486" s="10"/>
     </row>
     <row r="487" spans="1:4">
-      <c r="A487" s="12">
+      <c r="A487" s="11">
         <f t="shared" si="14"/>
         <v>56096</v>
       </c>
@@ -8221,7 +8221,7 @@
       <c r="D487" s="10"/>
     </row>
     <row r="488" spans="1:4">
-      <c r="A488" s="12">
+      <c r="A488" s="11">
         <f t="shared" si="14"/>
         <v>56127</v>
       </c>
@@ -8232,7 +8232,7 @@
       <c r="D488" s="10"/>
     </row>
     <row r="489" spans="1:4">
-      <c r="A489" s="12">
+      <c r="A489" s="11">
         <f t="shared" si="14"/>
         <v>56157</v>
       </c>
@@ -8243,7 +8243,7 @@
       <c r="D489" s="10"/>
     </row>
     <row r="490" spans="1:4">
-      <c r="A490" s="12">
+      <c r="A490" s="11">
         <f t="shared" si="14"/>
         <v>56188</v>
       </c>
@@ -8254,7 +8254,7 @@
       <c r="D490" s="10"/>
     </row>
     <row r="491" spans="1:4">
-      <c r="A491" s="12">
+      <c r="A491" s="11">
         <f t="shared" si="14"/>
         <v>56218</v>
       </c>
@@ -8265,7 +8265,7 @@
       <c r="D491" s="10"/>
     </row>
     <row r="492" spans="1:4">
-      <c r="A492" s="12">
+      <c r="A492" s="11">
         <f t="shared" si="14"/>
         <v>56249</v>
       </c>
@@ -8276,7 +8276,7 @@
       <c r="D492" s="10"/>
     </row>
     <row r="493" spans="1:4">
-      <c r="A493" s="12">
+      <c r="A493" s="11">
         <f t="shared" si="14"/>
         <v>56280</v>
       </c>
@@ -8287,12 +8287,12 @@
       <c r="D493" s="10"/>
     </row>
     <row r="494" spans="1:4">
-      <c r="A494" s="12"/>
+      <c r="A494" s="11"/>
       <c r="B494" s="6"/>
       <c r="D494" s="10"/>
     </row>
     <row r="495" spans="1:4">
-      <c r="A495" s="12"/>
+      <c r="A495" s="11"/>
       <c r="B495" s="6"/>
       <c r="D495" s="10"/>
     </row>

--- a/assignment/4.xlsx
+++ b/assignment/4.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>Initial Loan Amount</t>
   </si>
@@ -85,9 +85,6 @@
   <si>
     <t>Interest Accrual Days</t>
   </si>
-  <si>
-    <t xml:space="preserve"> $-  </t>
-  </si>
 </sst>
 </file>
 
@@ -98,7 +95,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -122,6 +119,11 @@
     <font>
       <b/>
       <i/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -165,12 +167,12 @@
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -186,25 +188,29 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="8" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="8" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -329,11 +335,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2030776280"/>
-        <c:axId val="2140293528"/>
+        <c:axId val="2121511464"/>
+        <c:axId val="2121942744"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2030776280"/>
+        <c:axId val="2121511464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -407,7 +413,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2140293528"/>
+        <c:crossAx val="2121942744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -417,7 +423,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2140293528"/>
+        <c:axId val="2121942744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -462,7 +468,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2030776280"/>
+        <c:crossAx val="2121511464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -613,7 +619,7 @@
                 <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
                 <c:ptCount val="360"/>
                 <c:pt idx="0">
-                  <c:v>200000.0</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3.0</c:v>
@@ -652,7 +658,7 @@
                   <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>400000.0</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -694,9 +700,6 @@
               <c:numCache>
                 <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
                 <c:ptCount val="360"/>
-                <c:pt idx="0">
-                  <c:v>1000.0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -737,9 +740,6 @@
               <c:numCache>
                 <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
                 <c:ptCount val="360"/>
-                <c:pt idx="0">
-                  <c:v>199000.0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -755,11 +755,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2030360008"/>
-        <c:axId val="2120871224"/>
+        <c:axId val="2121546024"/>
+        <c:axId val="2122013512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2030360008"/>
+        <c:axId val="2121546024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -833,7 +833,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2120871224"/>
+        <c:crossAx val="2122013512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -843,7 +843,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2120871224"/>
+        <c:axId val="2122013512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -888,7 +888,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2030360008"/>
+        <c:crossAx val="2121546024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1378,7 +1378,7 @@
   <dimension ref="A1:H569"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:G14"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1412,10 +1412,10 @@
       <c r="C4" s="7">
         <v>200000</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="21">
         <f>PMT(C5/12,C6*12,-1)</f>
         <v>5.9955052515275236E-3</v>
       </c>
@@ -1440,7 +1440,7 @@
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="12">
         <v>41654</v>
       </c>
     </row>
@@ -1448,7 +1448,7 @@
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="17">
         <f>EOMONTH(C7,0)-C7</f>
         <v>16</v>
       </c>
@@ -1457,7 +1457,7 @@
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="18">
         <f>(C5/360)*C4*C8</f>
         <v>533.33333333333337</v>
       </c>
@@ -1474,7 +1474,7 @@
       <c r="B11" s="2"/>
     </row>
     <row r="12" spans="1:8" ht="24">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="13" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -1497,25 +1497,29 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="16">
+      <c r="A13" s="14">
+        <f>EOMONTH(C7,0)</f>
         <v>41670</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="15">
         <v>0</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="16">
+        <f>C4</f>
         <v>200000</v>
       </c>
-      <c r="D13" s="18">
-        <v>200000</v>
+      <c r="D13" s="20">
+        <v>0</v>
       </c>
       <c r="E13" s="19">
-        <v>533.33000000000004</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" s="18">
+        <f>C9</f>
+        <v>533.33333333333337</v>
+      </c>
+      <c r="F13" s="20">
+        <v>0</v>
+      </c>
+      <c r="G13" s="16">
+        <f>C13</f>
         <v>200000</v>
       </c>
       <c r="H13" s="2" t="s">
@@ -1523,33 +1527,29 @@
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="11">
+      <c r="A14" s="12">
+        <f>EOMONTH(C7,1)</f>
         <v>41698</v>
       </c>
       <c r="B14" s="6">
         <v>1</v>
       </c>
       <c r="C14" s="5">
+        <f>C4</f>
         <v>200000</v>
       </c>
-      <c r="D14" s="5">
-        <v>200000</v>
-      </c>
-      <c r="E14" s="5">
-        <v>1000</v>
-      </c>
-      <c r="F14" s="5">
-        <v>199000</v>
-      </c>
-      <c r="G14" s="5">
-        <v>1000</v>
-      </c>
+      <c r="D14" s="10">
+        <v>7</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="10"/>
       <c r="H14" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="11">
+      <c r="A15" s="12">
         <f>EOMONTH(A14,1)</f>
         <v>41729</v>
       </c>
@@ -1569,7 +1569,7 @@
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="11">
+      <c r="A16" s="12">
         <f t="shared" ref="A16:A79" si="1">EOMONTH(A15,1)</f>
         <v>41759</v>
       </c>
@@ -1589,7 +1589,7 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="11">
+      <c r="A17" s="12">
         <f t="shared" si="1"/>
         <v>41790</v>
       </c>
@@ -1606,7 +1606,7 @@
       <c r="G17" s="5"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="11">
+      <c r="A18" s="12">
         <f t="shared" si="1"/>
         <v>41820</v>
       </c>
@@ -1623,7 +1623,7 @@
       <c r="G18" s="5"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="11">
+      <c r="A19" s="12">
         <f t="shared" si="1"/>
         <v>41851</v>
       </c>
@@ -1640,7 +1640,7 @@
       <c r="G19" s="5"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="11">
+      <c r="A20" s="12">
         <f t="shared" si="1"/>
         <v>41882</v>
       </c>
@@ -1657,7 +1657,7 @@
       <c r="G20" s="5"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="11">
+      <c r="A21" s="12">
         <f t="shared" si="1"/>
         <v>41912</v>
       </c>
@@ -1674,7 +1674,7 @@
       <c r="G21" s="5"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="11">
+      <c r="A22" s="12">
         <f t="shared" si="1"/>
         <v>41943</v>
       </c>
@@ -1691,7 +1691,7 @@
       <c r="G22" s="5"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="11">
+      <c r="A23" s="12">
         <f t="shared" si="1"/>
         <v>41973</v>
       </c>
@@ -1708,7 +1708,7 @@
       <c r="G23" s="5"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="11">
+      <c r="A24" s="12">
         <f t="shared" si="1"/>
         <v>42004</v>
       </c>
@@ -1725,7 +1725,7 @@
       <c r="G24" s="5"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="11">
+      <c r="A25" s="12">
         <f t="shared" si="1"/>
         <v>42035</v>
       </c>
@@ -1742,7 +1742,7 @@
       <c r="G25" s="5"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="11">
+      <c r="A26" s="12">
         <f t="shared" si="1"/>
         <v>42063</v>
       </c>
@@ -1759,7 +1759,7 @@
       <c r="G26" s="5"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="11">
+      <c r="A27" s="12">
         <f t="shared" si="1"/>
         <v>42094</v>
       </c>
@@ -1770,14 +1770,14 @@
       <c r="C27" s="5"/>
       <c r="D27" s="10">
         <f>D14*2</f>
-        <v>400000</v>
+        <v>14</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="7"/>
       <c r="G27" s="5"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="11">
+      <c r="A28" s="12">
         <f t="shared" si="1"/>
         <v>42124</v>
       </c>
@@ -1792,7 +1792,7 @@
       <c r="G28" s="5"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="11">
+      <c r="A29" s="12">
         <f t="shared" si="1"/>
         <v>42155</v>
       </c>
@@ -1807,7 +1807,7 @@
       <c r="G29" s="5"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="11">
+      <c r="A30" s="12">
         <f t="shared" si="1"/>
         <v>42185</v>
       </c>
@@ -1822,7 +1822,7 @@
       <c r="G30" s="5"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="11">
+      <c r="A31" s="12">
         <f t="shared" si="1"/>
         <v>42216</v>
       </c>
@@ -1837,7 +1837,7 @@
       <c r="G31" s="5"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="11">
+      <c r="A32" s="12">
         <f t="shared" si="1"/>
         <v>42247</v>
       </c>
@@ -1852,7 +1852,7 @@
       <c r="G32" s="5"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="11">
+      <c r="A33" s="12">
         <f t="shared" si="1"/>
         <v>42277</v>
       </c>
@@ -1867,7 +1867,7 @@
       <c r="G33" s="5"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="11">
+      <c r="A34" s="12">
         <f t="shared" si="1"/>
         <v>42308</v>
       </c>
@@ -1882,7 +1882,7 @@
       <c r="G34" s="5"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="11">
+      <c r="A35" s="12">
         <f t="shared" si="1"/>
         <v>42338</v>
       </c>
@@ -1897,7 +1897,7 @@
       <c r="G35" s="5"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="11">
+      <c r="A36" s="12">
         <f t="shared" si="1"/>
         <v>42369</v>
       </c>
@@ -1912,7 +1912,7 @@
       <c r="G36" s="5"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="11">
+      <c r="A37" s="12">
         <f t="shared" si="1"/>
         <v>42400</v>
       </c>
@@ -1927,7 +1927,7 @@
       <c r="G37" s="9"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="11">
+      <c r="A38" s="12">
         <f t="shared" si="1"/>
         <v>42429</v>
       </c>
@@ -1942,7 +1942,7 @@
       <c r="G38" s="5"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="11">
+      <c r="A39" s="12">
         <f t="shared" si="1"/>
         <v>42460</v>
       </c>
@@ -1957,7 +1957,7 @@
       <c r="G39" s="5"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="11">
+      <c r="A40" s="12">
         <f t="shared" si="1"/>
         <v>42490</v>
       </c>
@@ -1972,7 +1972,7 @@
       <c r="G40" s="5"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="11">
+      <c r="A41" s="12">
         <f t="shared" si="1"/>
         <v>42521</v>
       </c>
@@ -1987,7 +1987,7 @@
       <c r="G41" s="5"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="11">
+      <c r="A42" s="12">
         <f t="shared" si="1"/>
         <v>42551</v>
       </c>
@@ -2002,7 +2002,7 @@
       <c r="G42" s="5"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="11">
+      <c r="A43" s="12">
         <f t="shared" si="1"/>
         <v>42582</v>
       </c>
@@ -2017,7 +2017,7 @@
       <c r="G43" s="5"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="11">
+      <c r="A44" s="12">
         <f t="shared" si="1"/>
         <v>42613</v>
       </c>
@@ -2032,7 +2032,7 @@
       <c r="G44" s="5"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="11">
+      <c r="A45" s="12">
         <f t="shared" si="1"/>
         <v>42643</v>
       </c>
@@ -2047,7 +2047,7 @@
       <c r="G45" s="5"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="11">
+      <c r="A46" s="12">
         <f t="shared" si="1"/>
         <v>42674</v>
       </c>
@@ -2062,7 +2062,7 @@
       <c r="G46" s="5"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="11">
+      <c r="A47" s="12">
         <f t="shared" si="1"/>
         <v>42704</v>
       </c>
@@ -2077,7 +2077,7 @@
       <c r="G47" s="5"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="11">
+      <c r="A48" s="12">
         <f t="shared" si="1"/>
         <v>42735</v>
       </c>
@@ -2092,7 +2092,7 @@
       <c r="G48" s="5"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="11">
+      <c r="A49" s="12">
         <f t="shared" si="1"/>
         <v>42766</v>
       </c>
@@ -2107,7 +2107,7 @@
       <c r="G49" s="5"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="11">
+      <c r="A50" s="12">
         <f t="shared" si="1"/>
         <v>42794</v>
       </c>
@@ -2122,7 +2122,7 @@
       <c r="G50" s="5"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="11">
+      <c r="A51" s="12">
         <f t="shared" si="1"/>
         <v>42825</v>
       </c>
@@ -2137,7 +2137,7 @@
       <c r="G51" s="5"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="11">
+      <c r="A52" s="12">
         <f t="shared" si="1"/>
         <v>42855</v>
       </c>
@@ -2152,7 +2152,7 @@
       <c r="G52" s="5"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="11">
+      <c r="A53" s="12">
         <f t="shared" si="1"/>
         <v>42886</v>
       </c>
@@ -2167,7 +2167,7 @@
       <c r="G53" s="5"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="11">
+      <c r="A54" s="12">
         <f t="shared" si="1"/>
         <v>42916</v>
       </c>
@@ -2182,7 +2182,7 @@
       <c r="G54" s="5"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="11">
+      <c r="A55" s="12">
         <f t="shared" si="1"/>
         <v>42947</v>
       </c>
@@ -2197,7 +2197,7 @@
       <c r="G55" s="5"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="11">
+      <c r="A56" s="12">
         <f t="shared" si="1"/>
         <v>42978</v>
       </c>
@@ -2212,7 +2212,7 @@
       <c r="G56" s="5"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="11">
+      <c r="A57" s="12">
         <f t="shared" si="1"/>
         <v>43008</v>
       </c>
@@ -2227,7 +2227,7 @@
       <c r="G57" s="5"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="11">
+      <c r="A58" s="12">
         <f t="shared" si="1"/>
         <v>43039</v>
       </c>
@@ -2242,7 +2242,7 @@
       <c r="G58" s="5"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="11">
+      <c r="A59" s="12">
         <f t="shared" si="1"/>
         <v>43069</v>
       </c>
@@ -2257,7 +2257,7 @@
       <c r="G59" s="5"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="11">
+      <c r="A60" s="12">
         <f t="shared" si="1"/>
         <v>43100</v>
       </c>
@@ -2272,7 +2272,7 @@
       <c r="G60" s="5"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="11">
+      <c r="A61" s="12">
         <f t="shared" si="1"/>
         <v>43131</v>
       </c>
@@ -2287,7 +2287,7 @@
       <c r="G61" s="5"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="11">
+      <c r="A62" s="12">
         <f t="shared" si="1"/>
         <v>43159</v>
       </c>
@@ -2302,7 +2302,7 @@
       <c r="G62" s="5"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="11">
+      <c r="A63" s="12">
         <f t="shared" si="1"/>
         <v>43190</v>
       </c>
@@ -2317,7 +2317,7 @@
       <c r="G63" s="5"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="11">
+      <c r="A64" s="12">
         <f t="shared" si="1"/>
         <v>43220</v>
       </c>
@@ -2332,7 +2332,7 @@
       <c r="G64" s="5"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="11">
+      <c r="A65" s="12">
         <f t="shared" si="1"/>
         <v>43251</v>
       </c>
@@ -2347,7 +2347,7 @@
       <c r="G65" s="5"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="11">
+      <c r="A66" s="12">
         <f t="shared" si="1"/>
         <v>43281</v>
       </c>
@@ -2362,7 +2362,7 @@
       <c r="G66" s="5"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="11">
+      <c r="A67" s="12">
         <f t="shared" si="1"/>
         <v>43312</v>
       </c>
@@ -2377,7 +2377,7 @@
       <c r="G67" s="5"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="11">
+      <c r="A68" s="12">
         <f t="shared" si="1"/>
         <v>43343</v>
       </c>
@@ -2392,7 +2392,7 @@
       <c r="G68" s="5"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="11">
+      <c r="A69" s="12">
         <f t="shared" si="1"/>
         <v>43373</v>
       </c>
@@ -2407,7 +2407,7 @@
       <c r="G69" s="5"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="11">
+      <c r="A70" s="12">
         <f t="shared" si="1"/>
         <v>43404</v>
       </c>
@@ -2422,7 +2422,7 @@
       <c r="G70" s="5"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="11">
+      <c r="A71" s="12">
         <f t="shared" si="1"/>
         <v>43434</v>
       </c>
@@ -2437,7 +2437,7 @@
       <c r="G71" s="5"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="11">
+      <c r="A72" s="12">
         <f t="shared" si="1"/>
         <v>43465</v>
       </c>
@@ -2452,7 +2452,7 @@
       <c r="G72" s="5"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="11">
+      <c r="A73" s="12">
         <f t="shared" si="1"/>
         <v>43496</v>
       </c>
@@ -2467,7 +2467,7 @@
       <c r="G73" s="5"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="11">
+      <c r="A74" s="12">
         <f t="shared" si="1"/>
         <v>43524</v>
       </c>
@@ -2482,7 +2482,7 @@
       <c r="G74" s="5"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="11">
+      <c r="A75" s="12">
         <f t="shared" si="1"/>
         <v>43555</v>
       </c>
@@ -2497,7 +2497,7 @@
       <c r="G75" s="5"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="11">
+      <c r="A76" s="12">
         <f t="shared" si="1"/>
         <v>43585</v>
       </c>
@@ -2512,7 +2512,7 @@
       <c r="G76" s="5"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="11">
+      <c r="A77" s="12">
         <f t="shared" si="1"/>
         <v>43616</v>
       </c>
@@ -2527,7 +2527,7 @@
       <c r="G77" s="5"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="11">
+      <c r="A78" s="12">
         <f t="shared" si="1"/>
         <v>43646</v>
       </c>
@@ -2542,7 +2542,7 @@
       <c r="G78" s="5"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="11">
+      <c r="A79" s="12">
         <f t="shared" si="1"/>
         <v>43677</v>
       </c>
@@ -2557,7 +2557,7 @@
       <c r="G79" s="5"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="11">
+      <c r="A80" s="12">
         <f t="shared" ref="A80:A143" si="3">EOMONTH(A79,1)</f>
         <v>43708</v>
       </c>
@@ -2572,7 +2572,7 @@
       <c r="G80" s="5"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="11">
+      <c r="A81" s="12">
         <f t="shared" si="3"/>
         <v>43738</v>
       </c>
@@ -2587,7 +2587,7 @@
       <c r="G81" s="5"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="11">
+      <c r="A82" s="12">
         <f t="shared" si="3"/>
         <v>43769</v>
       </c>
@@ -2602,7 +2602,7 @@
       <c r="G82" s="5"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="11">
+      <c r="A83" s="12">
         <f t="shared" si="3"/>
         <v>43799</v>
       </c>
@@ -2617,7 +2617,7 @@
       <c r="G83" s="5"/>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="11">
+      <c r="A84" s="12">
         <f t="shared" si="3"/>
         <v>43830</v>
       </c>
@@ -2632,7 +2632,7 @@
       <c r="G84" s="5"/>
     </row>
     <row r="85" spans="1:7">
-      <c r="A85" s="11">
+      <c r="A85" s="12">
         <f t="shared" si="3"/>
         <v>43861</v>
       </c>
@@ -2647,7 +2647,7 @@
       <c r="G85" s="5"/>
     </row>
     <row r="86" spans="1:7">
-      <c r="A86" s="11">
+      <c r="A86" s="12">
         <f t="shared" si="3"/>
         <v>43890</v>
       </c>
@@ -2662,7 +2662,7 @@
       <c r="G86" s="5"/>
     </row>
     <row r="87" spans="1:7">
-      <c r="A87" s="11">
+      <c r="A87" s="12">
         <f t="shared" si="3"/>
         <v>43921</v>
       </c>
@@ -2677,7 +2677,7 @@
       <c r="G87" s="5"/>
     </row>
     <row r="88" spans="1:7">
-      <c r="A88" s="11">
+      <c r="A88" s="12">
         <f t="shared" si="3"/>
         <v>43951</v>
       </c>
@@ -2692,7 +2692,7 @@
       <c r="G88" s="5"/>
     </row>
     <row r="89" spans="1:7">
-      <c r="A89" s="11">
+      <c r="A89" s="12">
         <f t="shared" si="3"/>
         <v>43982</v>
       </c>
@@ -2707,7 +2707,7 @@
       <c r="G89" s="5"/>
     </row>
     <row r="90" spans="1:7">
-      <c r="A90" s="11">
+      <c r="A90" s="12">
         <f t="shared" si="3"/>
         <v>44012</v>
       </c>
@@ -2722,7 +2722,7 @@
       <c r="G90" s="5"/>
     </row>
     <row r="91" spans="1:7">
-      <c r="A91" s="11">
+      <c r="A91" s="12">
         <f t="shared" si="3"/>
         <v>44043</v>
       </c>
@@ -2737,7 +2737,7 @@
       <c r="G91" s="5"/>
     </row>
     <row r="92" spans="1:7">
-      <c r="A92" s="11">
+      <c r="A92" s="12">
         <f t="shared" si="3"/>
         <v>44074</v>
       </c>
@@ -2752,7 +2752,7 @@
       <c r="G92" s="5"/>
     </row>
     <row r="93" spans="1:7">
-      <c r="A93" s="11">
+      <c r="A93" s="12">
         <f t="shared" si="3"/>
         <v>44104</v>
       </c>
@@ -2767,7 +2767,7 @@
       <c r="G93" s="5"/>
     </row>
     <row r="94" spans="1:7">
-      <c r="A94" s="11">
+      <c r="A94" s="12">
         <f t="shared" si="3"/>
         <v>44135</v>
       </c>
@@ -2782,7 +2782,7 @@
       <c r="G94" s="5"/>
     </row>
     <row r="95" spans="1:7">
-      <c r="A95" s="11">
+      <c r="A95" s="12">
         <f t="shared" si="3"/>
         <v>44165</v>
       </c>
@@ -2797,7 +2797,7 @@
       <c r="G95" s="5"/>
     </row>
     <row r="96" spans="1:7">
-      <c r="A96" s="11">
+      <c r="A96" s="12">
         <f t="shared" si="3"/>
         <v>44196</v>
       </c>
@@ -2812,7 +2812,7 @@
       <c r="G96" s="5"/>
     </row>
     <row r="97" spans="1:7">
-      <c r="A97" s="11">
+      <c r="A97" s="12">
         <f t="shared" si="3"/>
         <v>44227</v>
       </c>
@@ -2827,7 +2827,7 @@
       <c r="G97" s="5"/>
     </row>
     <row r="98" spans="1:7">
-      <c r="A98" s="11">
+      <c r="A98" s="12">
         <f t="shared" si="3"/>
         <v>44255</v>
       </c>
@@ -2842,7 +2842,7 @@
       <c r="G98" s="5"/>
     </row>
     <row r="99" spans="1:7">
-      <c r="A99" s="11">
+      <c r="A99" s="12">
         <f t="shared" si="3"/>
         <v>44286</v>
       </c>
@@ -2857,7 +2857,7 @@
       <c r="G99" s="5"/>
     </row>
     <row r="100" spans="1:7">
-      <c r="A100" s="11">
+      <c r="A100" s="12">
         <f t="shared" si="3"/>
         <v>44316</v>
       </c>
@@ -2872,7 +2872,7 @@
       <c r="G100" s="5"/>
     </row>
     <row r="101" spans="1:7">
-      <c r="A101" s="11">
+      <c r="A101" s="12">
         <f t="shared" si="3"/>
         <v>44347</v>
       </c>
@@ -2887,7 +2887,7 @@
       <c r="G101" s="5"/>
     </row>
     <row r="102" spans="1:7">
-      <c r="A102" s="11">
+      <c r="A102" s="12">
         <f t="shared" si="3"/>
         <v>44377</v>
       </c>
@@ -2902,7 +2902,7 @@
       <c r="G102" s="5"/>
     </row>
     <row r="103" spans="1:7">
-      <c r="A103" s="11">
+      <c r="A103" s="12">
         <f t="shared" si="3"/>
         <v>44408</v>
       </c>
@@ -2917,7 +2917,7 @@
       <c r="G103" s="5"/>
     </row>
     <row r="104" spans="1:7">
-      <c r="A104" s="11">
+      <c r="A104" s="12">
         <f t="shared" si="3"/>
         <v>44439</v>
       </c>
@@ -2932,7 +2932,7 @@
       <c r="G104" s="5"/>
     </row>
     <row r="105" spans="1:7">
-      <c r="A105" s="11">
+      <c r="A105" s="12">
         <f t="shared" si="3"/>
         <v>44469</v>
       </c>
@@ -2947,7 +2947,7 @@
       <c r="G105" s="5"/>
     </row>
     <row r="106" spans="1:7">
-      <c r="A106" s="11">
+      <c r="A106" s="12">
         <f t="shared" si="3"/>
         <v>44500</v>
       </c>
@@ -2962,7 +2962,7 @@
       <c r="G106" s="5"/>
     </row>
     <row r="107" spans="1:7">
-      <c r="A107" s="11">
+      <c r="A107" s="12">
         <f t="shared" si="3"/>
         <v>44530</v>
       </c>
@@ -2977,7 +2977,7 @@
       <c r="G107" s="5"/>
     </row>
     <row r="108" spans="1:7">
-      <c r="A108" s="11">
+      <c r="A108" s="12">
         <f t="shared" si="3"/>
         <v>44561</v>
       </c>
@@ -2992,7 +2992,7 @@
       <c r="G108" s="5"/>
     </row>
     <row r="109" spans="1:7">
-      <c r="A109" s="11">
+      <c r="A109" s="12">
         <f t="shared" si="3"/>
         <v>44592</v>
       </c>
@@ -3007,7 +3007,7 @@
       <c r="G109" s="5"/>
     </row>
     <row r="110" spans="1:7">
-      <c r="A110" s="11">
+      <c r="A110" s="12">
         <f t="shared" si="3"/>
         <v>44620</v>
       </c>
@@ -3022,7 +3022,7 @@
       <c r="G110" s="5"/>
     </row>
     <row r="111" spans="1:7">
-      <c r="A111" s="11">
+      <c r="A111" s="12">
         <f t="shared" si="3"/>
         <v>44651</v>
       </c>
@@ -3037,7 +3037,7 @@
       <c r="G111" s="5"/>
     </row>
     <row r="112" spans="1:7">
-      <c r="A112" s="11">
+      <c r="A112" s="12">
         <f t="shared" si="3"/>
         <v>44681</v>
       </c>
@@ -3052,7 +3052,7 @@
       <c r="G112" s="5"/>
     </row>
     <row r="113" spans="1:7">
-      <c r="A113" s="11">
+      <c r="A113" s="12">
         <f t="shared" si="3"/>
         <v>44712</v>
       </c>
@@ -3067,7 +3067,7 @@
       <c r="G113" s="5"/>
     </row>
     <row r="114" spans="1:7">
-      <c r="A114" s="11">
+      <c r="A114" s="12">
         <f t="shared" si="3"/>
         <v>44742</v>
       </c>
@@ -3082,7 +3082,7 @@
       <c r="G114" s="5"/>
     </row>
     <row r="115" spans="1:7">
-      <c r="A115" s="11">
+      <c r="A115" s="12">
         <f t="shared" si="3"/>
         <v>44773</v>
       </c>
@@ -3097,7 +3097,7 @@
       <c r="G115" s="5"/>
     </row>
     <row r="116" spans="1:7">
-      <c r="A116" s="11">
+      <c r="A116" s="12">
         <f t="shared" si="3"/>
         <v>44804</v>
       </c>
@@ -3112,7 +3112,7 @@
       <c r="G116" s="5"/>
     </row>
     <row r="117" spans="1:7">
-      <c r="A117" s="11">
+      <c r="A117" s="12">
         <f t="shared" si="3"/>
         <v>44834</v>
       </c>
@@ -3127,7 +3127,7 @@
       <c r="G117" s="5"/>
     </row>
     <row r="118" spans="1:7">
-      <c r="A118" s="11">
+      <c r="A118" s="12">
         <f t="shared" si="3"/>
         <v>44865</v>
       </c>
@@ -3142,7 +3142,7 @@
       <c r="G118" s="5"/>
     </row>
     <row r="119" spans="1:7">
-      <c r="A119" s="11">
+      <c r="A119" s="12">
         <f t="shared" si="3"/>
         <v>44895</v>
       </c>
@@ -3157,7 +3157,7 @@
       <c r="G119" s="5"/>
     </row>
     <row r="120" spans="1:7">
-      <c r="A120" s="11">
+      <c r="A120" s="12">
         <f t="shared" si="3"/>
         <v>44926</v>
       </c>
@@ -3172,7 +3172,7 @@
       <c r="G120" s="5"/>
     </row>
     <row r="121" spans="1:7">
-      <c r="A121" s="11">
+      <c r="A121" s="12">
         <f t="shared" si="3"/>
         <v>44957</v>
       </c>
@@ -3187,7 +3187,7 @@
       <c r="G121" s="5"/>
     </row>
     <row r="122" spans="1:7">
-      <c r="A122" s="11">
+      <c r="A122" s="12">
         <f t="shared" si="3"/>
         <v>44985</v>
       </c>
@@ -3202,7 +3202,7 @@
       <c r="G122" s="5"/>
     </row>
     <row r="123" spans="1:7">
-      <c r="A123" s="11">
+      <c r="A123" s="12">
         <f t="shared" si="3"/>
         <v>45016</v>
       </c>
@@ -3217,7 +3217,7 @@
       <c r="G123" s="5"/>
     </row>
     <row r="124" spans="1:7">
-      <c r="A124" s="11">
+      <c r="A124" s="12">
         <f t="shared" si="3"/>
         <v>45046</v>
       </c>
@@ -3232,7 +3232,7 @@
       <c r="G124" s="5"/>
     </row>
     <row r="125" spans="1:7">
-      <c r="A125" s="11">
+      <c r="A125" s="12">
         <f t="shared" si="3"/>
         <v>45077</v>
       </c>
@@ -3247,7 +3247,7 @@
       <c r="G125" s="5"/>
     </row>
     <row r="126" spans="1:7">
-      <c r="A126" s="11">
+      <c r="A126" s="12">
         <f t="shared" si="3"/>
         <v>45107</v>
       </c>
@@ -3262,7 +3262,7 @@
       <c r="G126" s="5"/>
     </row>
     <row r="127" spans="1:7">
-      <c r="A127" s="11">
+      <c r="A127" s="12">
         <f t="shared" si="3"/>
         <v>45138</v>
       </c>
@@ -3277,7 +3277,7 @@
       <c r="G127" s="5"/>
     </row>
     <row r="128" spans="1:7">
-      <c r="A128" s="11">
+      <c r="A128" s="12">
         <f t="shared" si="3"/>
         <v>45169</v>
       </c>
@@ -3292,7 +3292,7 @@
       <c r="G128" s="5"/>
     </row>
     <row r="129" spans="1:7">
-      <c r="A129" s="11">
+      <c r="A129" s="12">
         <f t="shared" si="3"/>
         <v>45199</v>
       </c>
@@ -3307,7 +3307,7 @@
       <c r="G129" s="5"/>
     </row>
     <row r="130" spans="1:7">
-      <c r="A130" s="11">
+      <c r="A130" s="12">
         <f t="shared" si="3"/>
         <v>45230</v>
       </c>
@@ -3322,7 +3322,7 @@
       <c r="G130" s="5"/>
     </row>
     <row r="131" spans="1:7">
-      <c r="A131" s="11">
+      <c r="A131" s="12">
         <f t="shared" si="3"/>
         <v>45260</v>
       </c>
@@ -3337,7 +3337,7 @@
       <c r="G131" s="5"/>
     </row>
     <row r="132" spans="1:7">
-      <c r="A132" s="11">
+      <c r="A132" s="12">
         <f t="shared" si="3"/>
         <v>45291</v>
       </c>
@@ -3352,7 +3352,7 @@
       <c r="G132" s="5"/>
     </row>
     <row r="133" spans="1:7">
-      <c r="A133" s="11">
+      <c r="A133" s="12">
         <f t="shared" si="3"/>
         <v>45322</v>
       </c>
@@ -3367,7 +3367,7 @@
       <c r="G133" s="5"/>
     </row>
     <row r="134" spans="1:7">
-      <c r="A134" s="11">
+      <c r="A134" s="12">
         <f t="shared" si="3"/>
         <v>45351</v>
       </c>
@@ -3382,7 +3382,7 @@
       <c r="G134" s="5"/>
     </row>
     <row r="135" spans="1:7">
-      <c r="A135" s="11">
+      <c r="A135" s="12">
         <f t="shared" si="3"/>
         <v>45382</v>
       </c>
@@ -3397,7 +3397,7 @@
       <c r="G135" s="5"/>
     </row>
     <row r="136" spans="1:7">
-      <c r="A136" s="11">
+      <c r="A136" s="12">
         <f t="shared" si="3"/>
         <v>45412</v>
       </c>
@@ -3412,7 +3412,7 @@
       <c r="G136" s="5"/>
     </row>
     <row r="137" spans="1:7">
-      <c r="A137" s="11">
+      <c r="A137" s="12">
         <f t="shared" si="3"/>
         <v>45443</v>
       </c>
@@ -3427,7 +3427,7 @@
       <c r="G137" s="5"/>
     </row>
     <row r="138" spans="1:7">
-      <c r="A138" s="11">
+      <c r="A138" s="12">
         <f t="shared" si="3"/>
         <v>45473</v>
       </c>
@@ -3442,7 +3442,7 @@
       <c r="G138" s="5"/>
     </row>
     <row r="139" spans="1:7">
-      <c r="A139" s="11">
+      <c r="A139" s="12">
         <f t="shared" si="3"/>
         <v>45504</v>
       </c>
@@ -3457,7 +3457,7 @@
       <c r="G139" s="5"/>
     </row>
     <row r="140" spans="1:7">
-      <c r="A140" s="11">
+      <c r="A140" s="12">
         <f t="shared" si="3"/>
         <v>45535</v>
       </c>
@@ -3472,7 +3472,7 @@
       <c r="G140" s="5"/>
     </row>
     <row r="141" spans="1:7">
-      <c r="A141" s="11">
+      <c r="A141" s="12">
         <f t="shared" si="3"/>
         <v>45565</v>
       </c>
@@ -3487,7 +3487,7 @@
       <c r="G141" s="5"/>
     </row>
     <row r="142" spans="1:7">
-      <c r="A142" s="11">
+      <c r="A142" s="12">
         <f t="shared" si="3"/>
         <v>45596</v>
       </c>
@@ -3502,7 +3502,7 @@
       <c r="G142" s="5"/>
     </row>
     <row r="143" spans="1:7">
-      <c r="A143" s="11">
+      <c r="A143" s="12">
         <f t="shared" si="3"/>
         <v>45626</v>
       </c>
@@ -3517,7 +3517,7 @@
       <c r="G143" s="5"/>
     </row>
     <row r="144" spans="1:7">
-      <c r="A144" s="11">
+      <c r="A144" s="12">
         <f t="shared" ref="A144:A207" si="5">EOMONTH(A143,1)</f>
         <v>45657</v>
       </c>
@@ -3532,7 +3532,7 @@
       <c r="G144" s="5"/>
     </row>
     <row r="145" spans="1:7">
-      <c r="A145" s="11">
+      <c r="A145" s="12">
         <f t="shared" si="5"/>
         <v>45688</v>
       </c>
@@ -3547,7 +3547,7 @@
       <c r="G145" s="5"/>
     </row>
     <row r="146" spans="1:7">
-      <c r="A146" s="11">
+      <c r="A146" s="12">
         <f t="shared" si="5"/>
         <v>45716</v>
       </c>
@@ -3562,7 +3562,7 @@
       <c r="G146" s="5"/>
     </row>
     <row r="147" spans="1:7">
-      <c r="A147" s="11">
+      <c r="A147" s="12">
         <f t="shared" si="5"/>
         <v>45747</v>
       </c>
@@ -3577,7 +3577,7 @@
       <c r="G147" s="5"/>
     </row>
     <row r="148" spans="1:7">
-      <c r="A148" s="11">
+      <c r="A148" s="12">
         <f t="shared" si="5"/>
         <v>45777</v>
       </c>
@@ -3592,7 +3592,7 @@
       <c r="G148" s="5"/>
     </row>
     <row r="149" spans="1:7">
-      <c r="A149" s="11">
+      <c r="A149" s="12">
         <f t="shared" si="5"/>
         <v>45808</v>
       </c>
@@ -3607,7 +3607,7 @@
       <c r="G149" s="5"/>
     </row>
     <row r="150" spans="1:7">
-      <c r="A150" s="11">
+      <c r="A150" s="12">
         <f t="shared" si="5"/>
         <v>45838</v>
       </c>
@@ -3622,7 +3622,7 @@
       <c r="G150" s="5"/>
     </row>
     <row r="151" spans="1:7">
-      <c r="A151" s="11">
+      <c r="A151" s="12">
         <f t="shared" si="5"/>
         <v>45869</v>
       </c>
@@ -3637,7 +3637,7 @@
       <c r="G151" s="5"/>
     </row>
     <row r="152" spans="1:7">
-      <c r="A152" s="11">
+      <c r="A152" s="12">
         <f t="shared" si="5"/>
         <v>45900</v>
       </c>
@@ -3652,7 +3652,7 @@
       <c r="G152" s="5"/>
     </row>
     <row r="153" spans="1:7">
-      <c r="A153" s="11">
+      <c r="A153" s="12">
         <f t="shared" si="5"/>
         <v>45930</v>
       </c>
@@ -3667,7 +3667,7 @@
       <c r="G153" s="5"/>
     </row>
     <row r="154" spans="1:7">
-      <c r="A154" s="11">
+      <c r="A154" s="12">
         <f t="shared" si="5"/>
         <v>45961</v>
       </c>
@@ -3682,7 +3682,7 @@
       <c r="G154" s="5"/>
     </row>
     <row r="155" spans="1:7">
-      <c r="A155" s="11">
+      <c r="A155" s="12">
         <f t="shared" si="5"/>
         <v>45991</v>
       </c>
@@ -3697,7 +3697,7 @@
       <c r="G155" s="5"/>
     </row>
     <row r="156" spans="1:7">
-      <c r="A156" s="11">
+      <c r="A156" s="12">
         <f t="shared" si="5"/>
         <v>46022</v>
       </c>
@@ -3712,7 +3712,7 @@
       <c r="G156" s="5"/>
     </row>
     <row r="157" spans="1:7">
-      <c r="A157" s="11">
+      <c r="A157" s="12">
         <f t="shared" si="5"/>
         <v>46053</v>
       </c>
@@ -3727,7 +3727,7 @@
       <c r="G157" s="5"/>
     </row>
     <row r="158" spans="1:7">
-      <c r="A158" s="11">
+      <c r="A158" s="12">
         <f t="shared" si="5"/>
         <v>46081</v>
       </c>
@@ -3742,7 +3742,7 @@
       <c r="G158" s="5"/>
     </row>
     <row r="159" spans="1:7">
-      <c r="A159" s="11">
+      <c r="A159" s="12">
         <f t="shared" si="5"/>
         <v>46112</v>
       </c>
@@ -3757,7 +3757,7 @@
       <c r="G159" s="5"/>
     </row>
     <row r="160" spans="1:7">
-      <c r="A160" s="11">
+      <c r="A160" s="12">
         <f t="shared" si="5"/>
         <v>46142</v>
       </c>
@@ -3772,7 +3772,7 @@
       <c r="G160" s="5"/>
     </row>
     <row r="161" spans="1:7">
-      <c r="A161" s="11">
+      <c r="A161" s="12">
         <f t="shared" si="5"/>
         <v>46173</v>
       </c>
@@ -3787,7 +3787,7 @@
       <c r="G161" s="5"/>
     </row>
     <row r="162" spans="1:7">
-      <c r="A162" s="11">
+      <c r="A162" s="12">
         <f t="shared" si="5"/>
         <v>46203</v>
       </c>
@@ -3802,7 +3802,7 @@
       <c r="G162" s="5"/>
     </row>
     <row r="163" spans="1:7">
-      <c r="A163" s="11">
+      <c r="A163" s="12">
         <f t="shared" si="5"/>
         <v>46234</v>
       </c>
@@ -3817,7 +3817,7 @@
       <c r="G163" s="5"/>
     </row>
     <row r="164" spans="1:7">
-      <c r="A164" s="11">
+      <c r="A164" s="12">
         <f t="shared" si="5"/>
         <v>46265</v>
       </c>
@@ -3832,7 +3832,7 @@
       <c r="G164" s="5"/>
     </row>
     <row r="165" spans="1:7">
-      <c r="A165" s="11">
+      <c r="A165" s="12">
         <f t="shared" si="5"/>
         <v>46295</v>
       </c>
@@ -3847,7 +3847,7 @@
       <c r="G165" s="5"/>
     </row>
     <row r="166" spans="1:7">
-      <c r="A166" s="11">
+      <c r="A166" s="12">
         <f t="shared" si="5"/>
         <v>46326</v>
       </c>
@@ -3862,7 +3862,7 @@
       <c r="G166" s="5"/>
     </row>
     <row r="167" spans="1:7">
-      <c r="A167" s="11">
+      <c r="A167" s="12">
         <f t="shared" si="5"/>
         <v>46356</v>
       </c>
@@ -3877,7 +3877,7 @@
       <c r="G167" s="5"/>
     </row>
     <row r="168" spans="1:7">
-      <c r="A168" s="11">
+      <c r="A168" s="12">
         <f t="shared" si="5"/>
         <v>46387</v>
       </c>
@@ -3892,7 +3892,7 @@
       <c r="G168" s="5"/>
     </row>
     <row r="169" spans="1:7">
-      <c r="A169" s="11">
+      <c r="A169" s="12">
         <f t="shared" si="5"/>
         <v>46418</v>
       </c>
@@ -3907,7 +3907,7 @@
       <c r="G169" s="5"/>
     </row>
     <row r="170" spans="1:7">
-      <c r="A170" s="11">
+      <c r="A170" s="12">
         <f t="shared" si="5"/>
         <v>46446</v>
       </c>
@@ -3922,7 +3922,7 @@
       <c r="G170" s="5"/>
     </row>
     <row r="171" spans="1:7">
-      <c r="A171" s="11">
+      <c r="A171" s="12">
         <f t="shared" si="5"/>
         <v>46477</v>
       </c>
@@ -3937,7 +3937,7 @@
       <c r="G171" s="5"/>
     </row>
     <row r="172" spans="1:7">
-      <c r="A172" s="11">
+      <c r="A172" s="12">
         <f t="shared" si="5"/>
         <v>46507</v>
       </c>
@@ -3952,7 +3952,7 @@
       <c r="G172" s="5"/>
     </row>
     <row r="173" spans="1:7">
-      <c r="A173" s="11">
+      <c r="A173" s="12">
         <f t="shared" si="5"/>
         <v>46538</v>
       </c>
@@ -3967,7 +3967,7 @@
       <c r="G173" s="5"/>
     </row>
     <row r="174" spans="1:7">
-      <c r="A174" s="11">
+      <c r="A174" s="12">
         <f t="shared" si="5"/>
         <v>46568</v>
       </c>
@@ -3982,7 +3982,7 @@
       <c r="G174" s="5"/>
     </row>
     <row r="175" spans="1:7">
-      <c r="A175" s="11">
+      <c r="A175" s="12">
         <f t="shared" si="5"/>
         <v>46599</v>
       </c>
@@ -3997,7 +3997,7 @@
       <c r="G175" s="5"/>
     </row>
     <row r="176" spans="1:7">
-      <c r="A176" s="11">
+      <c r="A176" s="12">
         <f t="shared" si="5"/>
         <v>46630</v>
       </c>
@@ -4012,7 +4012,7 @@
       <c r="G176" s="5"/>
     </row>
     <row r="177" spans="1:7">
-      <c r="A177" s="11">
+      <c r="A177" s="12">
         <f t="shared" si="5"/>
         <v>46660</v>
       </c>
@@ -4027,7 +4027,7 @@
       <c r="G177" s="5"/>
     </row>
     <row r="178" spans="1:7">
-      <c r="A178" s="11">
+      <c r="A178" s="12">
         <f t="shared" si="5"/>
         <v>46691</v>
       </c>
@@ -4042,7 +4042,7 @@
       <c r="G178" s="5"/>
     </row>
     <row r="179" spans="1:7">
-      <c r="A179" s="11">
+      <c r="A179" s="12">
         <f t="shared" si="5"/>
         <v>46721</v>
       </c>
@@ -4057,7 +4057,7 @@
       <c r="G179" s="5"/>
     </row>
     <row r="180" spans="1:7">
-      <c r="A180" s="11">
+      <c r="A180" s="12">
         <f t="shared" si="5"/>
         <v>46752</v>
       </c>
@@ -4072,7 +4072,7 @@
       <c r="G180" s="5"/>
     </row>
     <row r="181" spans="1:7">
-      <c r="A181" s="11">
+      <c r="A181" s="12">
         <f t="shared" si="5"/>
         <v>46783</v>
       </c>
@@ -4087,7 +4087,7 @@
       <c r="G181" s="5"/>
     </row>
     <row r="182" spans="1:7">
-      <c r="A182" s="11">
+      <c r="A182" s="12">
         <f t="shared" si="5"/>
         <v>46812</v>
       </c>
@@ -4102,7 +4102,7 @@
       <c r="G182" s="5"/>
     </row>
     <row r="183" spans="1:7">
-      <c r="A183" s="11">
+      <c r="A183" s="12">
         <f t="shared" si="5"/>
         <v>46843</v>
       </c>
@@ -4117,7 +4117,7 @@
       <c r="G183" s="5"/>
     </row>
     <row r="184" spans="1:7">
-      <c r="A184" s="11">
+      <c r="A184" s="12">
         <f t="shared" si="5"/>
         <v>46873</v>
       </c>
@@ -4132,7 +4132,7 @@
       <c r="G184" s="5"/>
     </row>
     <row r="185" spans="1:7">
-      <c r="A185" s="11">
+      <c r="A185" s="12">
         <f t="shared" si="5"/>
         <v>46904</v>
       </c>
@@ -4147,7 +4147,7 @@
       <c r="G185" s="5"/>
     </row>
     <row r="186" spans="1:7">
-      <c r="A186" s="11">
+      <c r="A186" s="12">
         <f t="shared" si="5"/>
         <v>46934</v>
       </c>
@@ -4162,7 +4162,7 @@
       <c r="G186" s="5"/>
     </row>
     <row r="187" spans="1:7">
-      <c r="A187" s="11">
+      <c r="A187" s="12">
         <f t="shared" si="5"/>
         <v>46965</v>
       </c>
@@ -4177,7 +4177,7 @@
       <c r="G187" s="5"/>
     </row>
     <row r="188" spans="1:7">
-      <c r="A188" s="11">
+      <c r="A188" s="12">
         <f t="shared" si="5"/>
         <v>46996</v>
       </c>
@@ -4192,7 +4192,7 @@
       <c r="G188" s="5"/>
     </row>
     <row r="189" spans="1:7">
-      <c r="A189" s="11">
+      <c r="A189" s="12">
         <f t="shared" si="5"/>
         <v>47026</v>
       </c>
@@ -4207,7 +4207,7 @@
       <c r="G189" s="5"/>
     </row>
     <row r="190" spans="1:7">
-      <c r="A190" s="11">
+      <c r="A190" s="12">
         <f t="shared" si="5"/>
         <v>47057</v>
       </c>
@@ -4222,7 +4222,7 @@
       <c r="G190" s="5"/>
     </row>
     <row r="191" spans="1:7">
-      <c r="A191" s="11">
+      <c r="A191" s="12">
         <f t="shared" si="5"/>
         <v>47087</v>
       </c>
@@ -4237,7 +4237,7 @@
       <c r="G191" s="5"/>
     </row>
     <row r="192" spans="1:7">
-      <c r="A192" s="11">
+      <c r="A192" s="12">
         <f t="shared" si="5"/>
         <v>47118</v>
       </c>
@@ -4252,7 +4252,7 @@
       <c r="G192" s="5"/>
     </row>
     <row r="193" spans="1:7">
-      <c r="A193" s="11">
+      <c r="A193" s="12">
         <f t="shared" si="5"/>
         <v>47149</v>
       </c>
@@ -4267,7 +4267,7 @@
       <c r="G193" s="5"/>
     </row>
     <row r="194" spans="1:7">
-      <c r="A194" s="11">
+      <c r="A194" s="12">
         <f t="shared" si="5"/>
         <v>47177</v>
       </c>
@@ -4282,7 +4282,7 @@
       <c r="G194" s="5"/>
     </row>
     <row r="195" spans="1:7">
-      <c r="A195" s="11">
+      <c r="A195" s="12">
         <f t="shared" si="5"/>
         <v>47208</v>
       </c>
@@ -4297,7 +4297,7 @@
       <c r="G195" s="5"/>
     </row>
     <row r="196" spans="1:7">
-      <c r="A196" s="11">
+      <c r="A196" s="12">
         <f t="shared" si="5"/>
         <v>47238</v>
       </c>
@@ -4312,7 +4312,7 @@
       <c r="G196" s="5"/>
     </row>
     <row r="197" spans="1:7">
-      <c r="A197" s="11">
+      <c r="A197" s="12">
         <f t="shared" si="5"/>
         <v>47269</v>
       </c>
@@ -4327,7 +4327,7 @@
       <c r="G197" s="5"/>
     </row>
     <row r="198" spans="1:7">
-      <c r="A198" s="11">
+      <c r="A198" s="12">
         <f t="shared" si="5"/>
         <v>47299</v>
       </c>
@@ -4342,7 +4342,7 @@
       <c r="G198" s="5"/>
     </row>
     <row r="199" spans="1:7">
-      <c r="A199" s="11">
+      <c r="A199" s="12">
         <f t="shared" si="5"/>
         <v>47330</v>
       </c>
@@ -4357,7 +4357,7 @@
       <c r="G199" s="5"/>
     </row>
     <row r="200" spans="1:7">
-      <c r="A200" s="11">
+      <c r="A200" s="12">
         <f t="shared" si="5"/>
         <v>47361</v>
       </c>
@@ -4372,7 +4372,7 @@
       <c r="G200" s="5"/>
     </row>
     <row r="201" spans="1:7">
-      <c r="A201" s="11">
+      <c r="A201" s="12">
         <f t="shared" si="5"/>
         <v>47391</v>
       </c>
@@ -4387,7 +4387,7 @@
       <c r="G201" s="5"/>
     </row>
     <row r="202" spans="1:7">
-      <c r="A202" s="11">
+      <c r="A202" s="12">
         <f t="shared" si="5"/>
         <v>47422</v>
       </c>
@@ -4402,7 +4402,7 @@
       <c r="G202" s="5"/>
     </row>
     <row r="203" spans="1:7">
-      <c r="A203" s="11">
+      <c r="A203" s="12">
         <f t="shared" si="5"/>
         <v>47452</v>
       </c>
@@ -4417,7 +4417,7 @@
       <c r="G203" s="5"/>
     </row>
     <row r="204" spans="1:7">
-      <c r="A204" s="11">
+      <c r="A204" s="12">
         <f t="shared" si="5"/>
         <v>47483</v>
       </c>
@@ -4432,7 +4432,7 @@
       <c r="G204" s="5"/>
     </row>
     <row r="205" spans="1:7">
-      <c r="A205" s="11">
+      <c r="A205" s="12">
         <f t="shared" si="5"/>
         <v>47514</v>
       </c>
@@ -4447,7 +4447,7 @@
       <c r="G205" s="5"/>
     </row>
     <row r="206" spans="1:7">
-      <c r="A206" s="11">
+      <c r="A206" s="12">
         <f t="shared" si="5"/>
         <v>47542</v>
       </c>
@@ -4462,7 +4462,7 @@
       <c r="G206" s="5"/>
     </row>
     <row r="207" spans="1:7">
-      <c r="A207" s="11">
+      <c r="A207" s="12">
         <f t="shared" si="5"/>
         <v>47573</v>
       </c>
@@ -4477,7 +4477,7 @@
       <c r="G207" s="5"/>
     </row>
     <row r="208" spans="1:7">
-      <c r="A208" s="11">
+      <c r="A208" s="12">
         <f t="shared" ref="A208:A271" si="7">EOMONTH(A207,1)</f>
         <v>47603</v>
       </c>
@@ -4492,7 +4492,7 @@
       <c r="G208" s="5"/>
     </row>
     <row r="209" spans="1:7">
-      <c r="A209" s="11">
+      <c r="A209" s="12">
         <f t="shared" si="7"/>
         <v>47634</v>
       </c>
@@ -4507,7 +4507,7 @@
       <c r="G209" s="5"/>
     </row>
     <row r="210" spans="1:7">
-      <c r="A210" s="11">
+      <c r="A210" s="12">
         <f t="shared" si="7"/>
         <v>47664</v>
       </c>
@@ -4522,7 +4522,7 @@
       <c r="G210" s="5"/>
     </row>
     <row r="211" spans="1:7">
-      <c r="A211" s="11">
+      <c r="A211" s="12">
         <f t="shared" si="7"/>
         <v>47695</v>
       </c>
@@ -4537,7 +4537,7 @@
       <c r="G211" s="5"/>
     </row>
     <row r="212" spans="1:7">
-      <c r="A212" s="11">
+      <c r="A212" s="12">
         <f t="shared" si="7"/>
         <v>47726</v>
       </c>
@@ -4552,7 +4552,7 @@
       <c r="G212" s="5"/>
     </row>
     <row r="213" spans="1:7">
-      <c r="A213" s="11">
+      <c r="A213" s="12">
         <f t="shared" si="7"/>
         <v>47756</v>
       </c>
@@ -4567,7 +4567,7 @@
       <c r="G213" s="5"/>
     </row>
     <row r="214" spans="1:7">
-      <c r="A214" s="11">
+      <c r="A214" s="12">
         <f t="shared" si="7"/>
         <v>47787</v>
       </c>
@@ -4582,7 +4582,7 @@
       <c r="G214" s="5"/>
     </row>
     <row r="215" spans="1:7">
-      <c r="A215" s="11">
+      <c r="A215" s="12">
         <f t="shared" si="7"/>
         <v>47817</v>
       </c>
@@ -4597,7 +4597,7 @@
       <c r="G215" s="5"/>
     </row>
     <row r="216" spans="1:7">
-      <c r="A216" s="11">
+      <c r="A216" s="12">
         <f t="shared" si="7"/>
         <v>47848</v>
       </c>
@@ -4612,7 +4612,7 @@
       <c r="G216" s="5"/>
     </row>
     <row r="217" spans="1:7">
-      <c r="A217" s="11">
+      <c r="A217" s="12">
         <f t="shared" si="7"/>
         <v>47879</v>
       </c>
@@ -4627,7 +4627,7 @@
       <c r="G217" s="5"/>
     </row>
     <row r="218" spans="1:7">
-      <c r="A218" s="11">
+      <c r="A218" s="12">
         <f t="shared" si="7"/>
         <v>47907</v>
       </c>
@@ -4642,7 +4642,7 @@
       <c r="G218" s="5"/>
     </row>
     <row r="219" spans="1:7">
-      <c r="A219" s="11">
+      <c r="A219" s="12">
         <f t="shared" si="7"/>
         <v>47938</v>
       </c>
@@ -4657,7 +4657,7 @@
       <c r="G219" s="5"/>
     </row>
     <row r="220" spans="1:7">
-      <c r="A220" s="11">
+      <c r="A220" s="12">
         <f t="shared" si="7"/>
         <v>47968</v>
       </c>
@@ -4672,7 +4672,7 @@
       <c r="G220" s="5"/>
     </row>
     <row r="221" spans="1:7">
-      <c r="A221" s="11">
+      <c r="A221" s="12">
         <f t="shared" si="7"/>
         <v>47999</v>
       </c>
@@ -4687,7 +4687,7 @@
       <c r="G221" s="5"/>
     </row>
     <row r="222" spans="1:7">
-      <c r="A222" s="11">
+      <c r="A222" s="12">
         <f t="shared" si="7"/>
         <v>48029</v>
       </c>
@@ -4702,7 +4702,7 @@
       <c r="G222" s="5"/>
     </row>
     <row r="223" spans="1:7">
-      <c r="A223" s="11">
+      <c r="A223" s="12">
         <f t="shared" si="7"/>
         <v>48060</v>
       </c>
@@ -4717,7 +4717,7 @@
       <c r="G223" s="5"/>
     </row>
     <row r="224" spans="1:7">
-      <c r="A224" s="11">
+      <c r="A224" s="12">
         <f t="shared" si="7"/>
         <v>48091</v>
       </c>
@@ -4732,7 +4732,7 @@
       <c r="G224" s="5"/>
     </row>
     <row r="225" spans="1:7">
-      <c r="A225" s="11">
+      <c r="A225" s="12">
         <f t="shared" si="7"/>
         <v>48121</v>
       </c>
@@ -4747,7 +4747,7 @@
       <c r="G225" s="5"/>
     </row>
     <row r="226" spans="1:7">
-      <c r="A226" s="11">
+      <c r="A226" s="12">
         <f t="shared" si="7"/>
         <v>48152</v>
       </c>
@@ -4762,7 +4762,7 @@
       <c r="G226" s="5"/>
     </row>
     <row r="227" spans="1:7">
-      <c r="A227" s="11">
+      <c r="A227" s="12">
         <f t="shared" si="7"/>
         <v>48182</v>
       </c>
@@ -4777,7 +4777,7 @@
       <c r="G227" s="5"/>
     </row>
     <row r="228" spans="1:7">
-      <c r="A228" s="11">
+      <c r="A228" s="12">
         <f t="shared" si="7"/>
         <v>48213</v>
       </c>
@@ -4792,7 +4792,7 @@
       <c r="G228" s="5"/>
     </row>
     <row r="229" spans="1:7">
-      <c r="A229" s="11">
+      <c r="A229" s="12">
         <f t="shared" si="7"/>
         <v>48244</v>
       </c>
@@ -4807,7 +4807,7 @@
       <c r="G229" s="5"/>
     </row>
     <row r="230" spans="1:7">
-      <c r="A230" s="11">
+      <c r="A230" s="12">
         <f t="shared" si="7"/>
         <v>48273</v>
       </c>
@@ -4822,7 +4822,7 @@
       <c r="G230" s="5"/>
     </row>
     <row r="231" spans="1:7">
-      <c r="A231" s="11">
+      <c r="A231" s="12">
         <f t="shared" si="7"/>
         <v>48304</v>
       </c>
@@ -4837,7 +4837,7 @@
       <c r="G231" s="5"/>
     </row>
     <row r="232" spans="1:7">
-      <c r="A232" s="11">
+      <c r="A232" s="12">
         <f t="shared" si="7"/>
         <v>48334</v>
       </c>
@@ -4852,7 +4852,7 @@
       <c r="G232" s="5"/>
     </row>
     <row r="233" spans="1:7">
-      <c r="A233" s="11">
+      <c r="A233" s="12">
         <f t="shared" si="7"/>
         <v>48365</v>
       </c>
@@ -4867,7 +4867,7 @@
       <c r="G233" s="5"/>
     </row>
     <row r="234" spans="1:7">
-      <c r="A234" s="11">
+      <c r="A234" s="12">
         <f t="shared" si="7"/>
         <v>48395</v>
       </c>
@@ -4882,7 +4882,7 @@
       <c r="G234" s="5"/>
     </row>
     <row r="235" spans="1:7">
-      <c r="A235" s="11">
+      <c r="A235" s="12">
         <f t="shared" si="7"/>
         <v>48426</v>
       </c>
@@ -4897,7 +4897,7 @@
       <c r="G235" s="5"/>
     </row>
     <row r="236" spans="1:7">
-      <c r="A236" s="11">
+      <c r="A236" s="12">
         <f t="shared" si="7"/>
         <v>48457</v>
       </c>
@@ -4912,7 +4912,7 @@
       <c r="G236" s="5"/>
     </row>
     <row r="237" spans="1:7">
-      <c r="A237" s="11">
+      <c r="A237" s="12">
         <f t="shared" si="7"/>
         <v>48487</v>
       </c>
@@ -4927,7 +4927,7 @@
       <c r="G237" s="5"/>
     </row>
     <row r="238" spans="1:7">
-      <c r="A238" s="11">
+      <c r="A238" s="12">
         <f t="shared" si="7"/>
         <v>48518</v>
       </c>
@@ -4942,7 +4942,7 @@
       <c r="G238" s="5"/>
     </row>
     <row r="239" spans="1:7">
-      <c r="A239" s="11">
+      <c r="A239" s="12">
         <f t="shared" si="7"/>
         <v>48548</v>
       </c>
@@ -4957,7 +4957,7 @@
       <c r="G239" s="5"/>
     </row>
     <row r="240" spans="1:7">
-      <c r="A240" s="11">
+      <c r="A240" s="12">
         <f t="shared" si="7"/>
         <v>48579</v>
       </c>
@@ -4972,7 +4972,7 @@
       <c r="G240" s="5"/>
     </row>
     <row r="241" spans="1:7">
-      <c r="A241" s="11">
+      <c r="A241" s="12">
         <f t="shared" si="7"/>
         <v>48610</v>
       </c>
@@ -4987,7 +4987,7 @@
       <c r="G241" s="5"/>
     </row>
     <row r="242" spans="1:7">
-      <c r="A242" s="11">
+      <c r="A242" s="12">
         <f t="shared" si="7"/>
         <v>48638</v>
       </c>
@@ -5002,7 +5002,7 @@
       <c r="G242" s="5"/>
     </row>
     <row r="243" spans="1:7">
-      <c r="A243" s="11">
+      <c r="A243" s="12">
         <f t="shared" si="7"/>
         <v>48669</v>
       </c>
@@ -5017,7 +5017,7 @@
       <c r="G243" s="5"/>
     </row>
     <row r="244" spans="1:7">
-      <c r="A244" s="11">
+      <c r="A244" s="12">
         <f t="shared" si="7"/>
         <v>48699</v>
       </c>
@@ -5032,7 +5032,7 @@
       <c r="G244" s="5"/>
     </row>
     <row r="245" spans="1:7">
-      <c r="A245" s="11">
+      <c r="A245" s="12">
         <f t="shared" si="7"/>
         <v>48730</v>
       </c>
@@ -5047,7 +5047,7 @@
       <c r="G245" s="5"/>
     </row>
     <row r="246" spans="1:7">
-      <c r="A246" s="11">
+      <c r="A246" s="12">
         <f t="shared" si="7"/>
         <v>48760</v>
       </c>
@@ -5062,7 +5062,7 @@
       <c r="G246" s="5"/>
     </row>
     <row r="247" spans="1:7">
-      <c r="A247" s="11">
+      <c r="A247" s="12">
         <f t="shared" si="7"/>
         <v>48791</v>
       </c>
@@ -5077,7 +5077,7 @@
       <c r="G247" s="5"/>
     </row>
     <row r="248" spans="1:7">
-      <c r="A248" s="11">
+      <c r="A248" s="12">
         <f t="shared" si="7"/>
         <v>48822</v>
       </c>
@@ -5092,7 +5092,7 @@
       <c r="G248" s="5"/>
     </row>
     <row r="249" spans="1:7">
-      <c r="A249" s="11">
+      <c r="A249" s="12">
         <f t="shared" si="7"/>
         <v>48852</v>
       </c>
@@ -5107,7 +5107,7 @@
       <c r="G249" s="5"/>
     </row>
     <row r="250" spans="1:7">
-      <c r="A250" s="11">
+      <c r="A250" s="12">
         <f t="shared" si="7"/>
         <v>48883</v>
       </c>
@@ -5122,7 +5122,7 @@
       <c r="G250" s="5"/>
     </row>
     <row r="251" spans="1:7">
-      <c r="A251" s="11">
+      <c r="A251" s="12">
         <f t="shared" si="7"/>
         <v>48913</v>
       </c>
@@ -5137,7 +5137,7 @@
       <c r="G251" s="5"/>
     </row>
     <row r="252" spans="1:7">
-      <c r="A252" s="11">
+      <c r="A252" s="12">
         <f t="shared" si="7"/>
         <v>48944</v>
       </c>
@@ -5152,7 +5152,7 @@
       <c r="G252" s="5"/>
     </row>
     <row r="253" spans="1:7">
-      <c r="A253" s="11">
+      <c r="A253" s="12">
         <f t="shared" si="7"/>
         <v>48975</v>
       </c>
@@ -5167,7 +5167,7 @@
       <c r="G253" s="5"/>
     </row>
     <row r="254" spans="1:7">
-      <c r="A254" s="11">
+      <c r="A254" s="12">
         <f t="shared" si="7"/>
         <v>49003</v>
       </c>
@@ -5182,7 +5182,7 @@
       <c r="G254" s="5"/>
     </row>
     <row r="255" spans="1:7">
-      <c r="A255" s="11">
+      <c r="A255" s="12">
         <f t="shared" si="7"/>
         <v>49034</v>
       </c>
@@ -5197,7 +5197,7 @@
       <c r="G255" s="5"/>
     </row>
     <row r="256" spans="1:7">
-      <c r="A256" s="11">
+      <c r="A256" s="12">
         <f t="shared" si="7"/>
         <v>49064</v>
       </c>
@@ -5212,7 +5212,7 @@
       <c r="G256" s="5"/>
     </row>
     <row r="257" spans="1:7">
-      <c r="A257" s="11">
+      <c r="A257" s="12">
         <f t="shared" si="7"/>
         <v>49095</v>
       </c>
@@ -5227,7 +5227,7 @@
       <c r="G257" s="5"/>
     </row>
     <row r="258" spans="1:7">
-      <c r="A258" s="11">
+      <c r="A258" s="12">
         <f t="shared" si="7"/>
         <v>49125</v>
       </c>
@@ -5242,7 +5242,7 @@
       <c r="G258" s="5"/>
     </row>
     <row r="259" spans="1:7">
-      <c r="A259" s="11">
+      <c r="A259" s="12">
         <f t="shared" si="7"/>
         <v>49156</v>
       </c>
@@ -5257,7 +5257,7 @@
       <c r="G259" s="5"/>
     </row>
     <row r="260" spans="1:7">
-      <c r="A260" s="11">
+      <c r="A260" s="12">
         <f t="shared" si="7"/>
         <v>49187</v>
       </c>
@@ -5272,7 +5272,7 @@
       <c r="G260" s="5"/>
     </row>
     <row r="261" spans="1:7">
-      <c r="A261" s="11">
+      <c r="A261" s="12">
         <f t="shared" si="7"/>
         <v>49217</v>
       </c>
@@ -5287,7 +5287,7 @@
       <c r="G261" s="5"/>
     </row>
     <row r="262" spans="1:7">
-      <c r="A262" s="11">
+      <c r="A262" s="12">
         <f t="shared" si="7"/>
         <v>49248</v>
       </c>
@@ -5302,7 +5302,7 @@
       <c r="G262" s="5"/>
     </row>
     <row r="263" spans="1:7">
-      <c r="A263" s="11">
+      <c r="A263" s="12">
         <f t="shared" si="7"/>
         <v>49278</v>
       </c>
@@ -5317,7 +5317,7 @@
       <c r="G263" s="5"/>
     </row>
     <row r="264" spans="1:7">
-      <c r="A264" s="11">
+      <c r="A264" s="12">
         <f t="shared" si="7"/>
         <v>49309</v>
       </c>
@@ -5332,7 +5332,7 @@
       <c r="G264" s="5"/>
     </row>
     <row r="265" spans="1:7">
-      <c r="A265" s="11">
+      <c r="A265" s="12">
         <f t="shared" si="7"/>
         <v>49340</v>
       </c>
@@ -5347,7 +5347,7 @@
       <c r="G265" s="5"/>
     </row>
     <row r="266" spans="1:7">
-      <c r="A266" s="11">
+      <c r="A266" s="12">
         <f t="shared" si="7"/>
         <v>49368</v>
       </c>
@@ -5362,7 +5362,7 @@
       <c r="G266" s="5"/>
     </row>
     <row r="267" spans="1:7">
-      <c r="A267" s="11">
+      <c r="A267" s="12">
         <f t="shared" si="7"/>
         <v>49399</v>
       </c>
@@ -5377,7 +5377,7 @@
       <c r="G267" s="5"/>
     </row>
     <row r="268" spans="1:7">
-      <c r="A268" s="11">
+      <c r="A268" s="12">
         <f t="shared" si="7"/>
         <v>49429</v>
       </c>
@@ -5392,7 +5392,7 @@
       <c r="G268" s="5"/>
     </row>
     <row r="269" spans="1:7">
-      <c r="A269" s="11">
+      <c r="A269" s="12">
         <f t="shared" si="7"/>
         <v>49460</v>
       </c>
@@ -5407,7 +5407,7 @@
       <c r="G269" s="5"/>
     </row>
     <row r="270" spans="1:7">
-      <c r="A270" s="11">
+      <c r="A270" s="12">
         <f t="shared" si="7"/>
         <v>49490</v>
       </c>
@@ -5422,7 +5422,7 @@
       <c r="G270" s="5"/>
     </row>
     <row r="271" spans="1:7">
-      <c r="A271" s="11">
+      <c r="A271" s="12">
         <f t="shared" si="7"/>
         <v>49521</v>
       </c>
@@ -5437,7 +5437,7 @@
       <c r="G271" s="5"/>
     </row>
     <row r="272" spans="1:7">
-      <c r="A272" s="11">
+      <c r="A272" s="12">
         <f t="shared" ref="A272:A335" si="9">EOMONTH(A271,1)</f>
         <v>49552</v>
       </c>
@@ -5452,7 +5452,7 @@
       <c r="G272" s="5"/>
     </row>
     <row r="273" spans="1:7">
-      <c r="A273" s="11">
+      <c r="A273" s="12">
         <f t="shared" si="9"/>
         <v>49582</v>
       </c>
@@ -5467,7 +5467,7 @@
       <c r="G273" s="5"/>
     </row>
     <row r="274" spans="1:7">
-      <c r="A274" s="11">
+      <c r="A274" s="12">
         <f t="shared" si="9"/>
         <v>49613</v>
       </c>
@@ -5482,7 +5482,7 @@
       <c r="G274" s="5"/>
     </row>
     <row r="275" spans="1:7">
-      <c r="A275" s="11">
+      <c r="A275" s="12">
         <f t="shared" si="9"/>
         <v>49643</v>
       </c>
@@ -5497,7 +5497,7 @@
       <c r="G275" s="5"/>
     </row>
     <row r="276" spans="1:7">
-      <c r="A276" s="11">
+      <c r="A276" s="12">
         <f t="shared" si="9"/>
         <v>49674</v>
       </c>
@@ -5512,7 +5512,7 @@
       <c r="G276" s="5"/>
     </row>
     <row r="277" spans="1:7">
-      <c r="A277" s="11">
+      <c r="A277" s="12">
         <f t="shared" si="9"/>
         <v>49705</v>
       </c>
@@ -5527,7 +5527,7 @@
       <c r="G277" s="5"/>
     </row>
     <row r="278" spans="1:7">
-      <c r="A278" s="11">
+      <c r="A278" s="12">
         <f t="shared" si="9"/>
         <v>49734</v>
       </c>
@@ -5542,7 +5542,7 @@
       <c r="G278" s="5"/>
     </row>
     <row r="279" spans="1:7">
-      <c r="A279" s="11">
+      <c r="A279" s="12">
         <f t="shared" si="9"/>
         <v>49765</v>
       </c>
@@ -5557,7 +5557,7 @@
       <c r="G279" s="5"/>
     </row>
     <row r="280" spans="1:7">
-      <c r="A280" s="11">
+      <c r="A280" s="12">
         <f t="shared" si="9"/>
         <v>49795</v>
       </c>
@@ -5572,7 +5572,7 @@
       <c r="G280" s="5"/>
     </row>
     <row r="281" spans="1:7">
-      <c r="A281" s="11">
+      <c r="A281" s="12">
         <f t="shared" si="9"/>
         <v>49826</v>
       </c>
@@ -5587,7 +5587,7 @@
       <c r="G281" s="5"/>
     </row>
     <row r="282" spans="1:7">
-      <c r="A282" s="11">
+      <c r="A282" s="12">
         <f t="shared" si="9"/>
         <v>49856</v>
       </c>
@@ -5602,7 +5602,7 @@
       <c r="G282" s="5"/>
     </row>
     <row r="283" spans="1:7">
-      <c r="A283" s="11">
+      <c r="A283" s="12">
         <f t="shared" si="9"/>
         <v>49887</v>
       </c>
@@ -5617,7 +5617,7 @@
       <c r="G283" s="5"/>
     </row>
     <row r="284" spans="1:7">
-      <c r="A284" s="11">
+      <c r="A284" s="12">
         <f t="shared" si="9"/>
         <v>49918</v>
       </c>
@@ -5632,7 +5632,7 @@
       <c r="G284" s="5"/>
     </row>
     <row r="285" spans="1:7">
-      <c r="A285" s="11">
+      <c r="A285" s="12">
         <f t="shared" si="9"/>
         <v>49948</v>
       </c>
@@ -5647,7 +5647,7 @@
       <c r="G285" s="5"/>
     </row>
     <row r="286" spans="1:7">
-      <c r="A286" s="11">
+      <c r="A286" s="12">
         <f t="shared" si="9"/>
         <v>49979</v>
       </c>
@@ -5662,7 +5662,7 @@
       <c r="G286" s="5"/>
     </row>
     <row r="287" spans="1:7">
-      <c r="A287" s="11">
+      <c r="A287" s="12">
         <f t="shared" si="9"/>
         <v>50009</v>
       </c>
@@ -5677,7 +5677,7 @@
       <c r="G287" s="5"/>
     </row>
     <row r="288" spans="1:7">
-      <c r="A288" s="11">
+      <c r="A288" s="12">
         <f t="shared" si="9"/>
         <v>50040</v>
       </c>
@@ -5692,7 +5692,7 @@
       <c r="G288" s="5"/>
     </row>
     <row r="289" spans="1:7">
-      <c r="A289" s="11">
+      <c r="A289" s="12">
         <f t="shared" si="9"/>
         <v>50071</v>
       </c>
@@ -5707,7 +5707,7 @@
       <c r="G289" s="5"/>
     </row>
     <row r="290" spans="1:7">
-      <c r="A290" s="11">
+      <c r="A290" s="12">
         <f t="shared" si="9"/>
         <v>50099</v>
       </c>
@@ -5722,7 +5722,7 @@
       <c r="G290" s="5"/>
     </row>
     <row r="291" spans="1:7">
-      <c r="A291" s="11">
+      <c r="A291" s="12">
         <f t="shared" si="9"/>
         <v>50130</v>
       </c>
@@ -5737,7 +5737,7 @@
       <c r="G291" s="5"/>
     </row>
     <row r="292" spans="1:7">
-      <c r="A292" s="11">
+      <c r="A292" s="12">
         <f t="shared" si="9"/>
         <v>50160</v>
       </c>
@@ -5752,7 +5752,7 @@
       <c r="G292" s="5"/>
     </row>
     <row r="293" spans="1:7">
-      <c r="A293" s="11">
+      <c r="A293" s="12">
         <f t="shared" si="9"/>
         <v>50191</v>
       </c>
@@ -5767,7 +5767,7 @@
       <c r="G293" s="5"/>
     </row>
     <row r="294" spans="1:7">
-      <c r="A294" s="11">
+      <c r="A294" s="12">
         <f t="shared" si="9"/>
         <v>50221</v>
       </c>
@@ -5782,7 +5782,7 @@
       <c r="G294" s="5"/>
     </row>
     <row r="295" spans="1:7">
-      <c r="A295" s="11">
+      <c r="A295" s="12">
         <f t="shared" si="9"/>
         <v>50252</v>
       </c>
@@ -5797,7 +5797,7 @@
       <c r="G295" s="5"/>
     </row>
     <row r="296" spans="1:7">
-      <c r="A296" s="11">
+      <c r="A296" s="12">
         <f t="shared" si="9"/>
         <v>50283</v>
       </c>
@@ -5812,7 +5812,7 @@
       <c r="G296" s="5"/>
     </row>
     <row r="297" spans="1:7">
-      <c r="A297" s="11">
+      <c r="A297" s="12">
         <f t="shared" si="9"/>
         <v>50313</v>
       </c>
@@ -5827,7 +5827,7 @@
       <c r="G297" s="5"/>
     </row>
     <row r="298" spans="1:7">
-      <c r="A298" s="11">
+      <c r="A298" s="12">
         <f t="shared" si="9"/>
         <v>50344</v>
       </c>
@@ -5842,7 +5842,7 @@
       <c r="G298" s="5"/>
     </row>
     <row r="299" spans="1:7">
-      <c r="A299" s="11">
+      <c r="A299" s="12">
         <f t="shared" si="9"/>
         <v>50374</v>
       </c>
@@ -5857,7 +5857,7 @@
       <c r="G299" s="5"/>
     </row>
     <row r="300" spans="1:7">
-      <c r="A300" s="11">
+      <c r="A300" s="12">
         <f t="shared" si="9"/>
         <v>50405</v>
       </c>
@@ -5872,7 +5872,7 @@
       <c r="G300" s="5"/>
     </row>
     <row r="301" spans="1:7">
-      <c r="A301" s="11">
+      <c r="A301" s="12">
         <f t="shared" si="9"/>
         <v>50436</v>
       </c>
@@ -5887,7 +5887,7 @@
       <c r="G301" s="5"/>
     </row>
     <row r="302" spans="1:7">
-      <c r="A302" s="11">
+      <c r="A302" s="12">
         <f t="shared" si="9"/>
         <v>50464</v>
       </c>
@@ -5902,7 +5902,7 @@
       <c r="G302" s="5"/>
     </row>
     <row r="303" spans="1:7">
-      <c r="A303" s="11">
+      <c r="A303" s="12">
         <f t="shared" si="9"/>
         <v>50495</v>
       </c>
@@ -5917,7 +5917,7 @@
       <c r="G303" s="5"/>
     </row>
     <row r="304" spans="1:7">
-      <c r="A304" s="11">
+      <c r="A304" s="12">
         <f t="shared" si="9"/>
         <v>50525</v>
       </c>
@@ -5932,7 +5932,7 @@
       <c r="G304" s="5"/>
     </row>
     <row r="305" spans="1:7">
-      <c r="A305" s="11">
+      <c r="A305" s="12">
         <f t="shared" si="9"/>
         <v>50556</v>
       </c>
@@ -5947,7 +5947,7 @@
       <c r="G305" s="5"/>
     </row>
     <row r="306" spans="1:7">
-      <c r="A306" s="11">
+      <c r="A306" s="12">
         <f t="shared" si="9"/>
         <v>50586</v>
       </c>
@@ -5962,7 +5962,7 @@
       <c r="G306" s="5"/>
     </row>
     <row r="307" spans="1:7">
-      <c r="A307" s="11">
+      <c r="A307" s="12">
         <f t="shared" si="9"/>
         <v>50617</v>
       </c>
@@ -5977,7 +5977,7 @@
       <c r="G307" s="5"/>
     </row>
     <row r="308" spans="1:7">
-      <c r="A308" s="11">
+      <c r="A308" s="12">
         <f t="shared" si="9"/>
         <v>50648</v>
       </c>
@@ -5992,7 +5992,7 @@
       <c r="G308" s="5"/>
     </row>
     <row r="309" spans="1:7">
-      <c r="A309" s="11">
+      <c r="A309" s="12">
         <f t="shared" si="9"/>
         <v>50678</v>
       </c>
@@ -6007,7 +6007,7 @@
       <c r="G309" s="5"/>
     </row>
     <row r="310" spans="1:7">
-      <c r="A310" s="11">
+      <c r="A310" s="12">
         <f t="shared" si="9"/>
         <v>50709</v>
       </c>
@@ -6022,7 +6022,7 @@
       <c r="G310" s="5"/>
     </row>
     <row r="311" spans="1:7">
-      <c r="A311" s="11">
+      <c r="A311" s="12">
         <f t="shared" si="9"/>
         <v>50739</v>
       </c>
@@ -6037,7 +6037,7 @@
       <c r="G311" s="5"/>
     </row>
     <row r="312" spans="1:7">
-      <c r="A312" s="11">
+      <c r="A312" s="12">
         <f t="shared" si="9"/>
         <v>50770</v>
       </c>
@@ -6052,7 +6052,7 @@
       <c r="G312" s="5"/>
     </row>
     <row r="313" spans="1:7">
-      <c r="A313" s="11">
+      <c r="A313" s="12">
         <f t="shared" si="9"/>
         <v>50801</v>
       </c>
@@ -6067,7 +6067,7 @@
       <c r="G313" s="5"/>
     </row>
     <row r="314" spans="1:7">
-      <c r="A314" s="11">
+      <c r="A314" s="12">
         <f t="shared" si="9"/>
         <v>50829</v>
       </c>
@@ -6082,7 +6082,7 @@
       <c r="G314" s="5"/>
     </row>
     <row r="315" spans="1:7">
-      <c r="A315" s="11">
+      <c r="A315" s="12">
         <f t="shared" si="9"/>
         <v>50860</v>
       </c>
@@ -6097,7 +6097,7 @@
       <c r="G315" s="5"/>
     </row>
     <row r="316" spans="1:7">
-      <c r="A316" s="11">
+      <c r="A316" s="12">
         <f t="shared" si="9"/>
         <v>50890</v>
       </c>
@@ -6112,7 +6112,7 @@
       <c r="G316" s="5"/>
     </row>
     <row r="317" spans="1:7">
-      <c r="A317" s="11">
+      <c r="A317" s="12">
         <f t="shared" si="9"/>
         <v>50921</v>
       </c>
@@ -6127,7 +6127,7 @@
       <c r="G317" s="5"/>
     </row>
     <row r="318" spans="1:7">
-      <c r="A318" s="11">
+      <c r="A318" s="12">
         <f t="shared" si="9"/>
         <v>50951</v>
       </c>
@@ -6142,7 +6142,7 @@
       <c r="G318" s="5"/>
     </row>
     <row r="319" spans="1:7">
-      <c r="A319" s="11">
+      <c r="A319" s="12">
         <f t="shared" si="9"/>
         <v>50982</v>
       </c>
@@ -6157,7 +6157,7 @@
       <c r="G319" s="5"/>
     </row>
     <row r="320" spans="1:7">
-      <c r="A320" s="11">
+      <c r="A320" s="12">
         <f t="shared" si="9"/>
         <v>51013</v>
       </c>
@@ -6172,7 +6172,7 @@
       <c r="G320" s="5"/>
     </row>
     <row r="321" spans="1:7">
-      <c r="A321" s="11">
+      <c r="A321" s="12">
         <f t="shared" si="9"/>
         <v>51043</v>
       </c>
@@ -6187,7 +6187,7 @@
       <c r="G321" s="5"/>
     </row>
     <row r="322" spans="1:7">
-      <c r="A322" s="11">
+      <c r="A322" s="12">
         <f t="shared" si="9"/>
         <v>51074</v>
       </c>
@@ -6202,7 +6202,7 @@
       <c r="G322" s="5"/>
     </row>
     <row r="323" spans="1:7">
-      <c r="A323" s="11">
+      <c r="A323" s="12">
         <f t="shared" si="9"/>
         <v>51104</v>
       </c>
@@ -6217,7 +6217,7 @@
       <c r="G323" s="5"/>
     </row>
     <row r="324" spans="1:7">
-      <c r="A324" s="11">
+      <c r="A324" s="12">
         <f t="shared" si="9"/>
         <v>51135</v>
       </c>
@@ -6232,7 +6232,7 @@
       <c r="G324" s="5"/>
     </row>
     <row r="325" spans="1:7">
-      <c r="A325" s="11">
+      <c r="A325" s="12">
         <f t="shared" si="9"/>
         <v>51166</v>
       </c>
@@ -6247,7 +6247,7 @@
       <c r="G325" s="5"/>
     </row>
     <row r="326" spans="1:7">
-      <c r="A326" s="11">
+      <c r="A326" s="12">
         <f t="shared" si="9"/>
         <v>51195</v>
       </c>
@@ -6262,7 +6262,7 @@
       <c r="G326" s="5"/>
     </row>
     <row r="327" spans="1:7">
-      <c r="A327" s="11">
+      <c r="A327" s="12">
         <f t="shared" si="9"/>
         <v>51226</v>
       </c>
@@ -6277,7 +6277,7 @@
       <c r="G327" s="5"/>
     </row>
     <row r="328" spans="1:7">
-      <c r="A328" s="11">
+      <c r="A328" s="12">
         <f t="shared" si="9"/>
         <v>51256</v>
       </c>
@@ -6292,7 +6292,7 @@
       <c r="G328" s="5"/>
     </row>
     <row r="329" spans="1:7">
-      <c r="A329" s="11">
+      <c r="A329" s="12">
         <f t="shared" si="9"/>
         <v>51287</v>
       </c>
@@ -6307,7 +6307,7 @@
       <c r="G329" s="5"/>
     </row>
     <row r="330" spans="1:7">
-      <c r="A330" s="11">
+      <c r="A330" s="12">
         <f t="shared" si="9"/>
         <v>51317</v>
       </c>
@@ -6322,7 +6322,7 @@
       <c r="G330" s="5"/>
     </row>
     <row r="331" spans="1:7">
-      <c r="A331" s="11">
+      <c r="A331" s="12">
         <f t="shared" si="9"/>
         <v>51348</v>
       </c>
@@ -6337,7 +6337,7 @@
       <c r="G331" s="5"/>
     </row>
     <row r="332" spans="1:7">
-      <c r="A332" s="11">
+      <c r="A332" s="12">
         <f t="shared" si="9"/>
         <v>51379</v>
       </c>
@@ -6352,7 +6352,7 @@
       <c r="G332" s="5"/>
     </row>
     <row r="333" spans="1:7">
-      <c r="A333" s="11">
+      <c r="A333" s="12">
         <f t="shared" si="9"/>
         <v>51409</v>
       </c>
@@ -6367,7 +6367,7 @@
       <c r="G333" s="5"/>
     </row>
     <row r="334" spans="1:7">
-      <c r="A334" s="11">
+      <c r="A334" s="12">
         <f t="shared" si="9"/>
         <v>51440</v>
       </c>
@@ -6382,7 +6382,7 @@
       <c r="G334" s="5"/>
     </row>
     <row r="335" spans="1:7">
-      <c r="A335" s="11">
+      <c r="A335" s="12">
         <f t="shared" si="9"/>
         <v>51470</v>
       </c>
@@ -6397,7 +6397,7 @@
       <c r="G335" s="5"/>
     </row>
     <row r="336" spans="1:7">
-      <c r="A336" s="11">
+      <c r="A336" s="12">
         <f t="shared" ref="A336:A373" si="11">EOMONTH(A335,1)</f>
         <v>51501</v>
       </c>
@@ -6412,7 +6412,7 @@
       <c r="G336" s="5"/>
     </row>
     <row r="337" spans="1:7">
-      <c r="A337" s="11">
+      <c r="A337" s="12">
         <f t="shared" si="11"/>
         <v>51532</v>
       </c>
@@ -6427,7 +6427,7 @@
       <c r="G337" s="5"/>
     </row>
     <row r="338" spans="1:7">
-      <c r="A338" s="11">
+      <c r="A338" s="12">
         <f t="shared" si="11"/>
         <v>51560</v>
       </c>
@@ -6442,7 +6442,7 @@
       <c r="G338" s="5"/>
     </row>
     <row r="339" spans="1:7">
-      <c r="A339" s="11">
+      <c r="A339" s="12">
         <f t="shared" si="11"/>
         <v>51591</v>
       </c>
@@ -6457,7 +6457,7 @@
       <c r="G339" s="5"/>
     </row>
     <row r="340" spans="1:7">
-      <c r="A340" s="11">
+      <c r="A340" s="12">
         <f t="shared" si="11"/>
         <v>51621</v>
       </c>
@@ -6472,7 +6472,7 @@
       <c r="G340" s="5"/>
     </row>
     <row r="341" spans="1:7">
-      <c r="A341" s="11">
+      <c r="A341" s="12">
         <f t="shared" si="11"/>
         <v>51652</v>
       </c>
@@ -6487,7 +6487,7 @@
       <c r="G341" s="5"/>
     </row>
     <row r="342" spans="1:7">
-      <c r="A342" s="11">
+      <c r="A342" s="12">
         <f t="shared" si="11"/>
         <v>51682</v>
       </c>
@@ -6502,7 +6502,7 @@
       <c r="G342" s="5"/>
     </row>
     <row r="343" spans="1:7">
-      <c r="A343" s="11">
+      <c r="A343" s="12">
         <f t="shared" si="11"/>
         <v>51713</v>
       </c>
@@ -6517,7 +6517,7 @@
       <c r="G343" s="5"/>
     </row>
     <row r="344" spans="1:7">
-      <c r="A344" s="11">
+      <c r="A344" s="12">
         <f t="shared" si="11"/>
         <v>51744</v>
       </c>
@@ -6532,7 +6532,7 @@
       <c r="G344" s="5"/>
     </row>
     <row r="345" spans="1:7">
-      <c r="A345" s="11">
+      <c r="A345" s="12">
         <f t="shared" si="11"/>
         <v>51774</v>
       </c>
@@ -6547,7 +6547,7 @@
       <c r="G345" s="5"/>
     </row>
     <row r="346" spans="1:7">
-      <c r="A346" s="11">
+      <c r="A346" s="12">
         <f t="shared" si="11"/>
         <v>51805</v>
       </c>
@@ -6562,7 +6562,7 @@
       <c r="G346" s="5"/>
     </row>
     <row r="347" spans="1:7">
-      <c r="A347" s="11">
+      <c r="A347" s="12">
         <f t="shared" si="11"/>
         <v>51835</v>
       </c>
@@ -6577,7 +6577,7 @@
       <c r="G347" s="5"/>
     </row>
     <row r="348" spans="1:7">
-      <c r="A348" s="11">
+      <c r="A348" s="12">
         <f t="shared" si="11"/>
         <v>51866</v>
       </c>
@@ -6592,7 +6592,7 @@
       <c r="G348" s="5"/>
     </row>
     <row r="349" spans="1:7">
-      <c r="A349" s="11">
+      <c r="A349" s="12">
         <f t="shared" si="11"/>
         <v>51897</v>
       </c>
@@ -6607,7 +6607,7 @@
       <c r="G349" s="5"/>
     </row>
     <row r="350" spans="1:7">
-      <c r="A350" s="11">
+      <c r="A350" s="12">
         <f t="shared" si="11"/>
         <v>51925</v>
       </c>
@@ -6622,7 +6622,7 @@
       <c r="G350" s="5"/>
     </row>
     <row r="351" spans="1:7">
-      <c r="A351" s="11">
+      <c r="A351" s="12">
         <f t="shared" si="11"/>
         <v>51956</v>
       </c>
@@ -6637,7 +6637,7 @@
       <c r="G351" s="5"/>
     </row>
     <row r="352" spans="1:7">
-      <c r="A352" s="11">
+      <c r="A352" s="12">
         <f t="shared" si="11"/>
         <v>51986</v>
       </c>
@@ -6652,7 +6652,7 @@
       <c r="G352" s="5"/>
     </row>
     <row r="353" spans="1:7">
-      <c r="A353" s="11">
+      <c r="A353" s="12">
         <f t="shared" si="11"/>
         <v>52017</v>
       </c>
@@ -6667,7 +6667,7 @@
       <c r="G353" s="5"/>
     </row>
     <row r="354" spans="1:7">
-      <c r="A354" s="11">
+      <c r="A354" s="12">
         <f t="shared" si="11"/>
         <v>52047</v>
       </c>
@@ -6682,7 +6682,7 @@
       <c r="G354" s="5"/>
     </row>
     <row r="355" spans="1:7">
-      <c r="A355" s="11">
+      <c r="A355" s="12">
         <f t="shared" si="11"/>
         <v>52078</v>
       </c>
@@ -6697,7 +6697,7 @@
       <c r="G355" s="5"/>
     </row>
     <row r="356" spans="1:7">
-      <c r="A356" s="11">
+      <c r="A356" s="12">
         <f t="shared" si="11"/>
         <v>52109</v>
       </c>
@@ -6712,7 +6712,7 @@
       <c r="G356" s="5"/>
     </row>
     <row r="357" spans="1:7">
-      <c r="A357" s="11">
+      <c r="A357" s="12">
         <f t="shared" si="11"/>
         <v>52139</v>
       </c>
@@ -6727,7 +6727,7 @@
       <c r="G357" s="5"/>
     </row>
     <row r="358" spans="1:7">
-      <c r="A358" s="11">
+      <c r="A358" s="12">
         <f t="shared" si="11"/>
         <v>52170</v>
       </c>
@@ -6742,7 +6742,7 @@
       <c r="G358" s="5"/>
     </row>
     <row r="359" spans="1:7">
-      <c r="A359" s="11">
+      <c r="A359" s="12">
         <f t="shared" si="11"/>
         <v>52200</v>
       </c>
@@ -6757,7 +6757,7 @@
       <c r="G359" s="5"/>
     </row>
     <row r="360" spans="1:7">
-      <c r="A360" s="11">
+      <c r="A360" s="12">
         <f t="shared" si="11"/>
         <v>52231</v>
       </c>
@@ -6772,7 +6772,7 @@
       <c r="G360" s="5"/>
     </row>
     <row r="361" spans="1:7">
-      <c r="A361" s="11">
+      <c r="A361" s="12">
         <f t="shared" si="11"/>
         <v>52262</v>
       </c>
@@ -6787,7 +6787,7 @@
       <c r="G361" s="5"/>
     </row>
     <row r="362" spans="1:7">
-      <c r="A362" s="11">
+      <c r="A362" s="12">
         <f t="shared" si="11"/>
         <v>52290</v>
       </c>
@@ -6802,7 +6802,7 @@
       <c r="G362" s="5"/>
     </row>
     <row r="363" spans="1:7">
-      <c r="A363" s="11">
+      <c r="A363" s="12">
         <f t="shared" si="11"/>
         <v>52321</v>
       </c>
@@ -6817,7 +6817,7 @@
       <c r="G363" s="5"/>
     </row>
     <row r="364" spans="1:7">
-      <c r="A364" s="11">
+      <c r="A364" s="12">
         <f t="shared" si="11"/>
         <v>52351</v>
       </c>
@@ -6832,7 +6832,7 @@
       <c r="G364" s="5"/>
     </row>
     <row r="365" spans="1:7">
-      <c r="A365" s="11">
+      <c r="A365" s="12">
         <f t="shared" si="11"/>
         <v>52382</v>
       </c>
@@ -6847,7 +6847,7 @@
       <c r="G365" s="5"/>
     </row>
     <row r="366" spans="1:7">
-      <c r="A366" s="11">
+      <c r="A366" s="12">
         <f t="shared" si="11"/>
         <v>52412</v>
       </c>
@@ -6862,7 +6862,7 @@
       <c r="G366" s="5"/>
     </row>
     <row r="367" spans="1:7">
-      <c r="A367" s="11">
+      <c r="A367" s="12">
         <f t="shared" si="11"/>
         <v>52443</v>
       </c>
@@ -6877,7 +6877,7 @@
       <c r="G367" s="5"/>
     </row>
     <row r="368" spans="1:7">
-      <c r="A368" s="11">
+      <c r="A368" s="12">
         <f t="shared" si="11"/>
         <v>52474</v>
       </c>
@@ -6892,7 +6892,7 @@
       <c r="G368" s="5"/>
     </row>
     <row r="369" spans="1:7">
-      <c r="A369" s="11">
+      <c r="A369" s="12">
         <f t="shared" si="11"/>
         <v>52504</v>
       </c>
@@ -6907,7 +6907,7 @@
       <c r="G369" s="5"/>
     </row>
     <row r="370" spans="1:7">
-      <c r="A370" s="11">
+      <c r="A370" s="12">
         <f t="shared" si="11"/>
         <v>52535</v>
       </c>
@@ -6922,7 +6922,7 @@
       <c r="G370" s="5"/>
     </row>
     <row r="371" spans="1:7">
-      <c r="A371" s="11">
+      <c r="A371" s="12">
         <f t="shared" si="11"/>
         <v>52565</v>
       </c>
@@ -6937,7 +6937,7 @@
       <c r="G371" s="5"/>
     </row>
     <row r="372" spans="1:7">
-      <c r="A372" s="11">
+      <c r="A372" s="12">
         <f t="shared" si="11"/>
         <v>52596</v>
       </c>
@@ -6952,7 +6952,7 @@
       <c r="G372" s="5"/>
     </row>
     <row r="373" spans="1:7">
-      <c r="A373" s="11">
+      <c r="A373" s="12">
         <f t="shared" si="11"/>
         <v>52627</v>
       </c>
@@ -6967,7 +6967,7 @@
       <c r="G373" s="5"/>
     </row>
     <row r="374" spans="1:7">
-      <c r="A374" s="11">
+      <c r="A374" s="12">
         <f t="shared" ref="A374:A437" si="12">EOMONTH(A373,1)</f>
         <v>52656</v>
       </c>
@@ -6978,7 +6978,7 @@
       <c r="D374" s="10"/>
     </row>
     <row r="375" spans="1:7">
-      <c r="A375" s="11">
+      <c r="A375" s="12">
         <f t="shared" si="12"/>
         <v>52687</v>
       </c>
@@ -6989,7 +6989,7 @@
       <c r="D375" s="10"/>
     </row>
     <row r="376" spans="1:7">
-      <c r="A376" s="11">
+      <c r="A376" s="12">
         <f t="shared" si="12"/>
         <v>52717</v>
       </c>
@@ -7000,7 +7000,7 @@
       <c r="D376" s="10"/>
     </row>
     <row r="377" spans="1:7">
-      <c r="A377" s="11">
+      <c r="A377" s="12">
         <f t="shared" si="12"/>
         <v>52748</v>
       </c>
@@ -7011,7 +7011,7 @@
       <c r="D377" s="10"/>
     </row>
     <row r="378" spans="1:7">
-      <c r="A378" s="11">
+      <c r="A378" s="12">
         <f t="shared" si="12"/>
         <v>52778</v>
       </c>
@@ -7022,7 +7022,7 @@
       <c r="D378" s="10"/>
     </row>
     <row r="379" spans="1:7">
-      <c r="A379" s="11">
+      <c r="A379" s="12">
         <f t="shared" si="12"/>
         <v>52809</v>
       </c>
@@ -7033,7 +7033,7 @@
       <c r="D379" s="10"/>
     </row>
     <row r="380" spans="1:7">
-      <c r="A380" s="11">
+      <c r="A380" s="12">
         <f t="shared" si="12"/>
         <v>52840</v>
       </c>
@@ -7044,7 +7044,7 @@
       <c r="D380" s="10"/>
     </row>
     <row r="381" spans="1:7">
-      <c r="A381" s="11">
+      <c r="A381" s="12">
         <f t="shared" si="12"/>
         <v>52870</v>
       </c>
@@ -7055,7 +7055,7 @@
       <c r="D381" s="10"/>
     </row>
     <row r="382" spans="1:7">
-      <c r="A382" s="11">
+      <c r="A382" s="12">
         <f t="shared" si="12"/>
         <v>52901</v>
       </c>
@@ -7066,7 +7066,7 @@
       <c r="D382" s="10"/>
     </row>
     <row r="383" spans="1:7">
-      <c r="A383" s="11">
+      <c r="A383" s="12">
         <f t="shared" si="12"/>
         <v>52931</v>
       </c>
@@ -7077,7 +7077,7 @@
       <c r="D383" s="10"/>
     </row>
     <row r="384" spans="1:7">
-      <c r="A384" s="11">
+      <c r="A384" s="12">
         <f t="shared" si="12"/>
         <v>52962</v>
       </c>
@@ -7088,7 +7088,7 @@
       <c r="D384" s="10"/>
     </row>
     <row r="385" spans="1:4">
-      <c r="A385" s="11">
+      <c r="A385" s="12">
         <f t="shared" si="12"/>
         <v>52993</v>
       </c>
@@ -7099,7 +7099,7 @@
       <c r="D385" s="10"/>
     </row>
     <row r="386" spans="1:4">
-      <c r="A386" s="11">
+      <c r="A386" s="12">
         <f t="shared" si="12"/>
         <v>53021</v>
       </c>
@@ -7110,7 +7110,7 @@
       <c r="D386" s="10"/>
     </row>
     <row r="387" spans="1:4">
-      <c r="A387" s="11">
+      <c r="A387" s="12">
         <f t="shared" si="12"/>
         <v>53052</v>
       </c>
@@ -7121,7 +7121,7 @@
       <c r="D387" s="10"/>
     </row>
     <row r="388" spans="1:4">
-      <c r="A388" s="11">
+      <c r="A388" s="12">
         <f t="shared" si="12"/>
         <v>53082</v>
       </c>
@@ -7132,7 +7132,7 @@
       <c r="D388" s="10"/>
     </row>
     <row r="389" spans="1:4">
-      <c r="A389" s="11">
+      <c r="A389" s="12">
         <f t="shared" si="12"/>
         <v>53113</v>
       </c>
@@ -7143,7 +7143,7 @@
       <c r="D389" s="10"/>
     </row>
     <row r="390" spans="1:4">
-      <c r="A390" s="11">
+      <c r="A390" s="12">
         <f t="shared" si="12"/>
         <v>53143</v>
       </c>
@@ -7154,7 +7154,7 @@
       <c r="D390" s="10"/>
     </row>
     <row r="391" spans="1:4">
-      <c r="A391" s="11">
+      <c r="A391" s="12">
         <f t="shared" si="12"/>
         <v>53174</v>
       </c>
@@ -7165,7 +7165,7 @@
       <c r="D391" s="10"/>
     </row>
     <row r="392" spans="1:4">
-      <c r="A392" s="11">
+      <c r="A392" s="12">
         <f t="shared" si="12"/>
         <v>53205</v>
       </c>
@@ -7176,7 +7176,7 @@
       <c r="D392" s="10"/>
     </row>
     <row r="393" spans="1:4">
-      <c r="A393" s="11">
+      <c r="A393" s="12">
         <f t="shared" si="12"/>
         <v>53235</v>
       </c>
@@ -7187,7 +7187,7 @@
       <c r="D393" s="10"/>
     </row>
     <row r="394" spans="1:4">
-      <c r="A394" s="11">
+      <c r="A394" s="12">
         <f t="shared" si="12"/>
         <v>53266</v>
       </c>
@@ -7198,7 +7198,7 @@
       <c r="D394" s="10"/>
     </row>
     <row r="395" spans="1:4">
-      <c r="A395" s="11">
+      <c r="A395" s="12">
         <f t="shared" si="12"/>
         <v>53296</v>
       </c>
@@ -7209,7 +7209,7 @@
       <c r="D395" s="10"/>
     </row>
     <row r="396" spans="1:4">
-      <c r="A396" s="11">
+      <c r="A396" s="12">
         <f t="shared" si="12"/>
         <v>53327</v>
       </c>
@@ -7220,7 +7220,7 @@
       <c r="D396" s="10"/>
     </row>
     <row r="397" spans="1:4">
-      <c r="A397" s="11">
+      <c r="A397" s="12">
         <f t="shared" si="12"/>
         <v>53358</v>
       </c>
@@ -7231,7 +7231,7 @@
       <c r="D397" s="10"/>
     </row>
     <row r="398" spans="1:4">
-      <c r="A398" s="11">
+      <c r="A398" s="12">
         <f t="shared" si="12"/>
         <v>53386</v>
       </c>
@@ -7242,7 +7242,7 @@
       <c r="D398" s="10"/>
     </row>
     <row r="399" spans="1:4">
-      <c r="A399" s="11">
+      <c r="A399" s="12">
         <f t="shared" si="12"/>
         <v>53417</v>
       </c>
@@ -7253,7 +7253,7 @@
       <c r="D399" s="10"/>
     </row>
     <row r="400" spans="1:4">
-      <c r="A400" s="11">
+      <c r="A400" s="12">
         <f t="shared" si="12"/>
         <v>53447</v>
       </c>
@@ -7264,7 +7264,7 @@
       <c r="D400" s="10"/>
     </row>
     <row r="401" spans="1:4">
-      <c r="A401" s="11">
+      <c r="A401" s="12">
         <f t="shared" si="12"/>
         <v>53478</v>
       </c>
@@ -7275,7 +7275,7 @@
       <c r="D401" s="10"/>
     </row>
     <row r="402" spans="1:4">
-      <c r="A402" s="11">
+      <c r="A402" s="12">
         <f t="shared" si="12"/>
         <v>53508</v>
       </c>
@@ -7286,7 +7286,7 @@
       <c r="D402" s="10"/>
     </row>
     <row r="403" spans="1:4">
-      <c r="A403" s="11">
+      <c r="A403" s="12">
         <f t="shared" si="12"/>
         <v>53539</v>
       </c>
@@ -7297,7 +7297,7 @@
       <c r="D403" s="10"/>
     </row>
     <row r="404" spans="1:4">
-      <c r="A404" s="11">
+      <c r="A404" s="12">
         <f t="shared" si="12"/>
         <v>53570</v>
       </c>
@@ -7308,7 +7308,7 @@
       <c r="D404" s="10"/>
     </row>
     <row r="405" spans="1:4">
-      <c r="A405" s="11">
+      <c r="A405" s="12">
         <f t="shared" si="12"/>
         <v>53600</v>
       </c>
@@ -7319,7 +7319,7 @@
       <c r="D405" s="10"/>
     </row>
     <row r="406" spans="1:4">
-      <c r="A406" s="11">
+      <c r="A406" s="12">
         <f t="shared" si="12"/>
         <v>53631</v>
       </c>
@@ -7330,7 +7330,7 @@
       <c r="D406" s="10"/>
     </row>
     <row r="407" spans="1:4">
-      <c r="A407" s="11">
+      <c r="A407" s="12">
         <f t="shared" si="12"/>
         <v>53661</v>
       </c>
@@ -7341,7 +7341,7 @@
       <c r="D407" s="10"/>
     </row>
     <row r="408" spans="1:4">
-      <c r="A408" s="11">
+      <c r="A408" s="12">
         <f t="shared" si="12"/>
         <v>53692</v>
       </c>
@@ -7352,7 +7352,7 @@
       <c r="D408" s="10"/>
     </row>
     <row r="409" spans="1:4">
-      <c r="A409" s="11">
+      <c r="A409" s="12">
         <f t="shared" si="12"/>
         <v>53723</v>
       </c>
@@ -7363,7 +7363,7 @@
       <c r="D409" s="10"/>
     </row>
     <row r="410" spans="1:4">
-      <c r="A410" s="11">
+      <c r="A410" s="12">
         <f t="shared" si="12"/>
         <v>53751</v>
       </c>
@@ -7374,7 +7374,7 @@
       <c r="D410" s="10"/>
     </row>
     <row r="411" spans="1:4">
-      <c r="A411" s="11">
+      <c r="A411" s="12">
         <f t="shared" si="12"/>
         <v>53782</v>
       </c>
@@ -7385,7 +7385,7 @@
       <c r="D411" s="10"/>
     </row>
     <row r="412" spans="1:4">
-      <c r="A412" s="11">
+      <c r="A412" s="12">
         <f t="shared" si="12"/>
         <v>53812</v>
       </c>
@@ -7396,7 +7396,7 @@
       <c r="D412" s="10"/>
     </row>
     <row r="413" spans="1:4">
-      <c r="A413" s="11">
+      <c r="A413" s="12">
         <f t="shared" si="12"/>
         <v>53843</v>
       </c>
@@ -7407,7 +7407,7 @@
       <c r="D413" s="10"/>
     </row>
     <row r="414" spans="1:4">
-      <c r="A414" s="11">
+      <c r="A414" s="12">
         <f t="shared" si="12"/>
         <v>53873</v>
       </c>
@@ -7418,7 +7418,7 @@
       <c r="D414" s="10"/>
     </row>
     <row r="415" spans="1:4">
-      <c r="A415" s="11">
+      <c r="A415" s="12">
         <f t="shared" si="12"/>
         <v>53904</v>
       </c>
@@ -7429,7 +7429,7 @@
       <c r="D415" s="10"/>
     </row>
     <row r="416" spans="1:4">
-      <c r="A416" s="11">
+      <c r="A416" s="12">
         <f t="shared" si="12"/>
         <v>53935</v>
       </c>
@@ -7440,7 +7440,7 @@
       <c r="D416" s="10"/>
     </row>
     <row r="417" spans="1:4">
-      <c r="A417" s="11">
+      <c r="A417" s="12">
         <f t="shared" si="12"/>
         <v>53965</v>
       </c>
@@ -7451,7 +7451,7 @@
       <c r="D417" s="10"/>
     </row>
     <row r="418" spans="1:4">
-      <c r="A418" s="11">
+      <c r="A418" s="12">
         <f t="shared" si="12"/>
         <v>53996</v>
       </c>
@@ -7462,7 +7462,7 @@
       <c r="D418" s="10"/>
     </row>
     <row r="419" spans="1:4">
-      <c r="A419" s="11">
+      <c r="A419" s="12">
         <f t="shared" si="12"/>
         <v>54026</v>
       </c>
@@ -7473,7 +7473,7 @@
       <c r="D419" s="10"/>
     </row>
     <row r="420" spans="1:4">
-      <c r="A420" s="11">
+      <c r="A420" s="12">
         <f t="shared" si="12"/>
         <v>54057</v>
       </c>
@@ -7484,7 +7484,7 @@
       <c r="D420" s="10"/>
     </row>
     <row r="421" spans="1:4">
-      <c r="A421" s="11">
+      <c r="A421" s="12">
         <f t="shared" si="12"/>
         <v>54088</v>
       </c>
@@ -7495,7 +7495,7 @@
       <c r="D421" s="10"/>
     </row>
     <row r="422" spans="1:4">
-      <c r="A422" s="11">
+      <c r="A422" s="12">
         <f t="shared" si="12"/>
         <v>54117</v>
       </c>
@@ -7506,7 +7506,7 @@
       <c r="D422" s="10"/>
     </row>
     <row r="423" spans="1:4">
-      <c r="A423" s="11">
+      <c r="A423" s="12">
         <f t="shared" si="12"/>
         <v>54148</v>
       </c>
@@ -7517,7 +7517,7 @@
       <c r="D423" s="10"/>
     </row>
     <row r="424" spans="1:4">
-      <c r="A424" s="11">
+      <c r="A424" s="12">
         <f t="shared" si="12"/>
         <v>54178</v>
       </c>
@@ -7528,7 +7528,7 @@
       <c r="D424" s="10"/>
     </row>
     <row r="425" spans="1:4">
-      <c r="A425" s="11">
+      <c r="A425" s="12">
         <f t="shared" si="12"/>
         <v>54209</v>
       </c>
@@ -7539,7 +7539,7 @@
       <c r="D425" s="10"/>
     </row>
     <row r="426" spans="1:4">
-      <c r="A426" s="11">
+      <c r="A426" s="12">
         <f t="shared" si="12"/>
         <v>54239</v>
       </c>
@@ -7550,7 +7550,7 @@
       <c r="D426" s="10"/>
     </row>
     <row r="427" spans="1:4">
-      <c r="A427" s="11">
+      <c r="A427" s="12">
         <f t="shared" si="12"/>
         <v>54270</v>
       </c>
@@ -7561,7 +7561,7 @@
       <c r="D427" s="10"/>
     </row>
     <row r="428" spans="1:4">
-      <c r="A428" s="11">
+      <c r="A428" s="12">
         <f t="shared" si="12"/>
         <v>54301</v>
       </c>
@@ -7572,7 +7572,7 @@
       <c r="D428" s="10"/>
     </row>
     <row r="429" spans="1:4">
-      <c r="A429" s="11">
+      <c r="A429" s="12">
         <f t="shared" si="12"/>
         <v>54331</v>
       </c>
@@ -7583,7 +7583,7 @@
       <c r="D429" s="10"/>
     </row>
     <row r="430" spans="1:4">
-      <c r="A430" s="11">
+      <c r="A430" s="12">
         <f t="shared" si="12"/>
         <v>54362</v>
       </c>
@@ -7594,7 +7594,7 @@
       <c r="D430" s="10"/>
     </row>
     <row r="431" spans="1:4">
-      <c r="A431" s="11">
+      <c r="A431" s="12">
         <f t="shared" si="12"/>
         <v>54392</v>
       </c>
@@ -7605,7 +7605,7 @@
       <c r="D431" s="10"/>
     </row>
     <row r="432" spans="1:4">
-      <c r="A432" s="11">
+      <c r="A432" s="12">
         <f t="shared" si="12"/>
         <v>54423</v>
       </c>
@@ -7616,7 +7616,7 @@
       <c r="D432" s="10"/>
     </row>
     <row r="433" spans="1:4">
-      <c r="A433" s="11">
+      <c r="A433" s="12">
         <f t="shared" si="12"/>
         <v>54454</v>
       </c>
@@ -7627,7 +7627,7 @@
       <c r="D433" s="10"/>
     </row>
     <row r="434" spans="1:4">
-      <c r="A434" s="11">
+      <c r="A434" s="12">
         <f t="shared" si="12"/>
         <v>54482</v>
       </c>
@@ -7638,7 +7638,7 @@
       <c r="D434" s="10"/>
     </row>
     <row r="435" spans="1:4">
-      <c r="A435" s="11">
+      <c r="A435" s="12">
         <f t="shared" si="12"/>
         <v>54513</v>
       </c>
@@ -7649,7 +7649,7 @@
       <c r="D435" s="10"/>
     </row>
     <row r="436" spans="1:4">
-      <c r="A436" s="11">
+      <c r="A436" s="12">
         <f t="shared" si="12"/>
         <v>54543</v>
       </c>
@@ -7660,7 +7660,7 @@
       <c r="D436" s="10"/>
     </row>
     <row r="437" spans="1:4">
-      <c r="A437" s="11">
+      <c r="A437" s="12">
         <f t="shared" si="12"/>
         <v>54574</v>
       </c>
@@ -7671,7 +7671,7 @@
       <c r="D437" s="10"/>
     </row>
     <row r="438" spans="1:4">
-      <c r="A438" s="11">
+      <c r="A438" s="12">
         <f t="shared" ref="A438:A493" si="14">EOMONTH(A437,1)</f>
         <v>54604</v>
       </c>
@@ -7682,7 +7682,7 @@
       <c r="D438" s="10"/>
     </row>
     <row r="439" spans="1:4">
-      <c r="A439" s="11">
+      <c r="A439" s="12">
         <f t="shared" si="14"/>
         <v>54635</v>
       </c>
@@ -7693,7 +7693,7 @@
       <c r="D439" s="10"/>
     </row>
     <row r="440" spans="1:4">
-      <c r="A440" s="11">
+      <c r="A440" s="12">
         <f t="shared" si="14"/>
         <v>54666</v>
       </c>
@@ -7704,7 +7704,7 @@
       <c r="D440" s="10"/>
     </row>
     <row r="441" spans="1:4">
-      <c r="A441" s="11">
+      <c r="A441" s="12">
         <f t="shared" si="14"/>
         <v>54696</v>
       </c>
@@ -7715,7 +7715,7 @@
       <c r="D441" s="10"/>
     </row>
     <row r="442" spans="1:4">
-      <c r="A442" s="11">
+      <c r="A442" s="12">
         <f t="shared" si="14"/>
         <v>54727</v>
       </c>
@@ -7726,7 +7726,7 @@
       <c r="D442" s="10"/>
     </row>
     <row r="443" spans="1:4">
-      <c r="A443" s="11">
+      <c r="A443" s="12">
         <f t="shared" si="14"/>
         <v>54757</v>
       </c>
@@ -7737,7 +7737,7 @@
       <c r="D443" s="10"/>
     </row>
     <row r="444" spans="1:4">
-      <c r="A444" s="11">
+      <c r="A444" s="12">
         <f t="shared" si="14"/>
         <v>54788</v>
       </c>
@@ -7748,7 +7748,7 @@
       <c r="D444" s="10"/>
     </row>
     <row r="445" spans="1:4">
-      <c r="A445" s="11">
+      <c r="A445" s="12">
         <f t="shared" si="14"/>
         <v>54819</v>
       </c>
@@ -7759,7 +7759,7 @@
       <c r="D445" s="10"/>
     </row>
     <row r="446" spans="1:4">
-      <c r="A446" s="11">
+      <c r="A446" s="12">
         <f t="shared" si="14"/>
         <v>54847</v>
       </c>
@@ -7770,7 +7770,7 @@
       <c r="D446" s="10"/>
     </row>
     <row r="447" spans="1:4">
-      <c r="A447" s="11">
+      <c r="A447" s="12">
         <f t="shared" si="14"/>
         <v>54878</v>
       </c>
@@ -7781,7 +7781,7 @@
       <c r="D447" s="10"/>
     </row>
     <row r="448" spans="1:4">
-      <c r="A448" s="11">
+      <c r="A448" s="12">
         <f t="shared" si="14"/>
         <v>54908</v>
       </c>
@@ -7792,7 +7792,7 @@
       <c r="D448" s="10"/>
     </row>
     <row r="449" spans="1:4">
-      <c r="A449" s="11">
+      <c r="A449" s="12">
         <f t="shared" si="14"/>
         <v>54939</v>
       </c>
@@ -7803,7 +7803,7 @@
       <c r="D449" s="10"/>
     </row>
     <row r="450" spans="1:4">
-      <c r="A450" s="11">
+      <c r="A450" s="12">
         <f t="shared" si="14"/>
         <v>54969</v>
       </c>
@@ -7814,7 +7814,7 @@
       <c r="D450" s="10"/>
     </row>
     <row r="451" spans="1:4">
-      <c r="A451" s="11">
+      <c r="A451" s="12">
         <f t="shared" si="14"/>
         <v>55000</v>
       </c>
@@ -7825,7 +7825,7 @@
       <c r="D451" s="10"/>
     </row>
     <row r="452" spans="1:4">
-      <c r="A452" s="11">
+      <c r="A452" s="12">
         <f t="shared" si="14"/>
         <v>55031</v>
       </c>
@@ -7836,7 +7836,7 @@
       <c r="D452" s="10"/>
     </row>
     <row r="453" spans="1:4">
-      <c r="A453" s="11">
+      <c r="A453" s="12">
         <f t="shared" si="14"/>
         <v>55061</v>
       </c>
@@ -7847,7 +7847,7 @@
       <c r="D453" s="10"/>
     </row>
     <row r="454" spans="1:4">
-      <c r="A454" s="11">
+      <c r="A454" s="12">
         <f t="shared" si="14"/>
         <v>55092</v>
       </c>
@@ -7858,7 +7858,7 @@
       <c r="D454" s="10"/>
     </row>
     <row r="455" spans="1:4">
-      <c r="A455" s="11">
+      <c r="A455" s="12">
         <f t="shared" si="14"/>
         <v>55122</v>
       </c>
@@ -7869,7 +7869,7 @@
       <c r="D455" s="10"/>
     </row>
     <row r="456" spans="1:4">
-      <c r="A456" s="11">
+      <c r="A456" s="12">
         <f t="shared" si="14"/>
         <v>55153</v>
       </c>
@@ -7880,7 +7880,7 @@
       <c r="D456" s="10"/>
     </row>
     <row r="457" spans="1:4">
-      <c r="A457" s="11">
+      <c r="A457" s="12">
         <f t="shared" si="14"/>
         <v>55184</v>
       </c>
@@ -7891,7 +7891,7 @@
       <c r="D457" s="10"/>
     </row>
     <row r="458" spans="1:4">
-      <c r="A458" s="11">
+      <c r="A458" s="12">
         <f t="shared" si="14"/>
         <v>55212</v>
       </c>
@@ -7902,7 +7902,7 @@
       <c r="D458" s="10"/>
     </row>
     <row r="459" spans="1:4">
-      <c r="A459" s="11">
+      <c r="A459" s="12">
         <f t="shared" si="14"/>
         <v>55243</v>
       </c>
@@ -7913,7 +7913,7 @@
       <c r="D459" s="10"/>
     </row>
     <row r="460" spans="1:4">
-      <c r="A460" s="11">
+      <c r="A460" s="12">
         <f t="shared" si="14"/>
         <v>55273</v>
       </c>
@@ -7924,7 +7924,7 @@
       <c r="D460" s="10"/>
     </row>
     <row r="461" spans="1:4">
-      <c r="A461" s="11">
+      <c r="A461" s="12">
         <f t="shared" si="14"/>
         <v>55304</v>
       </c>
@@ -7935,7 +7935,7 @@
       <c r="D461" s="10"/>
     </row>
     <row r="462" spans="1:4">
-      <c r="A462" s="11">
+      <c r="A462" s="12">
         <f t="shared" si="14"/>
         <v>55334</v>
       </c>
@@ -7946,7 +7946,7 @@
       <c r="D462" s="10"/>
     </row>
     <row r="463" spans="1:4">
-      <c r="A463" s="11">
+      <c r="A463" s="12">
         <f t="shared" si="14"/>
         <v>55365</v>
       </c>
@@ -7957,7 +7957,7 @@
       <c r="D463" s="10"/>
     </row>
     <row r="464" spans="1:4">
-      <c r="A464" s="11">
+      <c r="A464" s="12">
         <f t="shared" si="14"/>
         <v>55396</v>
       </c>
@@ -7968,7 +7968,7 @@
       <c r="D464" s="10"/>
     </row>
     <row r="465" spans="1:4">
-      <c r="A465" s="11">
+      <c r="A465" s="12">
         <f t="shared" si="14"/>
         <v>55426</v>
       </c>
@@ -7979,7 +7979,7 @@
       <c r="D465" s="10"/>
     </row>
     <row r="466" spans="1:4">
-      <c r="A466" s="11">
+      <c r="A466" s="12">
         <f t="shared" si="14"/>
         <v>55457</v>
       </c>
@@ -7990,7 +7990,7 @@
       <c r="D466" s="10"/>
     </row>
     <row r="467" spans="1:4">
-      <c r="A467" s="11">
+      <c r="A467" s="12">
         <f t="shared" si="14"/>
         <v>55487</v>
       </c>
@@ -8001,7 +8001,7 @@
       <c r="D467" s="10"/>
     </row>
     <row r="468" spans="1:4">
-      <c r="A468" s="11">
+      <c r="A468" s="12">
         <f t="shared" si="14"/>
         <v>55518</v>
       </c>
@@ -8012,7 +8012,7 @@
       <c r="D468" s="10"/>
     </row>
     <row r="469" spans="1:4">
-      <c r="A469" s="11">
+      <c r="A469" s="12">
         <f t="shared" si="14"/>
         <v>55549</v>
       </c>
@@ -8023,7 +8023,7 @@
       <c r="D469" s="10"/>
     </row>
     <row r="470" spans="1:4">
-      <c r="A470" s="11">
+      <c r="A470" s="12">
         <f t="shared" si="14"/>
         <v>55578</v>
       </c>
@@ -8034,7 +8034,7 @@
       <c r="D470" s="10"/>
     </row>
     <row r="471" spans="1:4">
-      <c r="A471" s="11">
+      <c r="A471" s="12">
         <f t="shared" si="14"/>
         <v>55609</v>
       </c>
@@ -8045,7 +8045,7 @@
       <c r="D471" s="10"/>
     </row>
     <row r="472" spans="1:4">
-      <c r="A472" s="11">
+      <c r="A472" s="12">
         <f t="shared" si="14"/>
         <v>55639</v>
       </c>
@@ -8056,7 +8056,7 @@
       <c r="D472" s="10"/>
     </row>
     <row r="473" spans="1:4">
-      <c r="A473" s="11">
+      <c r="A473" s="12">
         <f t="shared" si="14"/>
         <v>55670</v>
       </c>
@@ -8067,7 +8067,7 @@
       <c r="D473" s="10"/>
     </row>
     <row r="474" spans="1:4">
-      <c r="A474" s="11">
+      <c r="A474" s="12">
         <f t="shared" si="14"/>
         <v>55700</v>
       </c>
@@ -8078,7 +8078,7 @@
       <c r="D474" s="10"/>
     </row>
     <row r="475" spans="1:4">
-      <c r="A475" s="11">
+      <c r="A475" s="12">
         <f t="shared" si="14"/>
         <v>55731</v>
       </c>
@@ -8089,7 +8089,7 @@
       <c r="D475" s="10"/>
     </row>
     <row r="476" spans="1:4">
-      <c r="A476" s="11">
+      <c r="A476" s="12">
         <f t="shared" si="14"/>
         <v>55762</v>
       </c>
@@ -8100,7 +8100,7 @@
       <c r="D476" s="10"/>
     </row>
     <row r="477" spans="1:4">
-      <c r="A477" s="11">
+      <c r="A477" s="12">
         <f t="shared" si="14"/>
         <v>55792</v>
       </c>
@@ -8111,7 +8111,7 @@
       <c r="D477" s="10"/>
     </row>
     <row r="478" spans="1:4">
-      <c r="A478" s="11">
+      <c r="A478" s="12">
         <f t="shared" si="14"/>
         <v>55823</v>
       </c>
@@ -8122,7 +8122,7 @@
       <c r="D478" s="10"/>
     </row>
     <row r="479" spans="1:4">
-      <c r="A479" s="11">
+      <c r="A479" s="12">
         <f t="shared" si="14"/>
         <v>55853</v>
       </c>
@@ -8133,7 +8133,7 @@
       <c r="D479" s="10"/>
     </row>
     <row r="480" spans="1:4">
-      <c r="A480" s="11">
+      <c r="A480" s="12">
         <f t="shared" si="14"/>
         <v>55884</v>
       </c>
@@ -8144,7 +8144,7 @@
       <c r="D480" s="10"/>
     </row>
     <row r="481" spans="1:4">
-      <c r="A481" s="11">
+      <c r="A481" s="12">
         <f t="shared" si="14"/>
         <v>55915</v>
       </c>
@@ -8155,7 +8155,7 @@
       <c r="D481" s="10"/>
     </row>
     <row r="482" spans="1:4">
-      <c r="A482" s="11">
+      <c r="A482" s="12">
         <f t="shared" si="14"/>
         <v>55943</v>
       </c>
@@ -8166,7 +8166,7 @@
       <c r="D482" s="10"/>
     </row>
     <row r="483" spans="1:4">
-      <c r="A483" s="11">
+      <c r="A483" s="12">
         <f t="shared" si="14"/>
         <v>55974</v>
       </c>
@@ -8177,7 +8177,7 @@
       <c r="D483" s="10"/>
     </row>
     <row r="484" spans="1:4">
-      <c r="A484" s="11">
+      <c r="A484" s="12">
         <f t="shared" si="14"/>
         <v>56004</v>
       </c>
@@ -8188,7 +8188,7 @@
       <c r="D484" s="10"/>
     </row>
     <row r="485" spans="1:4">
-      <c r="A485" s="11">
+      <c r="A485" s="12">
         <f t="shared" si="14"/>
         <v>56035</v>
       </c>
@@ -8199,7 +8199,7 @@
       <c r="D485" s="10"/>
     </row>
     <row r="486" spans="1:4">
-      <c r="A486" s="11">
+      <c r="A486" s="12">
         <f t="shared" si="14"/>
         <v>56065</v>
       </c>
@@ -8210,7 +8210,7 @@
       <c r="D486" s="10"/>
     </row>
     <row r="487" spans="1:4">
-      <c r="A487" s="11">
+      <c r="A487" s="12">
         <f t="shared" si="14"/>
         <v>56096</v>
       </c>
@@ -8221,7 +8221,7 @@
       <c r="D487" s="10"/>
     </row>
     <row r="488" spans="1:4">
-      <c r="A488" s="11">
+      <c r="A488" s="12">
         <f t="shared" si="14"/>
         <v>56127</v>
       </c>
@@ -8232,7 +8232,7 @@
       <c r="D488" s="10"/>
     </row>
     <row r="489" spans="1:4">
-      <c r="A489" s="11">
+      <c r="A489" s="12">
         <f t="shared" si="14"/>
         <v>56157</v>
       </c>
@@ -8243,7 +8243,7 @@
       <c r="D489" s="10"/>
     </row>
     <row r="490" spans="1:4">
-      <c r="A490" s="11">
+      <c r="A490" s="12">
         <f t="shared" si="14"/>
         <v>56188</v>
       </c>
@@ -8254,7 +8254,7 @@
       <c r="D490" s="10"/>
     </row>
     <row r="491" spans="1:4">
-      <c r="A491" s="11">
+      <c r="A491" s="12">
         <f t="shared" si="14"/>
         <v>56218</v>
       </c>
@@ -8265,7 +8265,7 @@
       <c r="D491" s="10"/>
     </row>
     <row r="492" spans="1:4">
-      <c r="A492" s="11">
+      <c r="A492" s="12">
         <f t="shared" si="14"/>
         <v>56249</v>
       </c>
@@ -8276,7 +8276,7 @@
       <c r="D492" s="10"/>
     </row>
     <row r="493" spans="1:4">
-      <c r="A493" s="11">
+      <c r="A493" s="12">
         <f t="shared" si="14"/>
         <v>56280</v>
       </c>
@@ -8287,12 +8287,12 @@
       <c r="D493" s="10"/>
     </row>
     <row r="494" spans="1:4">
-      <c r="A494" s="11"/>
+      <c r="A494" s="12"/>
       <c r="B494" s="6"/>
       <c r="D494" s="10"/>
     </row>
     <row r="495" spans="1:4">
-      <c r="A495" s="11"/>
+      <c r="A495" s="12"/>
       <c r="B495" s="6"/>
       <c r="D495" s="10"/>
     </row>
